--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_641.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_641.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32651-d258700-Reviews-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>165</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Residence-Inn-By-Marriott-Cypress-Orange-County.h897511.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_641.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_641.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="663">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1911 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r562406482-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>32651</t>
+  </si>
+  <si>
+    <t>258700</t>
+  </si>
+  <si>
+    <t>562406482</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t>One of the best Residence Inns</t>
+  </si>
+  <si>
+    <t>We stay at Residence Inns often as we travel with a teenager and need two bedrooms. This was one of the best. Clean and the furnishings were all comfortable. The front desk staff were terrific. We arrived at 4PM and rooms were not ready due to some issues with housekeeping. We waited about 30 minutes and without asking, the front desk team changed our rate to something slightly lower than what we had booked. We didn't ask for this, they did it on their own. Clearly the staff have been trained to make independent decisions. The breakfast was perfectly fine. We would definitely recommend this hotel. It is about a 20 minute drive to Disneyland. Plenty of restaurants nearby as well as a Vons grocery store.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Lisa L, General Manager at Residence Inn by Marriott Cypress Los Alamitos, responded to this reviewResponded February 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2018</t>
+  </si>
+  <si>
+    <t>We stay at Residence Inns often as we travel with a teenager and need two bedrooms. This was one of the best. Clean and the furnishings were all comfortable. The front desk staff were terrific. We arrived at 4PM and rooms were not ready due to some issues with housekeeping. We waited about 30 minutes and without asking, the front desk team changed our rate to something slightly lower than what we had booked. We didn't ask for this, they did it on their own. Clearly the staff have been trained to make independent decisions. The breakfast was perfectly fine. We would definitely recommend this hotel. It is about a 20 minute drive to Disneyland. Plenty of restaurants nearby as well as a Vons grocery store.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r546445943-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>546445943</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>1 night only</t>
+  </si>
+  <si>
+    <t>We were here on a quick visit to LA area after attending a wedding.  We chose this location since it's not very far from Disney and not too close to where you'd pay the Disney price.  Staff, as expected from Marriott, was great, very helpful and engaging.  Our unit was 2BR/2BA on the 3rd floor.  The breakfast buffett was good and plentyful.  Parking is free, the hotel is clean and looks like newly renovated.  I would stay again if we're in the area.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r541116762-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>541116762</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>Super clean and comfortable!</t>
+  </si>
+  <si>
+    <t>Apparently freshly remodeled. Squeaky clean. I loved the super toilet, great lamps/lighting, plenty of outlets,  light switches, big, clean fridge, good tv with lots of channels, very comfortable bed and pillows, best desk chair (I’m going to get one of those!), and plenty of space. Problem-free WiFi. The staff were friendly and professional. It was quiet, although very full judging from the parking lot. We were there on horse business, so it was extremely convenient to Los Al track. I really enjoyed staying here. MoreShow less</t>
+  </si>
+  <si>
+    <t>Lisa L, General Manager at Residence Inn by Marriott Cypress Los Alamitos, responded to this reviewResponded November 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2017</t>
+  </si>
+  <si>
+    <t>Apparently freshly remodeled. Squeaky clean. I loved the super toilet, great lamps/lighting, plenty of outlets,  light switches, big, clean fridge, good tv with lots of channels, very comfortable bed and pillows, best desk chair (I’m going to get one of those!), and plenty of space. Problem-free WiFi. The staff were friendly and professional. It was quiet, although very full judging from the parking lot. We were there on horse business, so it was extremely convenient to Los Al track. I really enjoyed staying here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r516479890-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>516479890</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Spacious suites for a big family</t>
+  </si>
+  <si>
+    <t>Centrally located halfway between Orange County and Downtown LA, the Residence Inn is a good place to explore all of metro LA, but you'll need to drive everywhere.  Parking is free and plentiful unless you arrive late at night.  The 2 bedroom/2 bath suites are spacious, with a fold-out sofa bed in the living room as well, so 6 people can be accomodated.  The fold-out sofa bed was uncomfortable to sleep in, so our 5th person just slept on the cushions which turned out to be just fine.  The 2 queen beds in each of the bedrooms was too soft for my tastes as well.  Otherwise, with 3 TV's, free WiFi, and 2 generous baths and a full kitchen with utensils, cookware, and dishes, it accomodates a large active family.  On the grounds is a basketball court and a nice outdoor swimming pool.  Basketballs are available to check out from the friendly front desk staff.  A full breakfast is served with a rotating menu of eggs, sausage/bacon, and an assortment of cereal, rolls, yogurt and fruit.  Plenty of seating in a pleasant atrium.  Prompt and friendly maid service cleaned up well after you.  We enjoyed our stay here which was over a week long.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Centrally located halfway between Orange County and Downtown LA, the Residence Inn is a good place to explore all of metro LA, but you'll need to drive everywhere.  Parking is free and plentiful unless you arrive late at night.  The 2 bedroom/2 bath suites are spacious, with a fold-out sofa bed in the living room as well, so 6 people can be accomodated.  The fold-out sofa bed was uncomfortable to sleep in, so our 5th person just slept on the cushions which turned out to be just fine.  The 2 queen beds in each of the bedrooms was too soft for my tastes as well.  Otherwise, with 3 TV's, free WiFi, and 2 generous baths and a full kitchen with utensils, cookware, and dishes, it accomodates a large active family.  On the grounds is a basketball court and a nice outdoor swimming pool.  Basketballs are available to check out from the friendly front desk staff.  A full breakfast is served with a rotating menu of eggs, sausage/bacon, and an assortment of cereal, rolls, yogurt and fruit.  Plenty of seating in a pleasant atrium.  Prompt and friendly maid service cleaned up well after you.  We enjoyed our stay here which was over a week long.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r506280892-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>506280892</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Great for Families</t>
+  </si>
+  <si>
+    <t>Enjoyed our 4 night visit here.  Friendly staff from reception to housekeeping. Our clean, spacious &amp; modern room included a kitchen area.  Firm bed w/good bedding.  Good bathroom design w/vanity &amp; sink separated from the shower/toilet.  Only 3 floors so we never had to wait endlessly for an elevator - we could opt for stairs and a bit of exercise instead.  A minor negative was an intermittent noise coming from the air conditioner which unfortunately seemed amplified at night.  Free internet but slow service or connectivity issues.  Complimentary breakfast buffet included a coffee station &amp; make-your-own waffles plus healthy choices:  juices, fresh fruit, yogurt &amp; oatmeal.  Hot choices varied daily but included scrambled eggs and various sausages/bacon.  Multi sports court [basketball, volleyball etc.] and outdoor pool. Plenty of free parking surrounds the hotel. Reasonable rates + very convenient base for visiting the area.  Would stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Enjoyed our 4 night visit here.  Friendly staff from reception to housekeeping. Our clean, spacious &amp; modern room included a kitchen area.  Firm bed w/good bedding.  Good bathroom design w/vanity &amp; sink separated from the shower/toilet.  Only 3 floors so we never had to wait endlessly for an elevator - we could opt for stairs and a bit of exercise instead.  A minor negative was an intermittent noise coming from the air conditioner which unfortunately seemed amplified at night.  Free internet but slow service or connectivity issues.  Complimentary breakfast buffet included a coffee station &amp; make-your-own waffles plus healthy choices:  juices, fresh fruit, yogurt &amp; oatmeal.  Hot choices varied daily but included scrambled eggs and various sausages/bacon.  Multi sports court [basketball, volleyball etc.] and outdoor pool. Plenty of free parking surrounds the hotel. Reasonable rates + very convenient base for visiting the area.  Would stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r495430785-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>495430785</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>Not What It Used to Be</t>
+  </si>
+  <si>
+    <t>This used to be a great place to stay. Because wehave family in the area, this has always been our goto place to stay. When we arrived, we noticed that the place looked in need of an update. The outsideof the building looked dull as if it needed a paintjob. The rooms were fine but the buffet breakfast was more limited in food selections. The morning we are there, there was no bacon, no pancakes,No pastries-all choices that were usually found inabundance. There was limited fruit and scant yogurt.The staff remains very pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Lisa L, General Manager at Residence Inn by Marriott Cypress Los Alamitos, responded to this reviewResponded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2017</t>
+  </si>
+  <si>
+    <t>This used to be a great place to stay. Because wehave family in the area, this has always been our goto place to stay. When we arrived, we noticed that the place looked in need of an update. The outsideof the building looked dull as if it needed a paintjob. The rooms were fine but the buffet breakfast was more limited in food selections. The morning we are there, there was no bacon, no pancakes,No pastries-all choices that were usually found inabundance. There was limited fruit and scant yogurt.The staff remains very pleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r482009821-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>482009821</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>Good Team and Friendly People</t>
+  </si>
+  <si>
+    <t>Front Desk Team: Very Friendly.
+Lex is funny . Her jokes make everyone laugh.  It was delightful.
+Breakfast Team: Super Amazing.
+The breakfast is really delicious. Karen is amazing and delivers 5 star service.  Barar is upbeat.  You can literally hear her laughing as soon as you walk into the lobby.  It makes the whole hotel feel cheerful.  Erolyn is so thoughtful.  He made waffles for my family and also brought bottles of water to my kids when we were swimming at the pool.  Freddy is also a cool lady.  She makes the best sweet bread in the morning and is very positive even early in the morning.
+Dinner Team: Very Healthy.
+I heard about the Residence Inn "mom" Raquel from the Internet.  She works hard and takes care to make the food healthy.  I saw her preparing the salad once and she took care to wash every leaf and made sure the salad was fresh.  She really does feel like a mom that cares for the guests as if they are her family.  She told me that her grandpa is 95 years old and healthy because he always ate healthy food.  Angela is also sweet.  She gave my friend from the military a big cup of red wine after dinner so he could take it back to his room and relax.  Also, the Sangria and secret salad Josepah prepared is surprisingly good.
+Room Team: Could be Better.
+Melvin is a...Front Desk Team: Very Friendly.Lex is funny . Her jokes make everyone laugh.  It was delightful. Breakfast Team: Super Amazing.The breakfast is really delicious. Karen is amazing and delivers 5 star service.  Barar is upbeat.  You can literally hear her laughing as soon as you walk into the lobby.  It makes the whole hotel feel cheerful.  Erolyn is so thoughtful.  He made waffles for my family and also brought bottles of water to my kids when we were swimming at the pool.  Freddy is also a cool lady.  She makes the best sweet bread in the morning and is very positive even early in the morning. Dinner Team: Very Healthy.I heard about the Residence Inn "mom" Raquel from the Internet.  She works hard and takes care to make the food healthy.  I saw her preparing the salad once and she took care to wash every leaf and made sure the salad was fresh.  She really does feel like a mom that cares for the guests as if they are her family.  She told me that her grandpa is 95 years old and healthy because he always ate healthy food.  Angela is also sweet.  She gave my friend from the military a big cup of red wine after dinner so he could take it back to his room and relax.  Also, the Sangria and secret salad Josepah prepared is surprisingly good.Room Team: Could be Better.Melvin is a young guy who works hard with enthusiasm. He loves the hotel so much. I saw him clean the carpet outside the door, and takes out the trash when no one wants to do it. I wish I could do my job like him. Stephanie also works hard and seems to have a passion for her job.  She always treated me like family.  We talked a lot and she made my room very clean.  However; Some of the other housekeepers forgot to stock the room fully though.  One time I went out to find toilet paper and asked Isabel for one.  She looked at me suspiciously and said I needed to ask the housekeepers on my own floor.  I just went to the front desk and asked Lex.  She made a joke and made me feel better.   Room Internet: 80% good.80% of the time the Internet was good. 20% of the time it didn't really work.  I had the enhanced speed plan, but it didn't seem to make a difference.  I had to call the Internet company 2 times to get the problem solved.  I would hesitate to work from the hotel room if you have anything that needs consistently good Internet.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Front Desk Team: Very Friendly.
+Lex is funny . Her jokes make everyone laugh.  It was delightful.
+Breakfast Team: Super Amazing.
+The breakfast is really delicious. Karen is amazing and delivers 5 star service.  Barar is upbeat.  You can literally hear her laughing as soon as you walk into the lobby.  It makes the whole hotel feel cheerful.  Erolyn is so thoughtful.  He made waffles for my family and also brought bottles of water to my kids when we were swimming at the pool.  Freddy is also a cool lady.  She makes the best sweet bread in the morning and is very positive even early in the morning.
+Dinner Team: Very Healthy.
+I heard about the Residence Inn "mom" Raquel from the Internet.  She works hard and takes care to make the food healthy.  I saw her preparing the salad once and she took care to wash every leaf and made sure the salad was fresh.  She really does feel like a mom that cares for the guests as if they are her family.  She told me that her grandpa is 95 years old and healthy because he always ate healthy food.  Angela is also sweet.  She gave my friend from the military a big cup of red wine after dinner so he could take it back to his room and relax.  Also, the Sangria and secret salad Josepah prepared is surprisingly good.
+Room Team: Could be Better.
+Melvin is a...Front Desk Team: Very Friendly.Lex is funny . Her jokes make everyone laugh.  It was delightful. Breakfast Team: Super Amazing.The breakfast is really delicious. Karen is amazing and delivers 5 star service.  Barar is upbeat.  You can literally hear her laughing as soon as you walk into the lobby.  It makes the whole hotel feel cheerful.  Erolyn is so thoughtful.  He made waffles for my family and also brought bottles of water to my kids when we were swimming at the pool.  Freddy is also a cool lady.  She makes the best sweet bread in the morning and is very positive even early in the morning. Dinner Team: Very Healthy.I heard about the Residence Inn "mom" Raquel from the Internet.  She works hard and takes care to make the food healthy.  I saw her preparing the salad once and she took care to wash every leaf and made sure the salad was fresh.  She really does feel like a mom that cares for the guests as if they are her family.  She told me that her grandpa is 95 years old and healthy because he always ate healthy food.  Angela is also sweet.  She gave my friend from the military a big cup of red wine after dinner so he could take it back to his room and relax.  Also, the Sangria and secret salad Josepah prepared is surprisingly good.Room Team: Could be Better.Melvin is a young guy who works hard with enthusiasm. He loves the hotel so much. I saw him clean the carpet outside the door, and takes out the trash when no one wants to do it. I wish I could do my job like him. Stephanie also works hard and seems to have a passion for her job.  She always treated me like family.  We talked a lot and she made my room very clean.  However; Some of the other housekeepers forgot to stock the room fully though.  One time I went out to find toilet paper and asked Isabel for one.  She looked at me suspiciously and said I needed to ask the housekeepers on my own floor.  I just went to the front desk and asked Lex.  She made a joke and made me feel better.   Room Internet: 80% good.80% of the time the Internet was good. 20% of the time it didn't really work.  I had the enhanced speed plan, but it didn't seem to make a difference.  I had to call the Internet company 2 times to get the problem solved.  I would hesitate to work from the hotel room if you have anything that needs consistently good Internet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r463853803-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>463853803</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Stayed Here While Tenting</t>
+  </si>
+  <si>
+    <t>We needed a place to stay while our home was being tented and would accept small dogs.  One thing that I noticed is their friendly service, whenever I ran into a staff member they always greeted me.The room was perfect for our needs, two adults and two small dogs.  The WiFi worked great, loved that they had HBO since one of us was always in the room,  The area around the hotel is nice, with a small dedicated area for dogs.  Location was decent.  Could walk to a couple of places to get some food, but it does seem a tiny bit isolated.  Not a problem if you have a car, there are plenty of places to eat within 5 minutes.Loved the "free" breakfast in the morning.  Rather limited in menu, but they did have hot food available.I would stay here again if I needed to stay with our dogs.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Lisa L, General Manager at Residence Inn by Marriott Cypress Los Alamitos, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>We needed a place to stay while our home was being tented and would accept small dogs.  One thing that I noticed is their friendly service, whenever I ran into a staff member they always greeted me.The room was perfect for our needs, two adults and two small dogs.  The WiFi worked great, loved that they had HBO since one of us was always in the room,  The area around the hotel is nice, with a small dedicated area for dogs.  Location was decent.  Could walk to a couple of places to get some food, but it does seem a tiny bit isolated.  Not a problem if you have a car, there are plenty of places to eat within 5 minutes.Loved the "free" breakfast in the morning.  Rather limited in menu, but they did have hot food available.I would stay here again if I needed to stay with our dogs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r458423172-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>458423172</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very dirty </t>
+  </si>
+  <si>
+    <t>This hotel is very dirty. We checked in the evening. After my shower, I reached for a towel and saw the nicely folded towel had blood stains on it! My husband unfolded the sofa bed and saw about 3 strands of what appear to be pubic hair! My daughter was already sleeping so  I decided to stay because we had already move our luggages up the 4th floor already. This is a very disappointing experience because I chose this hotel based on the other reviews and since it was recently renovated. The renovation is basically a cosmetic makeover of the extremely old and dirty rooms. Just covering up the old and dirty. The ceiling still had that old popcorn ceiling. We found a long blonde hair strand in stuck to the vanity cabinet. And an old bottle of water half finish under the sofa bed along with cracks and lots of dust. I would not recommend this hotel. Stay away.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lisa L, General Manager at Residence Inn by Marriott Cypress Los Alamitos, responded to this reviewResponded February 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is very dirty. We checked in the evening. After my shower, I reached for a towel and saw the nicely folded towel had blood stains on it! My husband unfolded the sofa bed and saw about 3 strands of what appear to be pubic hair! My daughter was already sleeping so  I decided to stay because we had already move our luggages up the 4th floor already. This is a very disappointing experience because I chose this hotel based on the other reviews and since it was recently renovated. The renovation is basically a cosmetic makeover of the extremely old and dirty rooms. Just covering up the old and dirty. The ceiling still had that old popcorn ceiling. We found a long blonde hair strand in stuck to the vanity cabinet. And an old bottle of water half finish under the sofa bed along with cracks and lots of dust. I would not recommend this hotel. Stay away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r432125574-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>432125574</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California Vacation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel has all you need for a family and/ friends vacation. My friends and I got a two bedroom/ two bath with a living section. We were very comfortable and satisfied with all the amenities. The staffing was great at helping was decide on a Tour. There's plenty of restaurants and grills/bars in the vicinity and shopping within a 3mi radius.The decision on what to have for breakfast may be challenge,because it was all fresh and good. </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r428528747-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>428528747</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t>Great Suite, Pool, Jacuzzi &amp; Breakfast</t>
+  </si>
+  <si>
+    <t>Celebrating my mom's 90th Birthday and needed a place close by. This Residence Inn was the perfect place with all the amenities of home. Recently renovated, the hotel felt like new.  My son and grandson were able to stay with us and we had plenty of room.  The complimentary breakfast was fantastic!  So many choices. Our grandson loved making his own Belgium waffles.  Helpful and friendly staff.  Will come back again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r416980091-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>416980091</t>
+  </si>
+  <si>
+    <t>09/10/2016</t>
+  </si>
+  <si>
+    <t>Great customer service!!</t>
+  </si>
+  <si>
+    <t>The room was great, very clean. The staff was very accommodating,and friendly. Jean at the front desk did a great job at getting us set for the night. Breakfast was also very good. Have stayed here before and have always had a great experience!</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r404181541-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>404181541</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantastic service by friendly staff </t>
+  </si>
+  <si>
+    <t>I usually don't write reviews but I really wanted to thank and acknowledge the fantastic staff at Residence Inn Cypress Los Alamitos for outstanding service. I arrived earlier on Thursday morning 4 August after a 13 hour flight from Australia and was greeted by a lovely lady named Jeanette at check in. After a very long flight Jeanette was genuinely friendly, helpful, efficient and made my early morning check in a breeze. I travel a lot and it's nice when you are greeted by someone who can anticipate what a hotel guest needs straight away and can organise things seamlessly. At check out I once again was greeted by two lovely ladies who were both cheerful and efficient. Great service again.Overall it's sometimes the small things that when all added up makes your stay so much more enjoyable.Thanks.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>I usually don't write reviews but I really wanted to thank and acknowledge the fantastic staff at Residence Inn Cypress Los Alamitos for outstanding service. I arrived earlier on Thursday morning 4 August after a 13 hour flight from Australia and was greeted by a lovely lady named Jeanette at check in. After a very long flight Jeanette was genuinely friendly, helpful, efficient and made my early morning check in a breeze. I travel a lot and it's nice when you are greeted by someone who can anticipate what a hotel guest needs straight away and can organise things seamlessly. At check out I once again was greeted by two lovely ladies who were both cheerful and efficient. Great service again.Overall it's sometimes the small things that when all added up makes your stay so much more enjoyable.Thanks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r401728604-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>401728604</t>
+  </si>
+  <si>
+    <t>08/05/2016</t>
+  </si>
+  <si>
+    <t>Great hotel for families visiting Disney</t>
+  </si>
+  <si>
+    <t>Absolutely loved the hotel. Right on Katella which can you can take all the way to Disneyland. Generous breakfast with options for all tastes.  Beer and wine in the evening. Free parking. We went in December so didn't use the pool plus we spent all the time in Disney. Would highly recommend. Plenty of eating places if you head down to Los Alamitos Blvd including an In-n-Out burger</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r400475050-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>400475050</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>Great hotel, great rooms newly renovated , great pool, good breakfast.People from the hotel very kinds, helpful and trying to help you with all your demands.This is the third time I am staying at this hotel I am very pleased with all the services they have.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r387334625-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>387334625</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Great for family with young kids</t>
+  </si>
+  <si>
+    <t>Great place stay if you are visiting Disneyland but also want to just relax for few days. Most rooms has nice small kitchen. Hotel has good enough breakfast, nice swimming pool, hot pool and basket ball. That keeps kids busy.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r381300491-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>381300491</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>Good value for money</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay, the room was very nice, updated and quiet. Free parking and great free buffet breakfast. Only negative for us was the guy at the front desk - not very welcoming and twice we came back after a long day out with sleeping toddler in arms only to be locked out. Not ideal having to stand outside with sleeping toddler in arms waiting for our room key card to be reactivated so we could get into our room.. Two days in a row this happened, turned out this unfriendly front desk guy had twice mistakenly put our end date as the next day, but we were booked and paid for 4 nights. It was only the second time it happened when a female staff member told us and fixed the problem. Otherwise I would have rated 5 stars of not for the service. MoreShow less</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay, the room was very nice, updated and quiet. Free parking and great free buffet breakfast. Only negative for us was the guy at the front desk - not very welcoming and twice we came back after a long day out with sleeping toddler in arms only to be locked out. Not ideal having to stand outside with sleeping toddler in arms waiting for our room key card to be reactivated so we could get into our room.. Two days in a row this happened, turned out this unfriendly front desk guy had twice mistakenly put our end date as the next day, but we were booked and paid for 4 nights. It was only the second time it happened when a female staff member told us and fixed the problem. Otherwise I would have rated 5 stars of not for the service. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r372449979-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>372449979</t>
+  </si>
+  <si>
+    <t>05/12/2016</t>
+  </si>
+  <si>
+    <t>Wonderful stay</t>
+  </si>
+  <si>
+    <t>My husband and I and our chihuahua stayed here last October during a visit to Disneyland.  I love the Marriott brand and this Residence Inn did not disappoint.  It is about 8 miles from Disneyland but I'm so happy we stayed here and not closer to the park.  The drive there was very short and we also went to the Pacific Aquarium in Long Beach which was maybe 20 minutes away.  It's also close to Knottsberry Farm, a huge Krikorian movie theater in Buena Park, and South Coast Plaza in OC.  Most people on vaca don't go to Costco but in case the need arises, there is one very close by.The grounds were clean and well maintained with outdoor barbeque, pool, and basketball courts.  There was ample outdoor parking at no charge.  The included breakfast had a lot of great options for us as well.  Our room was very spacious, immaculate, quiet, well appointed and very comfortable and cool considering it reached 110 degrees outside.  Our little doggie stayed in plush comfort there while we were sweating it out at Disney and the aquarium.  We will DEFINITELY stay here again the next time we go to Disney.  We had a super comfortable stay and loved it.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>My husband and I and our chihuahua stayed here last October during a visit to Disneyland.  I love the Marriott brand and this Residence Inn did not disappoint.  It is about 8 miles from Disneyland but I'm so happy we stayed here and not closer to the park.  The drive there was very short and we also went to the Pacific Aquarium in Long Beach which was maybe 20 minutes away.  It's also close to Knottsberry Farm, a huge Krikorian movie theater in Buena Park, and South Coast Plaza in OC.  Most people on vaca don't go to Costco but in case the need arises, there is one very close by.The grounds were clean and well maintained with outdoor barbeque, pool, and basketball courts.  There was ample outdoor parking at no charge.  The included breakfast had a lot of great options for us as well.  Our room was very spacious, immaculate, quiet, well appointed and very comfortable and cool considering it reached 110 degrees outside.  Our little doggie stayed in plush comfort there while we were sweating it out at Disney and the aquarium.  We will DEFINITELY stay here again the next time we go to Disney.  We had a super comfortable stay and loved it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r356344683-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>356344683</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>Good for a single traveler</t>
+  </si>
+  <si>
+    <t>The biggest problem I had with this hotel was that none of its rooms have king size beds.  Nor two queen size beds, unless you book a two bedroom unit.  We knew this going in, but had no choice as the hotel we usually stay in was booked for the week. The kitchen is nice, but the living room area was not that spacious. There was a hide a-bed in the living room.  The bedroom had one queen bed and barely enough room to walk around to the other side of it.  It is designed for a single business traveler who doesn't have to share space.  For that specific individual, I would rate it a Very Good.  The breakfast buffet was good and the seating area around it was big enough that you didn't have to fight for a table.  The pool appeared to be nice, but the weather was coolish when we were there, so we never went in.  About ten miles west of Disneyland, so it would be good for a family if you book the two bedroom unit.  We had a little problem with getting our room cleaned in a timely manner, but the front desk was responsive to our concerns. There is a small work out room and a 24 Hour Fitness right next door, if you are a member of that club.  A few restaurants and the Los Alamitos Race Track, home of California Chrome,...The biggest problem I had with this hotel was that none of its rooms have king size beds.  Nor two queen size beds, unless you book a two bedroom unit.  We knew this going in, but had no choice as the hotel we usually stay in was booked for the week. The kitchen is nice, but the living room area was not that spacious. There was a hide a-bed in the living room.  The bedroom had one queen bed and barely enough room to walk around to the other side of it.  It is designed for a single business traveler who doesn't have to share space.  For that specific individual, I would rate it a Very Good.  The breakfast buffet was good and the seating area around it was big enough that you didn't have to fight for a table.  The pool appeared to be nice, but the weather was coolish when we were there, so we never went in.  About ten miles west of Disneyland, so it would be good for a family if you book the two bedroom unit.  We had a little problem with getting our room cleaned in a timely manner, but the front desk was responsive to our concerns. There is a small work out room and a 24 Hour Fitness right next door, if you are a member of that club.  A few restaurants and the Los Alamitos Race Track, home of California Chrome, within walking distance. Monday, Tuesday, and Wednesday nights there is a Happy Hour in the lobby.  We used this as our "dinner out" one night as we were tired from traveling and just wanted to stay put.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Lisa L, General Manager at Residence Inn by Marriott Cypress Los Alamitos, responded to this reviewResponded March 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2016</t>
+  </si>
+  <si>
+    <t>The biggest problem I had with this hotel was that none of its rooms have king size beds.  Nor two queen size beds, unless you book a two bedroom unit.  We knew this going in, but had no choice as the hotel we usually stay in was booked for the week. The kitchen is nice, but the living room area was not that spacious. There was a hide a-bed in the living room.  The bedroom had one queen bed and barely enough room to walk around to the other side of it.  It is designed for a single business traveler who doesn't have to share space.  For that specific individual, I would rate it a Very Good.  The breakfast buffet was good and the seating area around it was big enough that you didn't have to fight for a table.  The pool appeared to be nice, but the weather was coolish when we were there, so we never went in.  About ten miles west of Disneyland, so it would be good for a family if you book the two bedroom unit.  We had a little problem with getting our room cleaned in a timely manner, but the front desk was responsive to our concerns. There is a small work out room and a 24 Hour Fitness right next door, if you are a member of that club.  A few restaurants and the Los Alamitos Race Track, home of California Chrome,...The biggest problem I had with this hotel was that none of its rooms have king size beds.  Nor two queen size beds, unless you book a two bedroom unit.  We knew this going in, but had no choice as the hotel we usually stay in was booked for the week. The kitchen is nice, but the living room area was not that spacious. There was a hide a-bed in the living room.  The bedroom had one queen bed and barely enough room to walk around to the other side of it.  It is designed for a single business traveler who doesn't have to share space.  For that specific individual, I would rate it a Very Good.  The breakfast buffet was good and the seating area around it was big enough that you didn't have to fight for a table.  The pool appeared to be nice, but the weather was coolish when we were there, so we never went in.  About ten miles west of Disneyland, so it would be good for a family if you book the two bedroom unit.  We had a little problem with getting our room cleaned in a timely manner, but the front desk was responsive to our concerns. There is a small work out room and a 24 Hour Fitness right next door, if you are a member of that club.  A few restaurants and the Los Alamitos Race Track, home of California Chrome, within walking distance. Monday, Tuesday, and Wednesday nights there is a Happy Hour in the lobby.  We used this as our "dinner out" one night as we were tired from traveling and just wanted to stay put.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r353180211-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>353180211</t>
+  </si>
+  <si>
+    <t>03/05/2016</t>
+  </si>
+  <si>
+    <t>Nice clean property &amp; nice rooms</t>
+  </si>
+  <si>
+    <t>We really liked this Residence Inn because of location of things to do in Los Alamitos &amp; Los Angeles. This hotel was really clean, good sized rooms &amp; comfortable beds. Everything else was up a normal Residence Inn quality of breakfast, nice kitchenette etc.Just a nice propertyMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>We really liked this Residence Inn because of location of things to do in Los Alamitos &amp; Los Angeles. This hotel was really clean, good sized rooms &amp; comfortable beds. Everything else was up a normal Residence Inn quality of breakfast, nice kitchenette etc.Just a nice propertyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r348060143-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>348060143</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>Good place for a weekend visit</t>
+  </si>
+  <si>
+    <t>Spent President's Day weekend here while visiting family.  Comfortable room with a kitchenette that offers basic furnishings.  Microwave, dishwasher, two burner stove top, but no oven.  Bathroom well appointed.  Pullout couch mattress is awful.  Nice breakfast included, with cereals, bagels, muffins, waffle maker, oatmeal, and a rotating selection of hot items such as potatoes, sausage, and those nasty, rubbery, powdered eggs.  There's enough variety for several days.The hotel grounds are well cared for, including a nice pool and spa, a multi sport court, and a gas barbecue grill.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lisa L, General Manager at Residence Inn by Marriott Cypress Los Alamitos, responded to this reviewResponded February 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2016</t>
+  </si>
+  <si>
+    <t>Spent President's Day weekend here while visiting family.  Comfortable room with a kitchenette that offers basic furnishings.  Microwave, dishwasher, two burner stove top, but no oven.  Bathroom well appointed.  Pullout couch mattress is awful.  Nice breakfast included, with cereals, bagels, muffins, waffle maker, oatmeal, and a rotating selection of hot items such as potatoes, sausage, and those nasty, rubbery, powdered eggs.  There's enough variety for several days.The hotel grounds are well cared for, including a nice pool and spa, a multi sport court, and a gas barbecue grill.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r340900298-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>340900298</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>We stayed there in December 2015. Hotel is nice, located in safe area. We liked Los Alamitos with its parks and playgrounds, closeness to Los Angeles. Nice breakfast. It has everything you need. Real Marriott chain member!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed there in December 2015. Hotel is nice, located in safe area. We liked Los Alamitos with its parks and playgrounds, closeness to Los Angeles. Nice breakfast. It has everything you need. Real Marriott chain member!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r328038409-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>328038409</t>
+  </si>
+  <si>
+    <t>11/20/2015</t>
+  </si>
+  <si>
+    <t>Good hotel with good breakfast options!!!</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for a month. I never felt I was staying in a hotel. It was more like a home. We stayed in a studio suite. For people like me who need a big kitchen to cook everyday, this is the best place.  Housekeeping was very nice. They used to come daily and replace towels etc. The towels and  bedspreads were replaced frequently.The hotel staff is very helpful. As we didn't have car for the first few days, they always dropped us by their shuttle to nearby places(within 3 miles). You can make use of printer as well. The wifi speed is awesome. The breakfast was good too. A lot of options to choose from scrambled eggs, yoghurt, fruits, waffles, oatmeal, corn flakes etc etc. Overall , I enjoyed my stay  here. Would love to come again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for a month. I never felt I was staying in a hotel. It was more like a home. We stayed in a studio suite. For people like me who need a big kitchen to cook everyday, this is the best place.  Housekeeping was very nice. They used to come daily and replace towels etc. The towels and  bedspreads were replaced frequently.The hotel staff is very helpful. As we didn't have car for the first few days, they always dropped us by their shuttle to nearby places(within 3 miles). You can make use of printer as well. The wifi speed is awesome. The breakfast was good too. A lot of options to choose from scrambled eggs, yoghurt, fruits, waffles, oatmeal, corn flakes etc etc. Overall , I enjoyed my stay  here. Would love to come again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r316293935-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>316293935</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>We stayed here for 9 nights.  The breakfast every morning was fantastic.  Scrambled eggs, potatoes, either ham or sausage, waffles, cereal, oatmeal, bagels, English muffins, fruit, and a "special" such as sausage biscuits, French toast, etc.  Coffee, juices.   In the lobby was an infused water...everyday a different fruit infused in ice water.  Very refreshing.  Several nights during the week they had get togethers with food and wine and beer.  The staff was very friendly.  The front desk attendants were always smiling and willing to help with directions, advice for local eating places, etc.The pool was very clean.  Towels were provided.  Wi Fi was not very strong by the pool, but otherwise it was a nice place to relax after a long day.Our room was cleaned everyday.  Fresh towels and toiletries.  No complaints.The only suggestion I have was that the we stayed in a 2 bedroom suite. The beds were comfy and lots of pillows!  The living area though was in need of some more comfortable seating.  The couch was very uncomfortable and it was the only seating in the living area.  There was no chair, just the kitchen chairs.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for 9 nights.  The breakfast every morning was fantastic.  Scrambled eggs, potatoes, either ham or sausage, waffles, cereal, oatmeal, bagels, English muffins, fruit, and a "special" such as sausage biscuits, French toast, etc.  Coffee, juices.   In the lobby was an infused water...everyday a different fruit infused in ice water.  Very refreshing.  Several nights during the week they had get togethers with food and wine and beer.  The staff was very friendly.  The front desk attendants were always smiling and willing to help with directions, advice for local eating places, etc.The pool was very clean.  Towels were provided.  Wi Fi was not very strong by the pool, but otherwise it was a nice place to relax after a long day.Our room was cleaned everyday.  Fresh towels and toiletries.  No complaints.The only suggestion I have was that the we stayed in a 2 bedroom suite. The beds were comfy and lots of pillows!  The living area though was in need of some more comfortable seating.  The couch was very uncomfortable and it was the only seating in the living area.  There was no chair, just the kitchen chairs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r302313367-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>302313367</t>
+  </si>
+  <si>
+    <t>08/22/2015</t>
+  </si>
+  <si>
+    <t>Our Stay at Marriott Residence Inn Los Alamitos</t>
+  </si>
+  <si>
+    <t>There were a few bumps along the way but it pales in comparison to the beautiful 5 night stay at this lovely hotel. I want to thank the kind staff who always made us feel warm and welcome. I also want to personally thank the General Manager Lisa Lane for making sure our room was exactly what I had requested. Lisa was just amazing and goes out of her way to please the guests. Lisa, thank you for your kindness and making this stay with my son something we will never forget. The hotel is just beautiful. The rooms are a nice size, clean, furniture is lovely, beds are just so incredibly comfortable and the full, hot breakfast was just perfect before the start of a busy day. Disneyland is not far at all............just a 15 or 20 minute drive down Katella and Knott's Berry Farm was like 5 or 10 minutes away. The location is great with many restaurants and grocery stores near by. They are getting ready to renovate this hotel but even before the renovation it is just gorgeous and the colors they chose for décor just makes you smile. I'm incredibly glad I chose this particular hotel because I was not disappointed ever.........the only disappointment would have been if I had "not" stayed at this hotel. The Residence Inn in Los Alamitos is just the best in every way. Cant wait to come back. Thank you...There were a few bumps along the way but it pales in comparison to the beautiful 5 night stay at this lovely hotel. I want to thank the kind staff who always made us feel warm and welcome. I also want to personally thank the General Manager Lisa Lane for making sure our room was exactly what I had requested. Lisa was just amazing and goes out of her way to please the guests. Lisa, thank you for your kindness and making this stay with my son something we will never forget. The hotel is just beautiful. The rooms are a nice size, clean, furniture is lovely, beds are just so incredibly comfortable and the full, hot breakfast was just perfect before the start of a busy day. Disneyland is not far at all............just a 15 or 20 minute drive down Katella and Knott's Berry Farm was like 5 or 10 minutes away. The location is great with many restaurants and grocery stores near by. They are getting ready to renovate this hotel but even before the renovation it is just gorgeous and the colors they chose for décor just makes you smile. I'm incredibly glad I chose this particular hotel because I was not disappointed ever.........the only disappointment would have been if I had "not" stayed at this hotel. The Residence Inn in Los Alamitos is just the best in every way. Cant wait to come back. Thank you Lisa and God bless you and your staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Lisa L, General Manager at Residence Inn by Marriott Cypress Los Alamitos, responded to this reviewResponded September 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2015</t>
+  </si>
+  <si>
+    <t>There were a few bumps along the way but it pales in comparison to the beautiful 5 night stay at this lovely hotel. I want to thank the kind staff who always made us feel warm and welcome. I also want to personally thank the General Manager Lisa Lane for making sure our room was exactly what I had requested. Lisa was just amazing and goes out of her way to please the guests. Lisa, thank you for your kindness and making this stay with my son something we will never forget. The hotel is just beautiful. The rooms are a nice size, clean, furniture is lovely, beds are just so incredibly comfortable and the full, hot breakfast was just perfect before the start of a busy day. Disneyland is not far at all............just a 15 or 20 minute drive down Katella and Knott's Berry Farm was like 5 or 10 minutes away. The location is great with many restaurants and grocery stores near by. They are getting ready to renovate this hotel but even before the renovation it is just gorgeous and the colors they chose for décor just makes you smile. I'm incredibly glad I chose this particular hotel because I was not disappointed ever.........the only disappointment would have been if I had "not" stayed at this hotel. The Residence Inn in Los Alamitos is just the best in every way. Cant wait to come back. Thank you...There were a few bumps along the way but it pales in comparison to the beautiful 5 night stay at this lovely hotel. I want to thank the kind staff who always made us feel warm and welcome. I also want to personally thank the General Manager Lisa Lane for making sure our room was exactly what I had requested. Lisa was just amazing and goes out of her way to please the guests. Lisa, thank you for your kindness and making this stay with my son something we will never forget. The hotel is just beautiful. The rooms are a nice size, clean, furniture is lovely, beds are just so incredibly comfortable and the full, hot breakfast was just perfect before the start of a busy day. Disneyland is not far at all............just a 15 or 20 minute drive down Katella and Knott's Berry Farm was like 5 or 10 minutes away. The location is great with many restaurants and grocery stores near by. They are getting ready to renovate this hotel but even before the renovation it is just gorgeous and the colors they chose for décor just makes you smile. I'm incredibly glad I chose this particular hotel because I was not disappointed ever.........the only disappointment would have been if I had "not" stayed at this hotel. The Residence Inn in Los Alamitos is just the best in every way. Cant wait to come back. Thank you Lisa and God bless you and your staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r292880814-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>292880814</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Not bad just a bit far away from Disney</t>
+  </si>
+  <si>
+    <t>This hotel was ok but I would prefer to stay closer to Disneyland in Garden Grove. Rooms were clean and quiet. Separate kitchen/living area. If you don't mind having a bit of a drive then give it a go.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Lisa L, General Manager at Residence Inn by Marriott Cypress Los Alamitos, responded to this reviewResponded July 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was ok but I would prefer to stay closer to Disneyland in Garden Grove. Rooms were clean and quiet. Separate kitchen/living area. If you don't mind having a bit of a drive then give it a go.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r288368784-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>288368784</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Nice Place with Central Location</t>
+  </si>
+  <si>
+    <t>This is a newer Residence Inn located next to the Los Alamitos Race Track. It's location allows for easy access to Disneyland, Knotts Berry Farm, Seal and Huntington Beaches and Long Beach Harbor. This is the second year we have visited this property. Each time was a week in length. The property is well maintained and I can not find any faults. The staff was pleasant. They have a generous Marriott style free breakfast and Monday, Tuesday and Wednesday various snacks/drinks/BBQ or food truck visit in the evening. The gym has weights, two treadmills, bike and elliptical trainer. I rarely encountered another person in the gym. I suspect most people started their day early to get a head start on tourist activities. Last year the adjacent race track was a source of numerous outdoor flies. This year was not an issue. I'm not sure what was done to improve the problem but it was an enjoyable stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>This is a newer Residence Inn located next to the Los Alamitos Race Track. It's location allows for easy access to Disneyland, Knotts Berry Farm, Seal and Huntington Beaches and Long Beach Harbor. This is the second year we have visited this property. Each time was a week in length. The property is well maintained and I can not find any faults. The staff was pleasant. They have a generous Marriott style free breakfast and Monday, Tuesday and Wednesday various snacks/drinks/BBQ or food truck visit in the evening. The gym has weights, two treadmills, bike and elliptical trainer. I rarely encountered another person in the gym. I suspect most people started their day early to get a head start on tourist activities. Last year the adjacent race track was a source of numerous outdoor flies. This year was not an issue. I'm not sure what was done to improve the problem but it was an enjoyable stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r284865777-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>284865777</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>Nice, clean hotel</t>
+  </si>
+  <si>
+    <t>We had a nice weekend stay while in town for a baseball tournament.  We arrived a little ahead of the check in but Anthony at the front desk let us eat lunch in the lobby and even provided ice for my son's shoulder!  Nice breakfast each morning.  The bed and the pullout couch were both comfortable.The only recommendation I would make is to limit the hours on the "sport court" like the hours at the pool.  I didn't love waking up to a lot of loud little boys playing basketball on the court at 6:45 Saturday morning.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r282503567-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>282503567</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>great business stay..and great staff !!</t>
+  </si>
+  <si>
+    <t>6 weeks stay, very enjoyable long stay..great staff always helpful.great for its price and close to shops.they offer different activity's every day i.e free bbq or social night.pool is decent size, breakfast is good. front counter and room service is great!how ever a non stick fry pan would make this stay even more enjoyable.full size fridge, 2 burner, microwave, dishwasher.....bbq outside. outdoor alfresco area nearby pool.keep up the god work</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r274503788-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>274503788</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>Great Rooms</t>
+  </si>
+  <si>
+    <t>Stayed here to attend my nephew's graduation at Cal State Long Beach.  The rooms were clean and beds were very comfortable.  The free breakfast room is a little small but the food was good, with a lot of variety.  I would definitely recommend this hotel to anyone and will stay here again.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r267056399-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>267056399</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>Beautiful rooms that reminded me of an apartment</t>
+  </si>
+  <si>
+    <t>I've often stayed at a Marriott property because I'm a Honored Guest but this property is top of the line. The rooms are large and comfortable and look just like the photos. The breakfast covers two rooms downstairs with every imaginable food item you'd want. Delicious and cold when it was supposed to be, and warm ditto. I will return to this property next time in in CA on business again.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r266937337-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>266937337</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Friendly Staff, Good Facilities</t>
+  </si>
+  <si>
+    <t>Had some business at Los Alamitos Joint Base, and stayed here for a week.  Front Desk and other staff were professional and courteous.  Suite was well-equipped and roomy, including kitchenette/microwave, fridge.  Breakfast was included that had lots of options.  A couple of nights a week, they offered a "mix" that ranged from a full meal (burgers) to dessert or others.  Clientele seemed to be mostly military/government due to the proximity of the base, with the occasional family taking advantage of its proximity to Disneyland.  Would stay again if I had reason to be in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r261815291-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>261815291</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>Studio stay</t>
+  </si>
+  <si>
+    <t>I was here for one night. Big room nice bed lighting and clean but a long walk from front desk. I had a good experience here overall. Heater was a bit loud but bearable. I found it better than the marriott courtyard on the same street. I appreciate the free popcorn as I got in late and the snack was perfect.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r260137771-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>260137771</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Trainer</t>
+  </si>
+  <si>
+    <t>Received my bill for the evening at 4:00am checked in at 9:30 total price was 164.00 checked bank account noticed payment being taken out was 190.00 wasn't notified by desk personal about extra money being applied to bill call back in the morning for explanation received worse customer service ever from Matt and Regina also i'm a rewards member couldn't imagine going back thereMoreShow less</t>
+  </si>
+  <si>
+    <t>Lisa L, General Manager at Residence Inn by Marriott Cypress Los Alamitos, responded to this reviewResponded March 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2015</t>
+  </si>
+  <si>
+    <t>Received my bill for the evening at 4:00am checked in at 9:30 total price was 164.00 checked bank account noticed payment being taken out was 190.00 wasn't notified by desk personal about extra money being applied to bill call back in the morning for explanation received worse customer service ever from Matt and Regina also i'm a rewards member couldn't imagine going back thereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r256561689-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>256561689</t>
+  </si>
+  <si>
+    <t>02/26/2015</t>
+  </si>
+  <si>
+    <t>Fine place for soccer team</t>
+  </si>
+  <si>
+    <t>The hotel is next door to Los Alamitos horse racing track, but we never heard the noise and the track was in season.We stayed here for our soccer team tournament. If you are playing at the Long Beach "Beach Classic" at CSU Long Beach, it is about a 10-13 minute drive, in-land. No big deal of a drive.The hotel has a pool, and jacuzzi for the sore muscles. In the pool area there are patio tables and a lot of chairs. But the kicker is the large BBQ to cook up a big meal for the team and families;this is a very nice feature.The included breakfast is standard blah breakfast at a buffet, nothing wrong with cereal, toast and yogurt, just nothing tasty. But it will fill you up until you need to eat again.Next door is a center that has Subway.Staff was courteous, which is good since they had about 4 soccer teams plus the race track groups to manage.The room was exactly as shown in the pictures: kitchenette, swivel TV stand, and all the other standard Marriott Residence Inn features. No charge to park your car. Safe area.This is not a vacation destination, but very nice for a couple nights while with a travel soccer team.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>The hotel is next door to Los Alamitos horse racing track, but we never heard the noise and the track was in season.We stayed here for our soccer team tournament. If you are playing at the Long Beach "Beach Classic" at CSU Long Beach, it is about a 10-13 minute drive, in-land. No big deal of a drive.The hotel has a pool, and jacuzzi for the sore muscles. In the pool area there are patio tables and a lot of chairs. But the kicker is the large BBQ to cook up a big meal for the team and families;this is a very nice feature.The included breakfast is standard blah breakfast at a buffet, nothing wrong with cereal, toast and yogurt, just nothing tasty. But it will fill you up until you need to eat again.Next door is a center that has Subway.Staff was courteous, which is good since they had about 4 soccer teams plus the race track groups to manage.The room was exactly as shown in the pictures: kitchenette, swivel TV stand, and all the other standard Marriott Residence Inn features. No charge to park your car. Safe area.This is not a vacation destination, but very nice for a couple nights while with a travel soccer team.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r251675324-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>251675324</t>
+  </si>
+  <si>
+    <t>01/29/2015</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>The location of the Residence Inn is next to the entrance road to the quarter horse race track and about 2 stoplights up from the entrance road to JB Los Alamitos. There are any number of very good restaurants within the area around it on Katella. Just be advised you will need to do a U turn at the light where the track entrance is on Katella if you are coming from LAX to get to the hotel.
+The room that I had on the 2d floor was nice, not new, but nice, with a very comfortable bed. The shower pressure was only ok, but there was plenty of hot water. WiFi is free and had good strength. Very comfortable place to spend 4 nights.
+What I really liked about this hotel was the very well maintained courtyard with plants and flowers around the pool, which was a great place for sitting around in the evenings. This really was super nice! I also liked the free breakfast that was offered each morning, and the evening items that were done too. Hats off to whoever came up with the idea of doing a free waffle sunday night - what a great idea to have for your guests!
+I would also like to compliment the staff at the front desk and both their professionalism and the way they take car of customers. Many thanks for the assistance given on needing to add...The location of the Residence Inn is next to the entrance road to the quarter horse race track and about 2 stoplights up from the entrance road to JB Los Alamitos. There are any number of very good restaurants within the area around it on Katella. Just be advised you will need to do a U turn at the light where the track entrance is on Katella if you are coming from LAX to get to the hotel.The room that I had on the 2d floor was nice, not new, but nice, with a very comfortable bed. The shower pressure was only ok, but there was plenty of hot water. WiFi is free and had good strength. Very comfortable place to spend 4 nights.What I really liked about this hotel was the very well maintained courtyard with plants and flowers around the pool, which was a great place for sitting around in the evenings. This really was super nice! I also liked the free breakfast that was offered each morning, and the evening items that were done too. Hats off to whoever came up with the idea of doing a free waffle sunday night - what a great idea to have for your guests!I would also like to compliment the staff at the front desk and both their professionalism and the way they take car of customers. Many thanks for the assistance given on needing to add a night to my stay.  I definitely will return for another stay at this Residence Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>The location of the Residence Inn is next to the entrance road to the quarter horse race track and about 2 stoplights up from the entrance road to JB Los Alamitos. There are any number of very good restaurants within the area around it on Katella. Just be advised you will need to do a U turn at the light where the track entrance is on Katella if you are coming from LAX to get to the hotel.
+The room that I had on the 2d floor was nice, not new, but nice, with a very comfortable bed. The shower pressure was only ok, but there was plenty of hot water. WiFi is free and had good strength. Very comfortable place to spend 4 nights.
+What I really liked about this hotel was the very well maintained courtyard with plants and flowers around the pool, which was a great place for sitting around in the evenings. This really was super nice! I also liked the free breakfast that was offered each morning, and the evening items that were done too. Hats off to whoever came up with the idea of doing a free waffle sunday night - what a great idea to have for your guests!
+I would also like to compliment the staff at the front desk and both their professionalism and the way they take car of customers. Many thanks for the assistance given on needing to add...The location of the Residence Inn is next to the entrance road to the quarter horse race track and about 2 stoplights up from the entrance road to JB Los Alamitos. There are any number of very good restaurants within the area around it on Katella. Just be advised you will need to do a U turn at the light where the track entrance is on Katella if you are coming from LAX to get to the hotel.The room that I had on the 2d floor was nice, not new, but nice, with a very comfortable bed. The shower pressure was only ok, but there was plenty of hot water. WiFi is free and had good strength. Very comfortable place to spend 4 nights.What I really liked about this hotel was the very well maintained courtyard with plants and flowers around the pool, which was a great place for sitting around in the evenings. This really was super nice! I also liked the free breakfast that was offered each morning, and the evening items that were done too. Hats off to whoever came up with the idea of doing a free waffle sunday night - what a great idea to have for your guests!I would also like to compliment the staff at the front desk and both their professionalism and the way they take car of customers. Many thanks for the assistance given on needing to add a night to my stay.  I definitely will return for another stay at this Residence Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r247816641-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>247816641</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>Very close to Disney...</t>
+  </si>
+  <si>
+    <t>We spent a couple nights here at the end of the Cember 2014. This hotel is right next door to the street from the Los Alamitos racetrack and about 20 minutes drive from Disney. We really like residence is because they include breakfast it was a good way to get our day started. We can always find yogurt and fresh fruit and occasionally I'll throw a bagel or in English muffin in the toaster then and I'll load up the turkey sausage and some eggs and make a breakfast sandwich. Great location for Disney and great value!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r245017491-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>245017491</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t>Old Reliable Marriott Brand Hotel</t>
+  </si>
+  <si>
+    <t>I always check the various Marriott brands first when I travel in the U. S. If the price is right and the location ideal for my purposes, I book straight away and am seldom disappointed. This was the case with this Residence Inn when I visited the area for a November reunion with long-time friends. It was convenient to/from a few L.A.-area interstates, had plenty of nearby dining options, and perfect hotel/room amenities. The only non-positive feedback I have is that the rooms are housed in two separate buildings that are connected to the main lobby and breakfast room only through outdoor walkways. It's really not a big deal except for a couple of chilly mornings and one that was rainy. All in all I had a very pleasant 3-night stay and can gladly to recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>I always check the various Marriott brands first when I travel in the U. S. If the price is right and the location ideal for my purposes, I book straight away and am seldom disappointed. This was the case with this Residence Inn when I visited the area for a November reunion with long-time friends. It was convenient to/from a few L.A.-area interstates, had plenty of nearby dining options, and perfect hotel/room amenities. The only non-positive feedback I have is that the rooms are housed in two separate buildings that are connected to the main lobby and breakfast room only through outdoor walkways. It's really not a big deal except for a couple of chilly mornings and one that was rainy. All in all I had a very pleasant 3-night stay and can gladly to recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r242547068-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>242547068</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here for work and plan on returning next time. Their amenities on site are great to include the pool, grill, exercise room, and lounge. Breakfast there is better than other places. The location offers numerous attractions and restaurants. Not far from the beach as well. </t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r232765161-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>232765161</t>
+  </si>
+  <si>
+    <t>10/05/2014</t>
+  </si>
+  <si>
+    <t>Second trip, second review</t>
+  </si>
+  <si>
+    <t>This was our second extended stay at the Residence Inn Cypress Los Alamitos.  First trip was great; this trip was greatermore.  Excellent front desk service from all of the staff, especially Javier and Matt.The hotel, although near capacity was very quite.  The breakfasts were wonderful, as always.At the top of our list, we love the location.  For us it is close to friends, family, business, and attractions.  It is a few miles from the nearest highway, so there is no busy traffic/congestion.Looking forward to returning soon.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r229085868-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>229085868</t>
+  </si>
+  <si>
+    <t>09/15/2014</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised!</t>
+  </si>
+  <si>
+    <t>Booked this RI at the last minute for a weekend getaway &amp; to spend time with family.  Friendly, helpful staff, nicely appointed rooms and a beautiful pool area in a tropical-like setting.  Would give this hotel 5 stars, except furniture was a little worn and furnishings felt dated.  But we'd definitely return.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r227598188-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>227598188</t>
+  </si>
+  <si>
+    <t>09/07/2014</t>
+  </si>
+  <si>
+    <t>Residence Inn Cypress - Home Away from Home</t>
+  </si>
+  <si>
+    <t>From the moment you enter the lobby area, you will feel right at home.  The staff is very accommodating, and your check in will be fast and efficient, so that you can quickly settle into your room.  I interacted mainly with Char upon arrival and departure.  I observed that she goes out of her way to make sure that the customers are well treated.The room I stayed in was immaculate, and I found the furnishings to be nice and comfy.   When you stay at this Residence Inn, you won't have to worry about having all of the necessary supplies available for you to use.  For example, if you need a towel or some dishwsher soap you won't need to search or call room service.  I needed a quiet place to rest, and I couldn't believe how nice and peaceful my room was.   The complimentary breakfast is buffet style, so you can either select a very basic breakfast of toast, juice and coffee, or indulge a little by having waffles, eggs, bacon, potatoes, cereal, yogurt, etc.   Moreover, a wide selection of beverages is also available.I have stayed at this location many times since 2006, however, on this particular stay, I really need some rest and relaxation and knew that I would find it during my time there.  What a Godsend!!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>From the moment you enter the lobby area, you will feel right at home.  The staff is very accommodating, and your check in will be fast and efficient, so that you can quickly settle into your room.  I interacted mainly with Char upon arrival and departure.  I observed that she goes out of her way to make sure that the customers are well treated.The room I stayed in was immaculate, and I found the furnishings to be nice and comfy.   When you stay at this Residence Inn, you won't have to worry about having all of the necessary supplies available for you to use.  For example, if you need a towel or some dishwsher soap you won't need to search or call room service.  I needed a quiet place to rest, and I couldn't believe how nice and peaceful my room was.   The complimentary breakfast is buffet style, so you can either select a very basic breakfast of toast, juice and coffee, or indulge a little by having waffles, eggs, bacon, potatoes, cereal, yogurt, etc.   Moreover, a wide selection of beverages is also available.I have stayed at this location many times since 2006, however, on this particular stay, I really need some rest and relaxation and knew that I would find it during my time there.  What a Godsend!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r220265596-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>220265596</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoid, health hazard (for now at least) </t>
+  </si>
+  <si>
+    <t>I hate to give it a poor review, because it's really a good hotel in general. But, it's filled and surrounded by flies, which makes the hotel a health concern for the people staying there. I never seen this ugly scene before in Orange County, so it's really weird. The only explanation might be the horse track or club behind them. But anyways they are suppose to deal with it instead of leaving this ugly health hazard like that. Avoid til they fix this issue. MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen O, Assistant General Manager at Residence Inn by Marriott Cypress Los Alamitos, responded to this reviewResponded August 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2014</t>
+  </si>
+  <si>
+    <t>I hate to give it a poor review, because it's really a good hotel in general. But, it's filled and surrounded by flies, which makes the hotel a health concern for the people staying there. I never seen this ugly scene before in Orange County, so it's really weird. The only explanation might be the horse track or club behind them. But anyways they are suppose to deal with it instead of leaving this ugly health hazard like that. Avoid til they fix this issue. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r219866323-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>219866323</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay in Los Alamitos</t>
+  </si>
+  <si>
+    <t>I stayed here for a business trip and it was very comfortable.  I had a nice large room with a fireplace and a kitchen.  It was comfortable and spacious and recently updated. I had no trouble getting an internet connection from the room.  The room was clean and had a full kitchen if you wanted to cook.  Staff at the front desk were very friendly.The hotel had a couple of social hours which were nice after work including a sip and dip pool party.  This hotel is close to a number of restaurants.  They had a free breakfast in the morning with hot food which was great.  I would definetly stay here again if I was in the area.A bonus was being able to see the track from my window.  It was fun to watch them exercise the horses in the morning.  You are almost right next door to Los Alamitos Race Track.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for a business trip and it was very comfortable.  I had a nice large room with a fireplace and a kitchen.  It was comfortable and spacious and recently updated. I had no trouble getting an internet connection from the room.  The room was clean and had a full kitchen if you wanted to cook.  Staff at the front desk were very friendly.The hotel had a couple of social hours which were nice after work including a sip and dip pool party.  This hotel is close to a number of restaurants.  They had a free breakfast in the morning with hot food which was great.  I would definetly stay here again if I was in the area.A bonus was being able to see the track from my window.  It was fun to watch them exercise the horses in the morning.  You are almost right next door to Los Alamitos Race Track.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r217528512-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>217528512</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We booked this room last minute for a quick get away. The price was good and location perfect. The rooms are clean and plenty of room. They have kitchen and living room. The pool was fun for kiddo. Seemed like nice people staying her. Grounds are nice and well keep.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r215260595-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>215260595</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t>Excellent amenities</t>
+  </si>
+  <si>
+    <t>This hotel, like other residence inn, has nice amenities for long term stay.  It has a kitchen, fridge, table wear etc.  The room is good size.  Hotel has free wifi and coin operated laundry room.  The place is clean and comfortable.  There are many restaurants that is close by.  If I come visit here, I would be willing to stay here again.  The only thing I wish it's better is the free breakfast.  Maybe it's b/c of the days we were there, server can't keep up with food in the buffet line.  Also the food is just so so.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Lisa L, General Manager at Residence Inn by Marriott Cypress Los Alamitos, responded to this reviewResponded July 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2014</t>
+  </si>
+  <si>
+    <t>This hotel, like other residence inn, has nice amenities for long term stay.  It has a kitchen, fridge, table wear etc.  The room is good size.  Hotel has free wifi and coin operated laundry room.  The place is clean and comfortable.  There are many restaurants that is close by.  If I come visit here, I would be willing to stay here again.  The only thing I wish it's better is the free breakfast.  Maybe it's b/c of the days we were there, server can't keep up with food in the buffet line.  Also the food is just so so.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r214718629-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>214718629</t>
+  </si>
+  <si>
+    <t>07/10/2014</t>
+  </si>
+  <si>
+    <t>Excellent Hotel with Amazing Service</t>
+  </si>
+  <si>
+    <t>My family and I have been staying at this property for over 8 years, sometimes several times per year.  Lisa Lane, GM, has an amazing team, from front desk, food service and housekeeping.  Lisa and her team are always smiling, happy to help and go above and beyond with any and all guests requests.  They are all hands on and provide exceptional guest satisfaction.  The hotel is clean, inside and out.  They are located close to Disneyland and Knott’s Berry Farm, and our family enjoys the spacious suites with full kitchens and the complimentary hot breakfast buffet every morning.  Stop by and enjoy their evening happy hour and get to meet their staff.  Thumbs up to Lisa and her team.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I have been staying at this property for over 8 years, sometimes several times per year.  Lisa Lane, GM, has an amazing team, from front desk, food service and housekeeping.  Lisa and her team are always smiling, happy to help and go above and beyond with any and all guests requests.  They are all hands on and provide exceptional guest satisfaction.  The hotel is clean, inside and out.  They are located close to Disneyland and Knott’s Berry Farm, and our family enjoys the spacious suites with full kitchens and the complimentary hot breakfast buffet every morning.  Stop by and enjoy their evening happy hour and get to meet their staff.  Thumbs up to Lisa and her team.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r209526717-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>209526717</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Five friends one suite no problems!</t>
+  </si>
+  <si>
+    <t>We stayed 5 people in a 2-bedroom suite for five nights, and that worked out really well. Comfortably-sized suite with everything, two bathrooms, pull-out sofa bed, etc. The suite was clean and presentable, and the furniture didn't look too old. Pool area was really nice, and the service was good.The breakfast was ok but not great, there could have been a few more healthy options.Only real complaint was the wifi - in some parts of our suite there was almost no connection at all. Also, the pillows were a little high.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lisa L, General Manager at Residence Inn by Marriott Cypress Los Alamitos, responded to this reviewResponded June 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2014</t>
+  </si>
+  <si>
+    <t>We stayed 5 people in a 2-bedroom suite for five nights, and that worked out really well. Comfortably-sized suite with everything, two bathrooms, pull-out sofa bed, etc. The suite was clean and presentable, and the furniture didn't look too old. Pool area was really nice, and the service was good.The breakfast was ok but not great, there could have been a few more healthy options.Only real complaint was the wifi - in some parts of our suite there was almost no connection at all. Also, the pillows were a little high.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r207505313-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>207505313</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>What's happening to Residence Inn's?</t>
+  </si>
+  <si>
+    <t>Always try and stay in a Residence Inn during business travel.  I like the rooms and the service. The price is a bit high for my pleasure travel (cheap) but if someone else is paying why not! Over the past few years, the evening reception (The mix) has been cut way back.  Last evening I found out that "the mix" was - go out and order a pizza from a food truck. This would not be so bad if I didn't have to pay for it (cheap).   They call it "local flavor".  I call it - another way for Marriott way to cut costs.  It use to be that the evening reception was every day of the week, not includeing sat and sun.  Now they pick and chose 3 days of the week and throw in the food truck one of those day. Good luck if you pick one of those days if you get actual food and drink provided by the Residence Inn.  And while I'm picking on a Marriott property, the breakfasts have been showing signs of wear.  Come on, this is the one big reason why I like Residence Inn's!  LIsten Marriott, you have a lot of competition out there for my business and pleasure dollar.  Don't screw it up by being cheap like me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lisa L, General Manager at Residence Inn by Marriott Cypress Los Alamitos, responded to this reviewResponded June 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2014</t>
+  </si>
+  <si>
+    <t>Always try and stay in a Residence Inn during business travel.  I like the rooms and the service. The price is a bit high for my pleasure travel (cheap) but if someone else is paying why not! Over the past few years, the evening reception (The mix) has been cut way back.  Last evening I found out that "the mix" was - go out and order a pizza from a food truck. This would not be so bad if I didn't have to pay for it (cheap).   They call it "local flavor".  I call it - another way for Marriott way to cut costs.  It use to be that the evening reception was every day of the week, not includeing sat and sun.  Now they pick and chose 3 days of the week and throw in the food truck one of those day. Good luck if you pick one of those days if you get actual food and drink provided by the Residence Inn.  And while I'm picking on a Marriott property, the breakfasts have been showing signs of wear.  Come on, this is the one big reason why I like Residence Inn's!  LIsten Marriott, you have a lot of competition out there for my business and pleasure dollar.  Don't screw it up by being cheap like me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r206287700-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>206287700</t>
+  </si>
+  <si>
+    <t>05/20/2014</t>
+  </si>
+  <si>
+    <t>It was a good stay!</t>
+  </si>
+  <si>
+    <t>We stayed here for one night in a two bedroom/two bathroom suite and it was perfect for us. The hotel is located in a nice quiet area with plenty of restaurants and stores in the area. Short drive to the freeway. The staff was really nice, even gave me cookies upon check-in. I felt safe leaving my car in the parking lot. The free breakfast was a big plus! And they offer free Wi-Fi!As for cons -  the toiletry items in one of the bathrooms were not replaced, they were all opened and used from the previous guest, and one of the hand towels was very old and had a ripped in it.. The sofa bed was very uncomfortable but the beds in the rooms were fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for one night in a two bedroom/two bathroom suite and it was perfect for us. The hotel is located in a nice quiet area with plenty of restaurants and stores in the area. Short drive to the freeway. The staff was really nice, even gave me cookies upon check-in. I felt safe leaving my car in the parking lot. The free breakfast was a big plus! And they offer free Wi-Fi!As for cons -  the toiletry items in one of the bathrooms were not replaced, they were all opened and used from the previous guest, and one of the hand towels was very old and had a ripped in it.. The sofa bed was very uncomfortable but the beds in the rooms were fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r202741566-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>202741566</t>
+  </si>
+  <si>
+    <t>04/25/2014</t>
+  </si>
+  <si>
+    <t>Terrific stay as always</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn Cypress Los Alamitos from April 19-25th.  We stay here with some frequency as our kids/grandkids live nearby.  The rooms are up-to-date, clean, and comfortable.  The pool area was pleasant and the pool water clean (although it could be a bit warmer).  Our grandchildren love spending time in the pool.  Actually, they love coming to the hotel in general.  We had them spend the night one night.  We used the pull out sofa bed, which was clean and comfortable for both of them (they're small).  The staff is one of the highlights of this hotel.  Very friendly and helpful.  The applies from the desk clerks to the housekeeping staff to the breakfast staff.  Terrific!MoreShow less</t>
+  </si>
+  <si>
+    <t>Lisa L, General Manager at Residence Inn by Marriott Cypress Los Alamitos, responded to this reviewResponded May 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn Cypress Los Alamitos from April 19-25th.  We stay here with some frequency as our kids/grandkids live nearby.  The rooms are up-to-date, clean, and comfortable.  The pool area was pleasant and the pool water clean (although it could be a bit warmer).  Our grandchildren love spending time in the pool.  Actually, they love coming to the hotel in general.  We had them spend the night one night.  We used the pull out sofa bed, which was clean and comfortable for both of them (they're small).  The staff is one of the highlights of this hotel.  Very friendly and helpful.  The applies from the desk clerks to the housekeeping staff to the breakfast staff.  Terrific!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r189270401-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>189270401</t>
+  </si>
+  <si>
+    <t>01/01/2014</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Stayed here in lieu of an unsafe/dumpy "hotel area" while visiting friends who live in Pasadena.  Safe, clean area.  We travel with dogs and found the hotel hospitable for dogs with grass area to do their business.  Hotel has indoor hallways, was quiet, nice clean kitchen w/full frige, pull-out sofa and bedroom.  Breakfast was decent.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Lisa L, General Manager at Residence Inn by Marriott Cypress Los Alamitos, responded to this reviewResponded January 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here in lieu of an unsafe/dumpy "hotel area" while visiting friends who live in Pasadena.  Safe, clean area.  We travel with dogs and found the hotel hospitable for dogs with grass area to do their business.  Hotel has indoor hallways, was quiet, nice clean kitchen w/full frige, pull-out sofa and bedroom.  Breakfast was decent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r189130291-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>189130291</t>
+  </si>
+  <si>
+    <t>12/31/2013</t>
+  </si>
+  <si>
+    <t>Quiet and good freeway access</t>
+  </si>
+  <si>
+    <t>We picked this particular Residence Inn because of its location -- midway between a number of family and friends that we planned to visit. The location turned out to be perfect for us and the hotel is located in a very quiet neighborhood. Additionally there are a number of decent restaurants nearby. The property is very clean, the service excellent, the breakfast buffet met expectations and our one bedroom suite was just fine. Will happily return next time we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>We picked this particular Residence Inn because of its location -- midway between a number of family and friends that we planned to visit. The location turned out to be perfect for us and the hotel is located in a very quiet neighborhood. Additionally there are a number of decent restaurants nearby. The property is very clean, the service excellent, the breakfast buffet met expectations and our one bedroom suite was just fine. Will happily return next time we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r179010606-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>179010606</t>
+  </si>
+  <si>
+    <t>09/28/2013</t>
+  </si>
+  <si>
+    <t>Clean rooms, but cost cutting on the extras</t>
+  </si>
+  <si>
+    <t>Stayed here for 15 days in August.  The service was great.  The rooms were clean and spacious.  The hotel layout was nice and the central courtyard and pool area was a pleasant place to relax.  Housekeeping did a fantastic job.  My room was always clean and fresh when I returned from work each evening.  My one complaint would be with the very low quality of the food in the hotel.  They advertise a daily breakfast buffet and a manager's reception Mon-Wed evening.  While the service at both events was friendly and efficient, you could tell the food quality was really cheap.  I feel kind of funny complaining about the quality of free food (you get what you pay for I guess...), but the powdery-tasting eggs and wonderbread hot-dog buns left a cheap aftertaste to an otherwise high-quality stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Lisa L, General Manager at Residence Inn by Marriott Cypress Los Alamitos, responded to this reviewResponded October 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for 15 days in August.  The service was great.  The rooms were clean and spacious.  The hotel layout was nice and the central courtyard and pool area was a pleasant place to relax.  Housekeeping did a fantastic job.  My room was always clean and fresh when I returned from work each evening.  My one complaint would be with the very low quality of the food in the hotel.  They advertise a daily breakfast buffet and a manager's reception Mon-Wed evening.  While the service at both events was friendly and efficient, you could tell the food quality was really cheap.  I feel kind of funny complaining about the quality of free food (you get what you pay for I guess...), but the powdery-tasting eggs and wonderbread hot-dog buns left a cheap aftertaste to an otherwise high-quality stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r164331684-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>164331684</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>Convenient Business Hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for one night as an alternate to my usual hotel in the area. Pretty good experience and I would probably stay again. Lobby staff was welcoming. Very disappointing breakfast could seriously be better - I will skip it next time. Room was clean and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Lisa L, General Manager at Residence Inn by Marriott Cypress Los Alamitos, responded to this reviewResponded July 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for one night as an alternate to my usual hotel in the area. Pretty good experience and I would probably stay again. Lobby staff was welcoming. Very disappointing breakfast could seriously be better - I will skip it next time. Room was clean and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r164320366-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>164320366</t>
+  </si>
+  <si>
+    <t>A Great Stay With My Husband &amp; Cats!</t>
+  </si>
+  <si>
+    <t>While our residence was being fumigated for termites, my husband and I, along with our 2 cats, stayed for four nights at this location. We really enjoyed our stay for the most part. It was a nice sized mini-suite and a good price.  It was nice that for a small fee, we were able to stay with our cats instead of needing to board them. We loved having the complimentary breakfast that was included. Both of have traveled for business before and we were both very happy with the freshness and variety of food choices that there were each morning.The only thing that was lacking was the bed. It was slightly small to us, but we are used to a California King sized bed. This was okay, but not particularly comfortable. Other than that, everything was great.We are looking forward to the next time we will be able to stay in this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>While our residence was being fumigated for termites, my husband and I, along with our 2 cats, stayed for four nights at this location. We really enjoyed our stay for the most part. It was a nice sized mini-suite and a good price.  It was nice that for a small fee, we were able to stay with our cats instead of needing to board them. We loved having the complimentary breakfast that was included. Both of have traveled for business before and we were both very happy with the freshness and variety of food choices that there were each morning.The only thing that was lacking was the bed. It was slightly small to us, but we are used to a California King sized bed. This was okay, but not particularly comfortable. Other than that, everything was great.We are looking forward to the next time we will be able to stay in this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r162735058-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>162735058</t>
+  </si>
+  <si>
+    <t>06/02/2013</t>
+  </si>
+  <si>
+    <t>Family Trip</t>
+  </si>
+  <si>
+    <t>For our 2013 family vacation we spent six nights in Southern California and stayed at the Residence Inn on Katella. 
+Our itinerary for this trip had us all over the place with stops to the north in Santa Monica and Downtown LA. A visit to Disney which is a short 10 minute drive from the hotel. And finally a trip south to Legoland which is almost in San Diego. Because of our busy schedule we went with a hotel fairly centrally located to all our stops but still close to Disney as we knew the Disney days would be long so we wanted to keep the travel time down to a minimum on those days. The area around the hotel seemed pretty nice with a number of good restaurants. It does get a little sketchy closer to Disney but this location was far enough away. 
+We have become loyal Residence Inn guests over the years as the extra space you get with the suites is a must as we travel with two young kids and at times a mother in law. This hotel like the others we've stayed in provided the ample amount of space required as we went with the two bedroom suite. 
+As for the room itself the beds were very comfortable and while things such as the carpet and cabinets appear to be pretty dated everything was clean and in proper working order. 
+The staff was great....For our 2013 family vacation we spent six nights in Southern California and stayed at the Residence Inn on Katella. Our itinerary for this trip had us all over the place with stops to the north in Santa Monica and Downtown LA. A visit to Disney which is a short 10 minute drive from the hotel. And finally a trip south to Legoland which is almost in San Diego. Because of our busy schedule we went with a hotel fairly centrally located to all our stops but still close to Disney as we knew the Disney days would be long so we wanted to keep the travel time down to a minimum on those days. The area around the hotel seemed pretty nice with a number of good restaurants. It does get a little sketchy closer to Disney but this location was far enough away. We have become loyal Residence Inn guests over the years as the extra space you get with the suites is a must as we travel with two young kids and at times a mother in law. This hotel like the others we've stayed in provided the ample amount of space required as we went with the two bedroom suite. As for the room itself the beds were very comfortable and while things such as the carpet and cabinets appear to be pretty dated everything was clean and in proper working order. The staff was great. We are pretty low maintenance guests but when we did ask for something the staff was there to help. At check in we asked for a pack and play crib and the staff was at our door with it before we could even unpack the rental car. The free breakfast was good and always a nice perk.  Comparable to all other Residence Inns. The only issues we had were minor. They did close down the pool and spa the last few days we were there for some much needed resurfacing.  It wasn't a big deal as it was actually a little too cold and we were too busy to swim.  My other issue was the latch on the door that provides additional security was really low. I wasn't worried about anyone getting in but more worried about my kids getting out. These latches are usually a lot higher but in this room even the 3 year old had no problem reaching it and thus unlocking the latch. Overall a nice hotel. Very comfortable and it served its purpose well. If you are planning a stop at Disney but don't want to stay at the resort this is a nice alternative. MoreShow less</t>
+  </si>
+  <si>
+    <t>For our 2013 family vacation we spent six nights in Southern California and stayed at the Residence Inn on Katella. 
+Our itinerary for this trip had us all over the place with stops to the north in Santa Monica and Downtown LA. A visit to Disney which is a short 10 minute drive from the hotel. And finally a trip south to Legoland which is almost in San Diego. Because of our busy schedule we went with a hotel fairly centrally located to all our stops but still close to Disney as we knew the Disney days would be long so we wanted to keep the travel time down to a minimum on those days. The area around the hotel seemed pretty nice with a number of good restaurants. It does get a little sketchy closer to Disney but this location was far enough away. 
+We have become loyal Residence Inn guests over the years as the extra space you get with the suites is a must as we travel with two young kids and at times a mother in law. This hotel like the others we've stayed in provided the ample amount of space required as we went with the two bedroom suite. 
+As for the room itself the beds were very comfortable and while things such as the carpet and cabinets appear to be pretty dated everything was clean and in proper working order. 
+The staff was great....For our 2013 family vacation we spent six nights in Southern California and stayed at the Residence Inn on Katella. Our itinerary for this trip had us all over the place with stops to the north in Santa Monica and Downtown LA. A visit to Disney which is a short 10 minute drive from the hotel. And finally a trip south to Legoland which is almost in San Diego. Because of our busy schedule we went with a hotel fairly centrally located to all our stops but still close to Disney as we knew the Disney days would be long so we wanted to keep the travel time down to a minimum on those days. The area around the hotel seemed pretty nice with a number of good restaurants. It does get a little sketchy closer to Disney but this location was far enough away. We have become loyal Residence Inn guests over the years as the extra space you get with the suites is a must as we travel with two young kids and at times a mother in law. This hotel like the others we've stayed in provided the ample amount of space required as we went with the two bedroom suite. As for the room itself the beds were very comfortable and while things such as the carpet and cabinets appear to be pretty dated everything was clean and in proper working order. The staff was great. We are pretty low maintenance guests but when we did ask for something the staff was there to help. At check in we asked for a pack and play crib and the staff was at our door with it before we could even unpack the rental car. The free breakfast was good and always a nice perk.  Comparable to all other Residence Inns. The only issues we had were minor. They did close down the pool and spa the last few days we were there for some much needed resurfacing.  It wasn't a big deal as it was actually a little too cold and we were too busy to swim.  My other issue was the latch on the door that provides additional security was really low. I wasn't worried about anyone getting in but more worried about my kids getting out. These latches are usually a lot higher but in this room even the 3 year old had no problem reaching it and thus unlocking the latch. Overall a nice hotel. Very comfortable and it served its purpose well. If you are planning a stop at Disney but don't want to stay at the resort this is a nice alternative. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r156651932-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>156651932</t>
+  </si>
+  <si>
+    <t>04/04/2013</t>
+  </si>
+  <si>
+    <t>Sleeper Bed Night mare</t>
+  </si>
+  <si>
+    <t>3/31/13 One Bedroom w/ sofa Bed w/ kitchen .Sofa bed was distressed with coils through out ,nu-bearable to sleep on. We were relocated to a 2 BD Room, sofa bed in 2 BD same condition as 1 BD Room, up grade fee $50 per night with 2 more nights reserved. AM Monday 4/1/13 spoke with front desk to confirm $100 up-grade fee. I was told $50 plus purchase of 15000 MR points .per night. I have been a Marriott Reward Member 20 years . At check out rate would have been $400 additional. All exceptionable, I decided to relocate
+advised Front Desk Assistant Manager that I was working on a re-solve, and was going to once again pack. Her response to me was "CHECK OUT IS AT NOON, BE OFF THE PROPERTY OR I WILL CALL THE POLICE !!!!!!!!!!!!!!!! Re cap MR Member 20 yrs, 1/2 Million spent through Domestic &amp; International Marriott Hotels &amp; Resorts , Over 465,000 points earned over that 20 that time.  Assessment Sofa Bed(s) terrible, My behavior my Body Language good, tone of voice calm &amp;  I conducted myself in a professional manner in Lew of situation, agreeable to $50 per night, choose to re-locate, never avoided payment, I choose not to accrue addition fee's by continuing to stay there. But buyer be-ware, treat's to have me age 60 retire professional remove my intervention of the "police". Un except able ,  Would highly recommend that...3/31/13 One Bedroom w/ sofa Bed w/ kitchen .Sofa bed was distressed with coils through out ,nu-bearable to sleep on. We were relocated to a 2 BD Room, sofa bed in 2 BD same condition as 1 BD Room, up grade fee $50 per night with 2 more nights reserved. AM Monday 4/1/13 spoke with front desk to confirm $100 up-grade fee. I was told $50 plus purchase of 15000 MR points .per night. I have been a Marriott Reward Member 20 years . At check out rate would have been $400 additional. All exceptionable, I decided to relocateadvised Front Desk Assistant Manager that I was working on a re-solve, and was going to once again pack. Her response to me was "CHECK OUT IS AT NOON, BE OFF THE PROPERTY OR I WILL CALL THE POLICE !!!!!!!!!!!!!!!! Re cap MR Member 20 yrs, 1/2 Million spent through Domestic &amp; International Marriott Hotels &amp; Resorts , Over 465,000 points earned over that 20 that time.  Assessment Sofa Bed(s) terrible, My behavior my Body Language good, tone of voice calm &amp;  I conducted myself in a professional manner in Lew of situation, agreeable to $50 per night, choose to re-locate, never avoided payment, I choose not to accrue addition fee's by continuing to stay there. But buyer be-ware, treat's to have me age 60 retire professional remove my intervention of the "police". Un except able ,  Would highly recommend that any one reading this review not stay at the Marriott Residence Inn in Los Alamitos Ca. This manager does not define Marriott as a whole, she ,I would recommend seek out additional training that Marriott Corporation has available for there Management staff. 2nd recommendation is that all "sofa Bed mattress be remove &amp; up graded with new mattress. Obvious fact basis on high occupancy mattress especially in "sofa beds" which are un-comfortable most of the time have a short shelf life. In fairness other than that Hotel was clean, 99% of staff excelled in there position with in the Hotel. Over all fixable, treats to contact police un-called for. Management should lead by example, motivate by experience &amp; above all assess all situations with integrity. We are all human, there fore we all make mistakes , And we the customers are not always right .Conclusion for all, Police intervention when all avenues have been exhaustible. And when in harms way , with out a doubt.  But not for any other reason especially to a 60 yr old Grandmother taking her 2 Grand children to Disney Land.  I mean Really. Thank you for reading. RespectfullyMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Lisa L, General Manager at Residence Inn by Marriott Cypress Los Alamitos, responded to this reviewResponded April 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2013</t>
+  </si>
+  <si>
+    <t>3/31/13 One Bedroom w/ sofa Bed w/ kitchen .Sofa bed was distressed with coils through out ,nu-bearable to sleep on. We were relocated to a 2 BD Room, sofa bed in 2 BD same condition as 1 BD Room, up grade fee $50 per night with 2 more nights reserved. AM Monday 4/1/13 spoke with front desk to confirm $100 up-grade fee. I was told $50 plus purchase of 15000 MR points .per night. I have been a Marriott Reward Member 20 years . At check out rate would have been $400 additional. All exceptionable, I decided to relocate
+advised Front Desk Assistant Manager that I was working on a re-solve, and was going to once again pack. Her response to me was "CHECK OUT IS AT NOON, BE OFF THE PROPERTY OR I WILL CALL THE POLICE !!!!!!!!!!!!!!!! Re cap MR Member 20 yrs, 1/2 Million spent through Domestic &amp; International Marriott Hotels &amp; Resorts , Over 465,000 points earned over that 20 that time.  Assessment Sofa Bed(s) terrible, My behavior my Body Language good, tone of voice calm &amp;  I conducted myself in a professional manner in Lew of situation, agreeable to $50 per night, choose to re-locate, never avoided payment, I choose not to accrue addition fee's by continuing to stay there. But buyer be-ware, treat's to have me age 60 retire professional remove my intervention of the "police". Un except able ,  Would highly recommend that...3/31/13 One Bedroom w/ sofa Bed w/ kitchen .Sofa bed was distressed with coils through out ,nu-bearable to sleep on. We were relocated to a 2 BD Room, sofa bed in 2 BD same condition as 1 BD Room, up grade fee $50 per night with 2 more nights reserved. AM Monday 4/1/13 spoke with front desk to confirm $100 up-grade fee. I was told $50 plus purchase of 15000 MR points .per night. I have been a Marriott Reward Member 20 years . At check out rate would have been $400 additional. All exceptionable, I decided to relocateadvised Front Desk Assistant Manager that I was working on a re-solve, and was going to once again pack. Her response to me was "CHECK OUT IS AT NOON, BE OFF THE PROPERTY OR I WILL CALL THE POLICE !!!!!!!!!!!!!!!! Re cap MR Member 20 yrs, 1/2 Million spent through Domestic &amp; International Marriott Hotels &amp; Resorts , Over 465,000 points earned over that 20 that time.  Assessment Sofa Bed(s) terrible, My behavior my Body Language good, tone of voice calm &amp;  I conducted myself in a professional manner in Lew of situation, agreeable to $50 per night, choose to re-locate, never avoided payment, I choose not to accrue addition fee's by continuing to stay there. But buyer be-ware, treat's to have me age 60 retire professional remove my intervention of the "police". Un except able ,  Would highly recommend that any one reading this review not stay at the Marriott Residence Inn in Los Alamitos Ca. This manager does not define Marriott as a whole, she ,I would recommend seek out additional training that Marriott Corporation has available for there Management staff. 2nd recommendation is that all "sofa Bed mattress be remove &amp; up graded with new mattress. Obvious fact basis on high occupancy mattress especially in "sofa beds" which are un-comfortable most of the time have a short shelf life. In fairness other than that Hotel was clean, 99% of staff excelled in there position with in the Hotel. Over all fixable, treats to contact police un-called for. Management should lead by example, motivate by experience &amp; above all assess all situations with integrity. We are all human, there fore we all make mistakes , And we the customers are not always right .Conclusion for all, Police intervention when all avenues have been exhaustible. And when in harms way , with out a doubt.  But not for any other reason especially to a 60 yr old Grandmother taking her 2 Grand children to Disney Land.  I mean Really. Thank you for reading. RespectfullyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r154312741-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>154312741</t>
+  </si>
+  <si>
+    <t>03/11/2013</t>
+  </si>
+  <si>
+    <t>Wasn't the Best Residence Inn</t>
+  </si>
+  <si>
+    <t>The hotel is nice, but completely disappointing. Stayed here while attending a conference in Anaheim for several days/nights. We arrived at 3:15 on Thursday. When I walked up to the front desk no one seemed to care that I was there. Once someone acknowledged my presence I was told that there were no rooms available despite there being a 3 PM check-in. I understand, but you are a corporate focused property, have the rooms available when the guest arrives. Fortunately I had to go to Anaheim and drop off an item which I knew would take about an hour. The front desk clerk told me she would upgrade the room for my trouble and she would call me to let me know the room was ready.  I returned about about 5 PM, not knowing if there would be a room for me. The front desk crew had changed and no one knew anything. When they keyed my name into the system I was assigned a room. I asked if this was an upgrade and was told no. I was also told if I didn't like the room they would move me to another room. The room I was given was TINY and very uncomfortable. I went to the front desk and asked to be moved and was moved to a 4th floor room w/a fireplace. The problem with the room.....old worn out appliances. The ice maker was hanging in the...The hotel is nice, but completely disappointing. Stayed here while attending a conference in Anaheim for several days/nights. We arrived at 3:15 on Thursday. When I walked up to the front desk no one seemed to care that I was there. Once someone acknowledged my presence I was told that there were no rooms available despite there being a 3 PM check-in. I understand, but you are a corporate focused property, have the rooms available when the guest arrives. Fortunately I had to go to Anaheim and drop off an item which I knew would take about an hour. The front desk clerk told me she would upgrade the room for my trouble and she would call me to let me know the room was ready.  I returned about about 5 PM, not knowing if there would be a room for me. The front desk crew had changed and no one knew anything. When they keyed my name into the system I was assigned a room. I asked if this was an upgrade and was told no. I was also told if I didn't like the room they would move me to another room. The room I was given was TINY and very uncomfortable. I went to the front desk and asked to be moved and was moved to a 4th floor room w/a fireplace. The problem with the room.....old worn out appliances. The ice maker was hanging in the freezer. The 3rd floor room had brand new appliances.Over the period of Thursday-Sunday morning I had to have the keys exchanged 10 times. Something was wrong with the room lock or the key cards. I never exposed them to a credit card or magnet or cell phone, they were kept in the folio. That is unacceptable.One final comment to the franchisee and owner. Get rid of the queen beds. They are uncomfortable. If the property was in New York City, yes I can understand. Not in Southern California. Put in King size bed PLEASE.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is nice, but completely disappointing. Stayed here while attending a conference in Anaheim for several days/nights. We arrived at 3:15 on Thursday. When I walked up to the front desk no one seemed to care that I was there. Once someone acknowledged my presence I was told that there were no rooms available despite there being a 3 PM check-in. I understand, but you are a corporate focused property, have the rooms available when the guest arrives. Fortunately I had to go to Anaheim and drop off an item which I knew would take about an hour. The front desk clerk told me she would upgrade the room for my trouble and she would call me to let me know the room was ready.  I returned about about 5 PM, not knowing if there would be a room for me. The front desk crew had changed and no one knew anything. When they keyed my name into the system I was assigned a room. I asked if this was an upgrade and was told no. I was also told if I didn't like the room they would move me to another room. The room I was given was TINY and very uncomfortable. I went to the front desk and asked to be moved and was moved to a 4th floor room w/a fireplace. The problem with the room.....old worn out appliances. The ice maker was hanging in the...The hotel is nice, but completely disappointing. Stayed here while attending a conference in Anaheim for several days/nights. We arrived at 3:15 on Thursday. When I walked up to the front desk no one seemed to care that I was there. Once someone acknowledged my presence I was told that there were no rooms available despite there being a 3 PM check-in. I understand, but you are a corporate focused property, have the rooms available when the guest arrives. Fortunately I had to go to Anaheim and drop off an item which I knew would take about an hour. The front desk clerk told me she would upgrade the room for my trouble and she would call me to let me know the room was ready.  I returned about about 5 PM, not knowing if there would be a room for me. The front desk crew had changed and no one knew anything. When they keyed my name into the system I was assigned a room. I asked if this was an upgrade and was told no. I was also told if I didn't like the room they would move me to another room. The room I was given was TINY and very uncomfortable. I went to the front desk and asked to be moved and was moved to a 4th floor room w/a fireplace. The problem with the room.....old worn out appliances. The ice maker was hanging in the freezer. The 3rd floor room had brand new appliances.Over the period of Thursday-Sunday morning I had to have the keys exchanged 10 times. Something was wrong with the room lock or the key cards. I never exposed them to a credit card or magnet or cell phone, they were kept in the folio. That is unacceptable.One final comment to the franchisee and owner. Get rid of the queen beds. They are uncomfortable. If the property was in New York City, yes I can understand. Not in Southern California. Put in King size bed PLEASE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r153391951-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>153391951</t>
+  </si>
+  <si>
+    <t>02/28/2013</t>
+  </si>
+  <si>
+    <t>It was a great place to stay</t>
+  </si>
+  <si>
+    <t>This hotel has nice sized rooms, great staff, basketball/tennis court, awesome location and just a nice place to stay. The reviews for this hotel were spot on.The breakfast is done well and has a good selection of things to eat.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r149820669-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>149820669</t>
+  </si>
+  <si>
+    <t>01/16/2013</t>
+  </si>
+  <si>
+    <t>Great room, even better service</t>
+  </si>
+  <si>
+    <t>Typically nice clean Residence Inn room.  Located directly in front of horse track for those that may wish to go over, but still very quiet.  The desk and breakfast area staff were nothing short of outstanding.  Breakfast itself was well stocked and fairly diverse.  Easy to find on Katella.  We stayed here and visited Disneyland a couple days.  15/20 minute drive on surface streets.  VERY simple directions between the two places.  Easy drive over to the beach as well.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r149790842-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>149790842</t>
+  </si>
+  <si>
+    <t>Good and clean Residence Inn</t>
+  </si>
+  <si>
+    <t>Stayed at this location for a family vacation, we had a two bedroom suite for a week and we where comfortable. Good location for trips to LA and Orange County, even San Diego is not a long drive. Rooms are clean and up to date, lots of restaurants around.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r145628700-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>145628700</t>
+  </si>
+  <si>
+    <t>11/17/2012</t>
+  </si>
+  <si>
+    <t>very satisfied-close to Los Alamitos Race Track</t>
+  </si>
+  <si>
+    <t>We travelled to Los Alamitos to visit the Los Alamitos Race Track and stayed in a one bedroom. This hotel is the closest to the track. We were happily greeted and checked in promptly. The rooms are newly updated and not worn at all...smelled good, carpets clean, bed was comfy, kitchen was fully equipped (except oven of course), small dinette and small sitting area etc. Their breakfast was great and had a huge selection...scrambled eggs, sausage, French toast, waffles, oatmeal, fresh fruit, bagels, English muffins, other breads, muffins, yogurt, cereals,  juices, milks, coffee, tea etc. Definitely something for everyone. The only downside I can see about this hotel is the location to restaurants within walking distance...there aren't any other than a couple of fast food places.  We drove to the race track and it took about 1 minute by cutting through back behind the parking lot (the race is literally backed up to this hotel). I wouldn't plan on walking at night because its poorly lit. A taxi might cost $8???For families, there is a nice pool, small basketball court and a full size gas grill for public use on the patio area by the pool.We will definitely stay here again when we visit the track.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>We travelled to Los Alamitos to visit the Los Alamitos Race Track and stayed in a one bedroom. This hotel is the closest to the track. We were happily greeted and checked in promptly. The rooms are newly updated and not worn at all...smelled good, carpets clean, bed was comfy, kitchen was fully equipped (except oven of course), small dinette and small sitting area etc. Their breakfast was great and had a huge selection...scrambled eggs, sausage, French toast, waffles, oatmeal, fresh fruit, bagels, English muffins, other breads, muffins, yogurt, cereals,  juices, milks, coffee, tea etc. Definitely something for everyone. The only downside I can see about this hotel is the location to restaurants within walking distance...there aren't any other than a couple of fast food places.  We drove to the race track and it took about 1 minute by cutting through back behind the parking lot (the race is literally backed up to this hotel). I wouldn't plan on walking at night because its poorly lit. A taxi might cost $8???For families, there is a nice pool, small basketball court and a full size gas grill for public use on the patio area by the pool.We will definitely stay here again when we visit the track.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r135300795-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>135300795</t>
+  </si>
+  <si>
+    <t>07/24/2012</t>
+  </si>
+  <si>
+    <t>Nice surprise!</t>
+  </si>
+  <si>
+    <t>We would never have stayed here, were it not for the (hilarious) Wiener Nationals at the Los Alamitos Race Course next door, but we're glad we did! We booked a 2 bedroom suite for under $200, and it was HUGE. Two nice-sized onsuite bedrooms, each with a very comfortable queen bed, a living space with TV and fireplace, and a kitchen with a table for 4. Everything was very bright &amp; clean, and all staff members were extremely friendly &amp; helpful. Included was a decent breakfast buffet, and I loved the fact that they have a "store" beside the front desk where you can purchase snacks, water, etc., at any hour. If we ever go to Disneyland or the race track again, we will definitely be staying here!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>We would never have stayed here, were it not for the (hilarious) Wiener Nationals at the Los Alamitos Race Course next door, but we're glad we did! We booked a 2 bedroom suite for under $200, and it was HUGE. Two nice-sized onsuite bedrooms, each with a very comfortable queen bed, a living space with TV and fireplace, and a kitchen with a table for 4. Everything was very bright &amp; clean, and all staff members were extremely friendly &amp; helpful. Included was a decent breakfast buffet, and I loved the fact that they have a "store" beside the front desk where you can purchase snacks, water, etc., at any hour. If we ever go to Disneyland or the race track again, we will definitely be staying here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r134783928-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>134783928</t>
+  </si>
+  <si>
+    <t>07/18/2012</t>
+  </si>
+  <si>
+    <t>Very nice room</t>
+  </si>
+  <si>
+    <t>Traveled out here for business. Residence inn has a great location. The bed's are very very comfortable and I slept great. The rooms are quiet and sound proof. Great place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r130338019-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>130338019</t>
+  </si>
+  <si>
+    <t>05/21/2012</t>
+  </si>
+  <si>
+    <t>Second Stay - Just as Perfect as The First!</t>
+  </si>
+  <si>
+    <t>This is now my second stay at this location. I decided to return after an AWESOME first stay. I cannot say anything negative about this hotel, location and staff. Room (King Suite) was spacious, clean, and comfortable. I fear bed-bugs therefore I always check and Lysol things before I unpack and settle in. The room was already VERY clean and NO signs of ANY unwanted critters. LOVE the hot &amp; filling breakfast served every morning and the ladies that manage that area should really be commended for keeping everything so clean, fresh and filled! The hotel grounds as kept so polished, the staff so friendly and willing to help, etc. I am so glad that I have found this gem of a hotel in Los Alamitos. Everytime I return to Long Beach, this will be my go-to place to stay...Period!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>This is now my second stay at this location. I decided to return after an AWESOME first stay. I cannot say anything negative about this hotel, location and staff. Room (King Suite) was spacious, clean, and comfortable. I fear bed-bugs therefore I always check and Lysol things before I unpack and settle in. The room was already VERY clean and NO signs of ANY unwanted critters. LOVE the hot &amp; filling breakfast served every morning and the ladies that manage that area should really be commended for keeping everything so clean, fresh and filled! The hotel grounds as kept so polished, the staff so friendly and willing to help, etc. I am so glad that I have found this gem of a hotel in Los Alamitos. Everytime I return to Long Beach, this will be my go-to place to stay...Period!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r125763439-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>125763439</t>
+  </si>
+  <si>
+    <t>03/07/2012</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>Perhaps almost too friendly.  The hand-written welcome note was a little over the top.  Well-kept property as well.  Hit the Katella Deli if you stay there.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r125661803-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>125661803</t>
+  </si>
+  <si>
+    <t>03/05/2012</t>
+  </si>
+  <si>
+    <t>Just an average place, good price, close to disneyland!</t>
+  </si>
+  <si>
+    <t>the good: breakfast, the short drive to disneyland, two rooms in one suite was good for grandma and kidThe bad: the beds and pillows were very uncomfortable, the rooms appeared to be clean however not good regular cleaning (washrooms were just tidied up daily not really scrubed.  This location was close to disney but very far from LA (~1 hour) and other nice places.   probably wouldn't stay here again, wasn't impressed at the cleanliness.  No bugs that I noticed which is a plus!They make you sign a waiver for not making any noise and if so they will ask you to leave... my 4 year old jumped around for a min. before her dad asked her to stop...we got a call immediately that there were complaints.   Meanwhile, the suite next to us had a dog that barked all night for 7 days... : (MoreShow less</t>
+  </si>
+  <si>
+    <t>the good: breakfast, the short drive to disneyland, two rooms in one suite was good for grandma and kidThe bad: the beds and pillows were very uncomfortable, the rooms appeared to be clean however not good regular cleaning (washrooms were just tidied up daily not really scrubed.  This location was close to disney but very far from LA (~1 hour) and other nice places.   probably wouldn't stay here again, wasn't impressed at the cleanliness.  No bugs that I noticed which is a plus!They make you sign a waiver for not making any noise and if so they will ask you to leave... my 4 year old jumped around for a min. before her dad asked her to stop...we got a call immediately that there were complaints.   Meanwhile, the suite next to us had a dog that barked all night for 7 days... : (More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r124928924-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>124928924</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>Roaches</t>
+  </si>
+  <si>
+    <t>They had baby roaches, climbing up the wall, in my granddaughters drink, walking on table.  Needless to say we checked out right away.  Screaming and hollering.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lisa L, General Manager at Residence Inn by Marriott Cypress Los Alamitos, responded to this reviewResponded March 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2012</t>
+  </si>
+  <si>
+    <t>They had baby roaches, climbing up the wall, in my granddaughters drink, walking on table.  Needless to say we checked out right away.  Screaming and hollering.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r122316227-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>122316227</t>
+  </si>
+  <si>
+    <t>12/31/2011</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>Stayed here Dec 2011 for a week on business visit in studio apt, Room very nice with comfy double bed, 4 ft sofa bed so easy take four people!, kitchen with cooker, fridge and microwave etc so a good self catering option. i always stay as high as possible and this was 3rd floor but place was quite at night in hotel, a little road rumble and the odd chopper from airbase over road, also a fair amount of US service people staying but i enjoyed talking to them. breakfast was selfhelp on fruit , cereals, porridge,toast, scramble eggs, square sausage and all good. eveing food basic but loads of places nearby (out of hotel turn right over road 1st place-Deli- great fish-chips) - Turn left walk 10 mins Redrobin - good chioce, Wed PM is bike night at bar over the road and noisy but best way to handle that is go over and join in as we did - great night!!)Nice pool + hot tub - Basketball - tennis etc, Staff are great and everyone polite so this is where i will come again next time in California.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>Lisa L, General Manager at Residence Inn by Marriott Cypress Los Alamitos, responded to this reviewResponded January 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2012</t>
+  </si>
+  <si>
+    <t>Stayed here Dec 2011 for a week on business visit in studio apt, Room very nice with comfy double bed, 4 ft sofa bed so easy take four people!, kitchen with cooker, fridge and microwave etc so a good self catering option. i always stay as high as possible and this was 3rd floor but place was quite at night in hotel, a little road rumble and the odd chopper from airbase over road, also a fair amount of US service people staying but i enjoyed talking to them. breakfast was selfhelp on fruit , cereals, porridge,toast, scramble eggs, square sausage and all good. eveing food basic but loads of places nearby (out of hotel turn right over road 1st place-Deli- great fish-chips) - Turn left walk 10 mins Redrobin - good chioce, Wed PM is bike night at bar over the road and noisy but best way to handle that is go over and join in as we did - great night!!)Nice pool + hot tub - Basketball - tennis etc, Staff are great and everyone polite so this is where i will come again next time in California.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r120765696-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>120765696</t>
+  </si>
+  <si>
+    <t>11/18/2011</t>
+  </si>
+  <si>
+    <t>best place to stay</t>
+  </si>
+  <si>
+    <t>I think we've stayed here at least 10 times in the last 5 years.  It's our hotel of choice when visiting the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r119947855-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>119947855</t>
+  </si>
+  <si>
+    <t>10/31/2011</t>
+  </si>
+  <si>
+    <t>Wonderful staff</t>
+  </si>
+  <si>
+    <t>Two weeks at the Residence Inn in Los Alamitos on business.  The staff were superb, from the front desk to the cleaning staff.  The room was good size, adequate kitchen equipment, excellent internet connection.  The hotel was recommended by my client in Orange County.  Will definitely stay here on future trips.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r104207719-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>104207719</t>
+  </si>
+  <si>
+    <t>04/15/2011</t>
+  </si>
+  <si>
+    <t>Lovely, fresh, friendly guest hotel</t>
+  </si>
+  <si>
+    <t>We arrived at another hotel in the area which we had booked based on recommendations on this site.  It was horrible and we check out immediately.  We stopped at a local coffee shop with wifi and started looking for another property where we could stay for at least our first night.  We found the Residence Inn - booked it online - then drove to the location.  What a welcome site as we walked into the lobby.  We were greeted with friendly, smiling faces.  Since we had just booked online with hotel.com  the hotel had not yet received the confirmation.  No problem.  They checked us in at the hotel.com rate which was considerably lower that the standard rate.  We arrived at our room and it was great.  It was fresh, clean, and well appointed.  The hotel serves a full complimentary breakfast every ..   morning.  It had a great variety of food and great people working the kitchen.  The property has very nice pool and exercise room.  The location was very convenient to Disneyland and the beaches,  It was a great home away from home where we decided to spend our entire trip.  There is no doubt that when we go back again we will stay at the Residence Inn again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>We arrived at another hotel in the area which we had booked based on recommendations on this site.  It was horrible and we check out immediately.  We stopped at a local coffee shop with wifi and started looking for another property where we could stay for at least our first night.  We found the Residence Inn - booked it online - then drove to the location.  What a welcome site as we walked into the lobby.  We were greeted with friendly, smiling faces.  Since we had just booked online with hotel.com  the hotel had not yet received the confirmation.  No problem.  They checked us in at the hotel.com rate which was considerably lower that the standard rate.  We arrived at our room and it was great.  It was fresh, clean, and well appointed.  The hotel serves a full complimentary breakfast every ..   morning.  It had a great variety of food and great people working the kitchen.  The property has very nice pool and exercise room.  The location was very convenient to Disneyland and the beaches,  It was a great home away from home where we decided to spend our entire trip.  There is no doubt that when we go back again we will stay at the Residence Inn again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r98454613-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>98454613</t>
+  </si>
+  <si>
+    <t>02/28/2011</t>
+  </si>
+  <si>
+    <t>Fine for business travel and convenient to Long Beach airport</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights last week on business. I worked really long hours so I didn't have time to partake in any of the extras or use the fitness or leisure facilities. I can tell you that when I checked in the woman working at the desk was very friendly. As a single woman traveler, I did feel a little uneasy coming and going from the car to my room in the dark near the rear/side of the complex, especially when I was solo and weighted down with bags. It seemed kind of deserted and although there were parking lot lamps it kind of gave me the creeps. Free in room wi fi also would have been a nice touch. The room was not luxurious but seemed clean and it was quiet. Requests for wake up calls were handled enthusiastically by staff. Enjoyed that windows to my room could open - I hate stuffy rooms with sealed windows. Hotel was super convenient to Long Beach airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights last week on business. I worked really long hours so I didn't have time to partake in any of the extras or use the fitness or leisure facilities. I can tell you that when I checked in the woman working at the desk was very friendly. As a single woman traveler, I did feel a little uneasy coming and going from the car to my room in the dark near the rear/side of the complex, especially when I was solo and weighted down with bags. It seemed kind of deserted and although there were parking lot lamps it kind of gave me the creeps. Free in room wi fi also would have been a nice touch. The room was not luxurious but seemed clean and it was quiet. Requests for wake up calls were handled enthusiastically by staff. Enjoyed that windows to my room could open - I hate stuffy rooms with sealed windows. Hotel was super convenient to Long Beach airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r97039194-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>97039194</t>
+  </si>
+  <si>
+    <t>02/17/2011</t>
+  </si>
+  <si>
+    <t>Clean and Cozy</t>
+  </si>
+  <si>
+    <t>Stayed here for work. Was really nice, clean. Spacious suites were great and really good breakfast!</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r83168478-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>83168478</t>
+  </si>
+  <si>
+    <t>10/12/2010</t>
+  </si>
+  <si>
+    <t>Great Location and Value!</t>
+  </si>
+  <si>
+    <t>My wife and I decided to to do a little local getaway and was looking for a place that was quiet and had cooking facilities because we wanted to stay in during our stay. So I did a search and read some of the reviews on TripAdvisor and decided to try it out and man were we glad we did! The hotel is located in a very nice area and was situated near the Los Alamitos Race Track. The facility was immaculate, the grounds spotless, the parking lot was clean as were the the pool and jacuzzi. At check-in, the staff was very friendly as there were throughout our stay. When they found out the reason for our stay, they graciously upgraded us to a one-bedroom suite.  The rooms were nice and roomy and the bed was very comfortable. The bathrooms were roomy as well and nicely setup with plenty of towels and amenities. The kitchen was well setup with full sized appliances (Fridge, microwave, stove, oven, dishwasher) with plenty of pots, pans, utensils and dishware.  I got free internet via a wall connection and wifi and both were easy to connect and fairly fast. The breakfasts were pretty good for this type of hotel. They changed what was being served every day but you always seemed to get a great selection of cereals, juices, fruit, yogurt, milk, pastries, doughnuts, eggs, ham, bacon, and sausage. During the week on Monday...My wife and I decided to to do a little local getaway and was looking for a place that was quiet and had cooking facilities because we wanted to stay in during our stay. So I did a search and read some of the reviews on TripAdvisor and decided to try it out and man were we glad we did! The hotel is located in a very nice area and was situated near the Los Alamitos Race Track. The facility was immaculate, the grounds spotless, the parking lot was clean as were the the pool and jacuzzi. At check-in, the staff was very friendly as there were throughout our stay. When they found out the reason for our stay, they graciously upgraded us to a one-bedroom suite.  The rooms were nice and roomy and the bed was very comfortable. The bathrooms were roomy as well and nicely setup with plenty of towels and amenities. The kitchen was well setup with full sized appliances (Fridge, microwave, stove, oven, dishwasher) with plenty of pots, pans, utensils and dishware.  I got free internet via a wall connection and wifi and both were easy to connect and fairly fast. The breakfasts were pretty good for this type of hotel. They changed what was being served every day but you always seemed to get a great selection of cereals, juices, fruit, yogurt, milk, pastries, doughnuts, eggs, ham, bacon, and sausage. During the week on Monday through Wednesday was a happy hour night with free food and wine and beer every weeknight. We loved every moment of our stay and plan to go back soon. We highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>My wife and I decided to to do a little local getaway and was looking for a place that was quiet and had cooking facilities because we wanted to stay in during our stay. So I did a search and read some of the reviews on TripAdvisor and decided to try it out and man were we glad we did! The hotel is located in a very nice area and was situated near the Los Alamitos Race Track. The facility was immaculate, the grounds spotless, the parking lot was clean as were the the pool and jacuzzi. At check-in, the staff was very friendly as there were throughout our stay. When they found out the reason for our stay, they graciously upgraded us to a one-bedroom suite.  The rooms were nice and roomy and the bed was very comfortable. The bathrooms were roomy as well and nicely setup with plenty of towels and amenities. The kitchen was well setup with full sized appliances (Fridge, microwave, stove, oven, dishwasher) with plenty of pots, pans, utensils and dishware.  I got free internet via a wall connection and wifi and both were easy to connect and fairly fast. The breakfasts were pretty good for this type of hotel. They changed what was being served every day but you always seemed to get a great selection of cereals, juices, fruit, yogurt, milk, pastries, doughnuts, eggs, ham, bacon, and sausage. During the week on Monday...My wife and I decided to to do a little local getaway and was looking for a place that was quiet and had cooking facilities because we wanted to stay in during our stay. So I did a search and read some of the reviews on TripAdvisor and decided to try it out and man were we glad we did! The hotel is located in a very nice area and was situated near the Los Alamitos Race Track. The facility was immaculate, the grounds spotless, the parking lot was clean as were the the pool and jacuzzi. At check-in, the staff was very friendly as there were throughout our stay. When they found out the reason for our stay, they graciously upgraded us to a one-bedroom suite.  The rooms were nice and roomy and the bed was very comfortable. The bathrooms were roomy as well and nicely setup with plenty of towels and amenities. The kitchen was well setup with full sized appliances (Fridge, microwave, stove, oven, dishwasher) with plenty of pots, pans, utensils and dishware.  I got free internet via a wall connection and wifi and both were easy to connect and fairly fast. The breakfasts were pretty good for this type of hotel. They changed what was being served every day but you always seemed to get a great selection of cereals, juices, fruit, yogurt, milk, pastries, doughnuts, eggs, ham, bacon, and sausage. During the week on Monday through Wednesday was a happy hour night with free food and wine and beer every weeknight. We loved every moment of our stay and plan to go back soon. We highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r76644720-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>76644720</t>
+  </si>
+  <si>
+    <t>08/24/2010</t>
+  </si>
+  <si>
+    <t>Smelly bed sheets, extremely uncomfortable sofa bed</t>
+  </si>
+  <si>
+    <t>Had to request twice replacement of bed sheets and blanket - they smelled like urine and had stains... ugh!!!Sofa bed extremely uncomfortable. Still have backpains related to my sleeping on it for almost 10 days.Twice during our stay sofa bed was not made after cleaning the room. And dishwasher was never emptied, so they kept on washing the same dishes over and over again (only used them once!!!)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r63248215-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>63248215</t>
+  </si>
+  <si>
+    <t>05/04/2010</t>
+  </si>
+  <si>
+    <t>My New Standard in Accommodations</t>
+  </si>
+  <si>
+    <t>Wow, this place in incredibly immaculate!  Should have realized something was different when I first pulled into the parking lot to check-in.  The grounds are well maintained and everything is CLEAN.  The front desk staff were awesome...each and every one of them.  There were four total that checked-in at the same time and they were so apologetic that there was a ‘wait’.  We kept telling them this was NOT an issue as we were all together but the kindness and acknowledgement was something to be noted.  Once we got to the rooms, (as I found out later) all of our jaws dropped.  The cleanliness stood out, the layout very functional and the space very impressive.  Housekeeping was excellent.  There was free Hi-speed internet and free parking.  There was a HOT breakfast every morning (your standard scambled eggs, potatoes, breakfast meat (each morning was a different meat --&gt; sausage/ham/bacon/etc.), fresh fruit, breads, coffee, etc.) and the buffet keep clean and fresh.  The make-your-own waffles were awesome.  The dining area was a little small but people were in and out of there somewhat fast so tables opened up fairly quickly.  We all stayed there 5 days and could not ask for better accommodations.  This is my new standard when traveling.  I hope all Residence Inn locations are as great as this one!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>Wow, this place in incredibly immaculate!  Should have realized something was different when I first pulled into the parking lot to check-in.  The grounds are well maintained and everything is CLEAN.  The front desk staff were awesome...each and every one of them.  There were four total that checked-in at the same time and they were so apologetic that there was a ‘wait’.  We kept telling them this was NOT an issue as we were all together but the kindness and acknowledgement was something to be noted.  Once we got to the rooms, (as I found out later) all of our jaws dropped.  The cleanliness stood out, the layout very functional and the space very impressive.  Housekeeping was excellent.  There was free Hi-speed internet and free parking.  There was a HOT breakfast every morning (your standard scambled eggs, potatoes, breakfast meat (each morning was a different meat --&gt; sausage/ham/bacon/etc.), fresh fruit, breads, coffee, etc.) and the buffet keep clean and fresh.  The make-your-own waffles were awesome.  The dining area was a little small but people were in and out of there somewhat fast so tables opened up fairly quickly.  We all stayed there 5 days and could not ask for better accommodations.  This is my new standard when traveling.  I hope all Residence Inn locations are as great as this one!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r53577354-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>53577354</t>
+  </si>
+  <si>
+    <t>01/15/2010</t>
+  </si>
+  <si>
+    <t>Very friendly and Clean!</t>
+  </si>
+  <si>
+    <t>I love this hotel!  They even gave us a free bottle of champagne and a free 25.00 gas card on new years eve!!  There are fantastic people working there and always greet us with a smile.  The rooms smell great and the bedding is so comfortable.  You won't regret staying here!</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r47691776-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>47691776</t>
+  </si>
+  <si>
+    <t>10/25/2009</t>
+  </si>
+  <si>
+    <t>Great Value and staff</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel. Had a room overlooking the pool. Mon-Wed there is a happy hour with a buffet style food. Loved that the water cooler had orange slices nice touch. Breakfast is great and is a FULL buffet sytle breakfast. I did not have my pet with me because I was on business, but I saw others with pets. I will be back.</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r47461202-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>47461202</t>
+  </si>
+  <si>
+    <t>10/21/2009</t>
+  </si>
+  <si>
+    <t>Friendly Hotel</t>
+  </si>
+  <si>
+    <t>This is my forth time to stay at this property.  Although a little further from areas I visited, I prefer this location.  It's a short drive to the interstates and to the beaches.  The reception staff was very friendly and helpful.  I was amazed one staff member recalled me from a previous visit two years earlier.  The rooms were carpeted recently.  Our housekeeper was fantastic.  The two bedroom suite is a very good value.  My only complaint about the room is the climate control system is noisy.  While the room was clean, the common areas in the buildings were not kept to the same standard.  The landscaping was kept up well though.The breakfast was standard.  We utilized the outdoor grill at the Gatehouse to cook and were able eat our supper outside one evening.  Although the hotel appears to be utilized primarily by individuals on business, I recommend it to people who want to look farther afield for better prices on accommodations.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>This is my forth time to stay at this property.  Although a little further from areas I visited, I prefer this location.  It's a short drive to the interstates and to the beaches.  The reception staff was very friendly and helpful.  I was amazed one staff member recalled me from a previous visit two years earlier.  The rooms were carpeted recently.  Our housekeeper was fantastic.  The two bedroom suite is a very good value.  My only complaint about the room is the climate control system is noisy.  While the room was clean, the common areas in the buildings were not kept to the same standard.  The landscaping was kept up well though.The breakfast was standard.  We utilized the outdoor grill at the Gatehouse to cook and were able eat our supper outside one evening.  Although the hotel appears to be utilized primarily by individuals on business, I recommend it to people who want to look farther afield for better prices on accommodations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r26398963-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>26398963</t>
+  </si>
+  <si>
+    <t>03/18/2009</t>
+  </si>
+  <si>
+    <t>Customer Service Lacking</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn earlier this month while attending a convention and were initially quite pleased. The facility is large, new and quite clean overall. 
+When arriving in our room, we were happy with the layout... two bedrooms with queen beds AND two bathrooms, along with a small kitchen area complete with microwave, refrigerator and dishwasher. 
+However, there were LARGE stains right inside the front door on the very new carpet which apparently had not been cleaned. One toilet had a substantial leak and standing water in the bathroom which housekeeping was very slow to address. 
+However, our biggest beef was with the food service. The book in our room stated that breakfast on the weekends ended at 10am... yet when we arrived shortly after 9:30 we were told that service had ended and there was no more food to be had. We explained that our book said 10:00AM and was told "there are still some old books up in the rooms." 
+Not good enough.. and what was worse were the families with small children who were clearly counting on breakfast who were also turned away. They also had "old books" in their rooms with the old hours.
+Upon complaining to the front desk, we were, yet again, given the old book explanation with vague statements about new policies by management which reduced food service hours. The impression that we had was that the hotel was making cost...We stayed at the Residence Inn earlier this month while attending a convention and were initially quite pleased. The facility is large, new and quite clean overall. When arriving in our room, we were happy with the layout... two bedrooms with queen beds AND two bathrooms, along with a small kitchen area complete with microwave, refrigerator and dishwasher. However, there were LARGE stains right inside the front door on the very new carpet which apparently had not been cleaned. One toilet had a substantial leak and standing water in the bathroom which housekeeping was very slow to address. However, our biggest beef was with the food service. The book in our room stated that breakfast on the weekends ended at 10am... yet when we arrived shortly after 9:30 we were told that service had ended and there was no more food to be had. We explained that our book said 10:00AM and was told "there are still some old books up in the rooms." Not good enough.. and what was worse were the families with small children who were clearly counting on breakfast who were also turned away. They also had "old books" in their rooms with the old hours.Upon complaining to the front desk, we were, yet again, given the old book explanation with vague statements about new policies by management which reduced food service hours. The impression that we had was that the hotel was making cost cutting efforts and chose to sacrifice food service to customers. What we didn't understand was why the hotel staff did NOT say "We're so sorry for the confusion. Yes, we do have new hours but we would be happy to send some food back with you to your room." Instead, we were told there was absolutely no food to be had. Ironically, the front desk then interceded on our behalf and had the kitchen give us a bag of bagels... which showed that the kitchen DID have food available. The "bones" of this facility are good... but the quality of the service was poor. If you want customers to come back, you've really got to give us a good reason to do so. Also.. Fair warning.. the pool was empty of water and under service.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn earlier this month while attending a convention and were initially quite pleased. The facility is large, new and quite clean overall. 
+When arriving in our room, we were happy with the layout... two bedrooms with queen beds AND two bathrooms, along with a small kitchen area complete with microwave, refrigerator and dishwasher. 
+However, there were LARGE stains right inside the front door on the very new carpet which apparently had not been cleaned. One toilet had a substantial leak and standing water in the bathroom which housekeeping was very slow to address. 
+However, our biggest beef was with the food service. The book in our room stated that breakfast on the weekends ended at 10am... yet when we arrived shortly after 9:30 we were told that service had ended and there was no more food to be had. We explained that our book said 10:00AM and was told "there are still some old books up in the rooms." 
+Not good enough.. and what was worse were the families with small children who were clearly counting on breakfast who were also turned away. They also had "old books" in their rooms with the old hours.
+Upon complaining to the front desk, we were, yet again, given the old book explanation with vague statements about new policies by management which reduced food service hours. The impression that we had was that the hotel was making cost...We stayed at the Residence Inn earlier this month while attending a convention and were initially quite pleased. The facility is large, new and quite clean overall. When arriving in our room, we were happy with the layout... two bedrooms with queen beds AND two bathrooms, along with a small kitchen area complete with microwave, refrigerator and dishwasher. However, there were LARGE stains right inside the front door on the very new carpet which apparently had not been cleaned. One toilet had a substantial leak and standing water in the bathroom which housekeeping was very slow to address. However, our biggest beef was with the food service. The book in our room stated that breakfast on the weekends ended at 10am... yet when we arrived shortly after 9:30 we were told that service had ended and there was no more food to be had. We explained that our book said 10:00AM and was told "there are still some old books up in the rooms." Not good enough.. and what was worse were the families with small children who were clearly counting on breakfast who were also turned away. They also had "old books" in their rooms with the old hours.Upon complaining to the front desk, we were, yet again, given the old book explanation with vague statements about new policies by management which reduced food service hours. The impression that we had was that the hotel was making cost cutting efforts and chose to sacrifice food service to customers. What we didn't understand was why the hotel staff did NOT say "We're so sorry for the confusion. Yes, we do have new hours but we would be happy to send some food back with you to your room." Instead, we were told there was absolutely no food to be had. Ironically, the front desk then interceded on our behalf and had the kitchen give us a bag of bagels... which showed that the kitchen DID have food available. The "bones" of this facility are good... but the quality of the service was poor. If you want customers to come back, you've really got to give us a good reason to do so. Also.. Fair warning.. the pool was empty of water and under service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r25476393-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>25476393</t>
+  </si>
+  <si>
+    <t>03/02/2009</t>
+  </si>
+  <si>
+    <t>So much better than expected!</t>
+  </si>
+  <si>
+    <t>What a great hotel for the price!  $49 for this awesome hotel using priceline.  Rooms are big and awesome with a great flat screen television.  Front Desk was very nice and they serve complimentary breakfast, but we didn't eat.  Okay location, but I assume this place is mostly used by business travelers.  We used it for a Valentine's night getaway.  Beautiful rooms! Don't hesitate to stay here!</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r21006013-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>21006013</t>
+  </si>
+  <si>
+    <t>10/19/2008</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>Well i like to share my comments regarding my stay at the Residence Inn Cypress Los Alamitos.  I must say when checking into the hotel it was fast easy and friendly. The rooms were very nice and clean. And the room service was tremendous house Keeping Great. The pool area and the basket ball area was a great get away for the kids. And now lets talk about the Breakfast it was excellent and so were the kitchen staff.  I must say our stay was for 4 days and when it came to doing laundry, the laundry room was clean and the washing machines dispensed the soap i did not have to bring my own, The machines worked great.   Well back to the room the kitchen  were fully supplied with pots, pans, dishes spoons, forks, glasses dishwasher, ect..... And another thing we stood at several hotel in the Disneyland area we had to pay Anaheim tax 15 percent for the up keep of Anaheim. Surprise surprise!!!!  and also had to pay for parking witch was ridiculous.  And at the Residence Inn Cypress Los Alamitos you don't pay for parking nor tax for the city upkeep. just normal taxes.  This hotel was great location not far from Disney Land and Knotts Berry Farm . we enjoyed out stay.                                  WILL BE BACK!!!!!!!!!!!!!!!!!!!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>Well i like to share my comments regarding my stay at the Residence Inn Cypress Los Alamitos.  I must say when checking into the hotel it was fast easy and friendly. The rooms were very nice and clean. And the room service was tremendous house Keeping Great. The pool area and the basket ball area was a great get away for the kids. And now lets talk about the Breakfast it was excellent and so were the kitchen staff.  I must say our stay was for 4 days and when it came to doing laundry, the laundry room was clean and the washing machines dispensed the soap i did not have to bring my own, The machines worked great.   Well back to the room the kitchen  were fully supplied with pots, pans, dishes spoons, forks, glasses dishwasher, ect..... And another thing we stood at several hotel in the Disneyland area we had to pay Anaheim tax 15 percent for the up keep of Anaheim. Surprise surprise!!!!  and also had to pay for parking witch was ridiculous.  And at the Residence Inn Cypress Los Alamitos you don't pay for parking nor tax for the city upkeep. just normal taxes.  This hotel was great location not far from Disney Land and Knotts Berry Farm . we enjoyed out stay.                                  WILL BE BACK!!!!!!!!!!!!!!!!!!!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r17672103-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>17672103</t>
+  </si>
+  <si>
+    <t>07/08/2008</t>
+  </si>
+  <si>
+    <t>Residence Inn in Los Alamitos, CA - Terrific Property</t>
+  </si>
+  <si>
+    <t>Very nice place - new property. The manager told me that this hotel is a "generation 6" property meaning it had the latest design, amenities and services.Breakfast and a light dinner is served at no charge. There was a small but well stocked section with a assortment of grocery, soda/beer, snacks, ice cream, etc. at reasonable prices. Security was good - entrance to all doors except the lobby required the room key.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r16946344-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>16946344</t>
+  </si>
+  <si>
+    <t>06/15/2008</t>
+  </si>
+  <si>
+    <t>Fantastic HOtel</t>
+  </si>
+  <si>
+    <t>This hotel is a 3 star as far as the room and buildings, but the staff and amenities are 5 star. We spent a week there with grandkids, and were treated extremely well by everyone. We will definitely return.</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r12786126-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>12786126</t>
+  </si>
+  <si>
+    <t>01/19/2008</t>
+  </si>
+  <si>
+    <t>Just what a Marriott should be.</t>
+  </si>
+  <si>
+    <t>We recently returned from a Disneyland trip.  We prefer to stay at Marriott Hotels and needed a room that would hold 5 people.  We booked a 2 bedroom suite at this Residence Inn.  We visit the Orange County area at least 2-3 times a year and have our ususal places we stay, but because there were more of us this trip, we needed larger accommodations.
+This was perfect!  The hotel is a newer property located in a "Business Park" area.  The neighborhood is good, the front desk staff were very friendly and it was't overly crowded.  Best of all, was the location.  It is only a short drive to Disneyland and Knott's Berry Farm, and a short drive to the Beaches.
+The morning breakfast was better than what you get at most other Residence Inn's.  There was typically, Waffles, Eggs every morning with Bacon or Sausage and they would also rotate in Pancakes or French Toast.  Also had Oatmeal, cereal, fruit, bagels, yogurt and toast.  They also have coffee in the lobby available day or night along with free newspapers.  Personally, I cannot get a liking for this new brand of coffee they are serving.  Very bitter, but I guess I'm just a Starbucks Snob.  
+During the week, they serve "Dinner" in the Lobby.  We went down one night to check it out.  They had Chili Dogs and Chips.  Dogs were very tasty.  Not bad at all for free!
+The...We recently returned from a Disneyland trip.  We prefer to stay at Marriott Hotels and needed a room that would hold 5 people.  We booked a 2 bedroom suite at this Residence Inn.  We visit the Orange County area at least 2-3 times a year and have our ususal places we stay, but because there were more of us this trip, we needed larger accommodations.This was perfect!  The hotel is a newer property located in a "Business Park" area.  The neighborhood is good, the front desk staff were very friendly and it was't overly crowded.  Best of all, was the location.  It is only a short drive to Disneyland and Knott's Berry Farm, and a short drive to the Beaches.The morning breakfast was better than what you get at most other Residence Inn's.  There was typically, Waffles, Eggs every morning with Bacon or Sausage and they would also rotate in Pancakes or French Toast.  Also had Oatmeal, cereal, fruit, bagels, yogurt and toast.  They also have coffee in the lobby available day or night along with free newspapers.  Personally, I cannot get a liking for this new brand of coffee they are serving.  Very bitter, but I guess I'm just a Starbucks Snob.  During the week, they serve "Dinner" in the Lobby.  We went down one night to check it out.  They had Chili Dogs and Chips.  Dogs were very tasty.  Not bad at all for free!The room was fairly quiet, only issue was that our room was at the end of the hall and the door to go in and out of the building was next to our bedroom and you could hear everyone come in and out.  So as long as your not trying to go to sleep at 8:30pm, most of the walk in traffic died out about 10:30pm so we slept good.  Beds were comfortable and the kids did not complain about the sofa sleeper.Overall, we were very satisfied with this hotel and would definately stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>We recently returned from a Disneyland trip.  We prefer to stay at Marriott Hotels and needed a room that would hold 5 people.  We booked a 2 bedroom suite at this Residence Inn.  We visit the Orange County area at least 2-3 times a year and have our ususal places we stay, but because there were more of us this trip, we needed larger accommodations.
+This was perfect!  The hotel is a newer property located in a "Business Park" area.  The neighborhood is good, the front desk staff were very friendly and it was't overly crowded.  Best of all, was the location.  It is only a short drive to Disneyland and Knott's Berry Farm, and a short drive to the Beaches.
+The morning breakfast was better than what you get at most other Residence Inn's.  There was typically, Waffles, Eggs every morning with Bacon or Sausage and they would also rotate in Pancakes or French Toast.  Also had Oatmeal, cereal, fruit, bagels, yogurt and toast.  They also have coffee in the lobby available day or night along with free newspapers.  Personally, I cannot get a liking for this new brand of coffee they are serving.  Very bitter, but I guess I'm just a Starbucks Snob.  
+During the week, they serve "Dinner" in the Lobby.  We went down one night to check it out.  They had Chili Dogs and Chips.  Dogs were very tasty.  Not bad at all for free!
+The...We recently returned from a Disneyland trip.  We prefer to stay at Marriott Hotels and needed a room that would hold 5 people.  We booked a 2 bedroom suite at this Residence Inn.  We visit the Orange County area at least 2-3 times a year and have our ususal places we stay, but because there were more of us this trip, we needed larger accommodations.This was perfect!  The hotel is a newer property located in a "Business Park" area.  The neighborhood is good, the front desk staff were very friendly and it was't overly crowded.  Best of all, was the location.  It is only a short drive to Disneyland and Knott's Berry Farm, and a short drive to the Beaches.The morning breakfast was better than what you get at most other Residence Inn's.  There was typically, Waffles, Eggs every morning with Bacon or Sausage and they would also rotate in Pancakes or French Toast.  Also had Oatmeal, cereal, fruit, bagels, yogurt and toast.  They also have coffee in the lobby available day or night along with free newspapers.  Personally, I cannot get a liking for this new brand of coffee they are serving.  Very bitter, but I guess I'm just a Starbucks Snob.  During the week, they serve "Dinner" in the Lobby.  We went down one night to check it out.  They had Chili Dogs and Chips.  Dogs were very tasty.  Not bad at all for free!The room was fairly quiet, only issue was that our room was at the end of the hall and the door to go in and out of the building was next to our bedroom and you could hear everyone come in and out.  So as long as your not trying to go to sleep at 8:30pm, most of the walk in traffic died out about 10:30pm so we slept good.  Beds were comfortable and the kids did not complain about the sofa sleeper.Overall, we were very satisfied with this hotel and would definately stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r7757725-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>7757725</t>
+  </si>
+  <si>
+    <t>06/03/2007</t>
+  </si>
+  <si>
+    <t>May 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r7283616-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>7283616</t>
+  </si>
+  <si>
+    <t>04/04/2007</t>
+  </si>
+  <si>
+    <t>August 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r6898891-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>6898891</t>
+  </si>
+  <si>
+    <t>02/28/2007</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r4781827-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>4781827</t>
+  </si>
+  <si>
+    <t>03/29/2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r3736040-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>3736040</t>
+  </si>
+  <si>
+    <t>08/03/2005</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r1736752-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
+  </si>
+  <si>
+    <t>1736752</t>
+  </si>
+  <si>
+    <t>03/21/2004</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2553,5967 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" t="s">
+        <v>126</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>137</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" t="s">
+        <v>149</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>162</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" t="s">
+        <v>172</v>
+      </c>
+      <c r="L19" t="s">
+        <v>173</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>174</v>
+      </c>
+      <c r="O19" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>181</v>
+      </c>
+      <c r="O20" t="s">
+        <v>84</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>182</v>
+      </c>
+      <c r="X20" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" t="s">
+        <v>189</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>190</v>
+      </c>
+      <c r="O21" t="s">
+        <v>84</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>182</v>
+      </c>
+      <c r="X21" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>193</v>
+      </c>
+      <c r="J22" t="s">
+        <v>194</v>
+      </c>
+      <c r="K22" t="s">
+        <v>195</v>
+      </c>
+      <c r="L22" t="s">
+        <v>196</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>197</v>
+      </c>
+      <c r="X22" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" t="s">
+        <v>204</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>150</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>197</v>
+      </c>
+      <c r="X23" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" t="s">
+        <v>208</v>
+      </c>
+      <c r="K24" t="s">
+        <v>209</v>
+      </c>
+      <c r="L24" t="s">
+        <v>210</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>211</v>
+      </c>
+      <c r="O24" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J25" t="s">
+        <v>215</v>
+      </c>
+      <c r="K25" t="s">
+        <v>216</v>
+      </c>
+      <c r="L25" t="s">
+        <v>217</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>218</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>220</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>221</v>
+      </c>
+      <c r="J26" t="s">
+        <v>222</v>
+      </c>
+      <c r="K26" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s">
+        <v>224</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>225</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>226</v>
+      </c>
+      <c r="X26" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>230</v>
+      </c>
+      <c r="J27" t="s">
+        <v>231</v>
+      </c>
+      <c r="K27" t="s">
+        <v>232</v>
+      </c>
+      <c r="L27" t="s">
+        <v>233</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>234</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>235</v>
+      </c>
+      <c r="X27" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>239</v>
+      </c>
+      <c r="J28" t="s">
+        <v>240</v>
+      </c>
+      <c r="K28" t="s">
+        <v>241</v>
+      </c>
+      <c r="L28" t="s">
+        <v>242</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>243</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>235</v>
+      </c>
+      <c r="X28" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>245</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>246</v>
+      </c>
+      <c r="J29" t="s">
+        <v>247</v>
+      </c>
+      <c r="K29" t="s">
+        <v>248</v>
+      </c>
+      <c r="L29" t="s">
+        <v>249</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>250</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>252</v>
+      </c>
+      <c r="J30" t="s">
+        <v>253</v>
+      </c>
+      <c r="K30" t="s">
+        <v>254</v>
+      </c>
+      <c r="L30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>250</v>
+      </c>
+      <c r="O30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>256</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>257</v>
+      </c>
+      <c r="J31" t="s">
+        <v>258</v>
+      </c>
+      <c r="K31" t="s">
+        <v>259</v>
+      </c>
+      <c r="L31" t="s">
+        <v>260</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>261</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>262</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>263</v>
+      </c>
+      <c r="J32" t="s">
+        <v>264</v>
+      </c>
+      <c r="K32" t="s">
+        <v>265</v>
+      </c>
+      <c r="L32" t="s">
+        <v>266</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>267</v>
+      </c>
+      <c r="O32" t="s">
+        <v>101</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>268</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>269</v>
+      </c>
+      <c r="J33" t="s">
+        <v>270</v>
+      </c>
+      <c r="K33" t="s">
+        <v>271</v>
+      </c>
+      <c r="L33" t="s">
+        <v>272</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>267</v>
+      </c>
+      <c r="O33" t="s">
+        <v>101</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>273</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>274</v>
+      </c>
+      <c r="J34" t="s">
+        <v>275</v>
+      </c>
+      <c r="K34" t="s">
+        <v>276</v>
+      </c>
+      <c r="L34" t="s">
+        <v>277</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>278</v>
+      </c>
+      <c r="O34" t="s">
+        <v>101</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>279</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>280</v>
+      </c>
+      <c r="J35" t="s">
+        <v>281</v>
+      </c>
+      <c r="K35" t="s">
+        <v>282</v>
+      </c>
+      <c r="L35" t="s">
+        <v>283</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>278</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>284</v>
+      </c>
+      <c r="X35" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>287</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>288</v>
+      </c>
+      <c r="J36" t="s">
+        <v>289</v>
+      </c>
+      <c r="K36" t="s">
+        <v>290</v>
+      </c>
+      <c r="L36" t="s">
+        <v>291</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>292</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>294</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>295</v>
+      </c>
+      <c r="J37" t="s">
+        <v>296</v>
+      </c>
+      <c r="K37" t="s">
+        <v>297</v>
+      </c>
+      <c r="L37" t="s">
+        <v>298</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>299</v>
+      </c>
+      <c r="O37" t="s">
+        <v>101</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>301</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>302</v>
+      </c>
+      <c r="J38" t="s">
+        <v>303</v>
+      </c>
+      <c r="K38" t="s">
+        <v>304</v>
+      </c>
+      <c r="L38" t="s">
+        <v>305</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>306</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>307</v>
+      </c>
+      <c r="J39" t="s">
+        <v>308</v>
+      </c>
+      <c r="K39" t="s">
+        <v>309</v>
+      </c>
+      <c r="L39" t="s">
+        <v>310</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>311</v>
+      </c>
+      <c r="O39" t="s">
+        <v>126</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>313</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>314</v>
+      </c>
+      <c r="J40" t="s">
+        <v>315</v>
+      </c>
+      <c r="K40" t="s">
+        <v>316</v>
+      </c>
+      <c r="L40" t="s">
+        <v>317</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>318</v>
+      </c>
+      <c r="O40" t="s">
+        <v>101</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>319</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>320</v>
+      </c>
+      <c r="J41" t="s">
+        <v>321</v>
+      </c>
+      <c r="K41" t="s">
+        <v>322</v>
+      </c>
+      <c r="L41" t="s">
+        <v>323</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>324</v>
+      </c>
+      <c r="O41" t="s">
+        <v>101</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>325</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J42" t="s">
+        <v>327</v>
+      </c>
+      <c r="K42" t="s">
+        <v>328</v>
+      </c>
+      <c r="L42" t="s">
+        <v>329</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>324</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>330</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>331</v>
+      </c>
+      <c r="J43" t="s">
+        <v>332</v>
+      </c>
+      <c r="K43" t="s">
+        <v>333</v>
+      </c>
+      <c r="L43" t="s">
+        <v>334</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>234</v>
+      </c>
+      <c r="O43" t="s">
+        <v>335</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>337</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>338</v>
+      </c>
+      <c r="J44" t="s">
+        <v>339</v>
+      </c>
+      <c r="K44" t="s">
+        <v>340</v>
+      </c>
+      <c r="L44" t="s">
+        <v>341</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>234</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>342</v>
+      </c>
+      <c r="X44" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>345</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>346</v>
+      </c>
+      <c r="J45" t="s">
+        <v>347</v>
+      </c>
+      <c r="K45" t="s">
+        <v>348</v>
+      </c>
+      <c r="L45" t="s">
+        <v>349</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>350</v>
+      </c>
+      <c r="O45" t="s">
+        <v>101</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>352</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>353</v>
+      </c>
+      <c r="J46" t="s">
+        <v>354</v>
+      </c>
+      <c r="K46" t="s">
+        <v>355</v>
+      </c>
+      <c r="L46" t="s">
+        <v>356</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>357</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>358</v>
+      </c>
+      <c r="J47" t="s">
+        <v>359</v>
+      </c>
+      <c r="K47" t="s">
+        <v>360</v>
+      </c>
+      <c r="L47" t="s">
+        <v>361</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>362</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>363</v>
+      </c>
+      <c r="X47" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>366</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>367</v>
+      </c>
+      <c r="J48" t="s">
+        <v>368</v>
+      </c>
+      <c r="K48" t="s">
+        <v>369</v>
+      </c>
+      <c r="L48" t="s">
+        <v>370</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>362</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>363</v>
+      </c>
+      <c r="X48" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>372</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>373</v>
+      </c>
+      <c r="J49" t="s">
+        <v>374</v>
+      </c>
+      <c r="K49" t="s">
+        <v>375</v>
+      </c>
+      <c r="L49" t="s">
+        <v>376</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>350</v>
+      </c>
+      <c r="O49" t="s">
+        <v>126</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>377</v>
+      </c>
+      <c r="X49" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>380</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>381</v>
+      </c>
+      <c r="J50" t="s">
+        <v>382</v>
+      </c>
+      <c r="K50" t="s">
+        <v>383</v>
+      </c>
+      <c r="L50" t="s">
+        <v>384</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>318</v>
+      </c>
+      <c r="O50" t="s">
+        <v>101</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>385</v>
+      </c>
+      <c r="X50" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>388</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>389</v>
+      </c>
+      <c r="J51" t="s">
+        <v>390</v>
+      </c>
+      <c r="K51" t="s">
+        <v>391</v>
+      </c>
+      <c r="L51" t="s">
+        <v>392</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>393</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>385</v>
+      </c>
+      <c r="X51" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>395</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>396</v>
+      </c>
+      <c r="J52" t="s">
+        <v>397</v>
+      </c>
+      <c r="K52" t="s">
+        <v>398</v>
+      </c>
+      <c r="L52" t="s">
+        <v>399</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>393</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>400</v>
+      </c>
+      <c r="X52" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>403</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>404</v>
+      </c>
+      <c r="J53" t="s">
+        <v>405</v>
+      </c>
+      <c r="K53" t="s">
+        <v>406</v>
+      </c>
+      <c r="L53" t="s">
+        <v>407</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>408</v>
+      </c>
+      <c r="O53" t="s">
+        <v>126</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>409</v>
+      </c>
+      <c r="X53" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>412</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>413</v>
+      </c>
+      <c r="J54" t="s">
+        <v>414</v>
+      </c>
+      <c r="K54" t="s">
+        <v>415</v>
+      </c>
+      <c r="L54" t="s">
+        <v>416</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>417</v>
+      </c>
+      <c r="O54" t="s">
+        <v>84</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>409</v>
+      </c>
+      <c r="X54" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>419</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>420</v>
+      </c>
+      <c r="J55" t="s">
+        <v>421</v>
+      </c>
+      <c r="K55" t="s">
+        <v>422</v>
+      </c>
+      <c r="L55" t="s">
+        <v>423</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>424</v>
+      </c>
+      <c r="O55" t="s">
+        <v>101</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>425</v>
+      </c>
+      <c r="X55" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>428</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>429</v>
+      </c>
+      <c r="J56" t="s">
+        <v>430</v>
+      </c>
+      <c r="K56" t="s">
+        <v>431</v>
+      </c>
+      <c r="L56" t="s">
+        <v>432</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>433</v>
+      </c>
+      <c r="O56" t="s">
+        <v>101</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>434</v>
+      </c>
+      <c r="X56" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>437</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>438</v>
+      </c>
+      <c r="J57" t="s">
+        <v>430</v>
+      </c>
+      <c r="K57" t="s">
+        <v>439</v>
+      </c>
+      <c r="L57" t="s">
+        <v>440</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>433</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>434</v>
+      </c>
+      <c r="X57" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>442</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>443</v>
+      </c>
+      <c r="J58" t="s">
+        <v>444</v>
+      </c>
+      <c r="K58" t="s">
+        <v>445</v>
+      </c>
+      <c r="L58" t="s">
+        <v>446</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>434</v>
+      </c>
+      <c r="X58" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>448</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>449</v>
+      </c>
+      <c r="J59" t="s">
+        <v>450</v>
+      </c>
+      <c r="K59" t="s">
+        <v>451</v>
+      </c>
+      <c r="L59" t="s">
+        <v>452</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>453</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>454</v>
+      </c>
+      <c r="X59" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>457</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>458</v>
+      </c>
+      <c r="J60" t="s">
+        <v>459</v>
+      </c>
+      <c r="K60" t="s">
+        <v>460</v>
+      </c>
+      <c r="L60" t="s">
+        <v>461</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>453</v>
+      </c>
+      <c r="O60" t="s">
+        <v>101</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>454</v>
+      </c>
+      <c r="X60" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>463</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>464</v>
+      </c>
+      <c r="J61" t="s">
+        <v>465</v>
+      </c>
+      <c r="K61" t="s">
+        <v>466</v>
+      </c>
+      <c r="L61" t="s">
+        <v>467</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>468</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>469</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>470</v>
+      </c>
+      <c r="J62" t="s">
+        <v>471</v>
+      </c>
+      <c r="K62" t="s">
+        <v>472</v>
+      </c>
+      <c r="L62" t="s">
+        <v>473</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>474</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>475</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>476</v>
+      </c>
+      <c r="J63" t="s">
+        <v>471</v>
+      </c>
+      <c r="K63" t="s">
+        <v>477</v>
+      </c>
+      <c r="L63" t="s">
+        <v>478</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>468</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>479</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>480</v>
+      </c>
+      <c r="J64" t="s">
+        <v>481</v>
+      </c>
+      <c r="K64" t="s">
+        <v>482</v>
+      </c>
+      <c r="L64" t="s">
+        <v>483</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>484</v>
+      </c>
+      <c r="O64" t="s">
+        <v>84</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>486</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>487</v>
+      </c>
+      <c r="J65" t="s">
+        <v>488</v>
+      </c>
+      <c r="K65" t="s">
+        <v>489</v>
+      </c>
+      <c r="L65" t="s">
+        <v>490</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>491</v>
+      </c>
+      <c r="O65" t="s">
+        <v>84</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>493</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>494</v>
+      </c>
+      <c r="J66" t="s">
+        <v>495</v>
+      </c>
+      <c r="K66" t="s">
+        <v>496</v>
+      </c>
+      <c r="L66" t="s">
+        <v>497</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>491</v>
+      </c>
+      <c r="O66" t="s">
+        <v>101</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>498</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>499</v>
+      </c>
+      <c r="J67" t="s">
+        <v>500</v>
+      </c>
+      <c r="K67" t="s">
+        <v>501</v>
+      </c>
+      <c r="L67" t="s">
+        <v>502</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>503</v>
+      </c>
+      <c r="O67" t="s">
+        <v>101</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>505</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>506</v>
+      </c>
+      <c r="J68" t="s">
+        <v>507</v>
+      </c>
+      <c r="K68" t="s">
+        <v>508</v>
+      </c>
+      <c r="L68" t="s">
+        <v>509</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>510</v>
+      </c>
+      <c r="O68" t="s">
+        <v>101</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>511</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>512</v>
+      </c>
+      <c r="J69" t="s">
+        <v>513</v>
+      </c>
+      <c r="K69" t="s">
+        <v>514</v>
+      </c>
+      <c r="L69" t="s">
+        <v>515</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>510</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>517</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>518</v>
+      </c>
+      <c r="J70" t="s">
+        <v>519</v>
+      </c>
+      <c r="K70" t="s">
+        <v>520</v>
+      </c>
+      <c r="L70" t="s">
+        <v>521</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>510</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>522</v>
+      </c>
+      <c r="X70" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>525</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>526</v>
+      </c>
+      <c r="J71" t="s">
+        <v>527</v>
+      </c>
+      <c r="K71" t="s">
+        <v>528</v>
+      </c>
+      <c r="L71" t="s">
+        <v>529</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>530</v>
+      </c>
+      <c r="O71" t="s">
+        <v>335</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>531</v>
+      </c>
+      <c r="X71" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>534</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>535</v>
+      </c>
+      <c r="J72" t="s">
+        <v>536</v>
+      </c>
+      <c r="K72" t="s">
+        <v>537</v>
+      </c>
+      <c r="L72" t="s">
+        <v>538</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>539</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>540</v>
+      </c>
+      <c r="J73" t="s">
+        <v>541</v>
+      </c>
+      <c r="K73" t="s">
+        <v>542</v>
+      </c>
+      <c r="L73" t="s">
+        <v>543</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>544</v>
+      </c>
+      <c r="O73" t="s">
+        <v>101</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>545</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>546</v>
+      </c>
+      <c r="J74" t="s">
+        <v>547</v>
+      </c>
+      <c r="K74" t="s">
+        <v>548</v>
+      </c>
+      <c r="L74" t="s">
+        <v>549</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>550</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>552</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>553</v>
+      </c>
+      <c r="J75" t="s">
+        <v>554</v>
+      </c>
+      <c r="K75" t="s">
+        <v>555</v>
+      </c>
+      <c r="L75" t="s">
+        <v>556</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>557</v>
+      </c>
+      <c r="O75" t="s">
+        <v>101</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>559</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>560</v>
+      </c>
+      <c r="J76" t="s">
+        <v>561</v>
+      </c>
+      <c r="K76" t="s">
+        <v>562</v>
+      </c>
+      <c r="L76" t="s">
+        <v>563</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>564</v>
+      </c>
+      <c r="O76" t="s">
+        <v>101</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>565</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>566</v>
+      </c>
+      <c r="J77" t="s">
+        <v>567</v>
+      </c>
+      <c r="K77" t="s">
+        <v>568</v>
+      </c>
+      <c r="L77" t="s">
+        <v>569</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>570</v>
+      </c>
+      <c r="O77" t="s">
+        <v>84</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>572</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>573</v>
+      </c>
+      <c r="J78" t="s">
+        <v>574</v>
+      </c>
+      <c r="K78" t="s">
+        <v>575</v>
+      </c>
+      <c r="L78" t="s">
+        <v>576</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>570</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>577</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>578</v>
+      </c>
+      <c r="J79" t="s">
+        <v>579</v>
+      </c>
+      <c r="K79" t="s">
+        <v>580</v>
+      </c>
+      <c r="L79" t="s">
+        <v>581</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>582</v>
+      </c>
+      <c r="O79" t="s">
+        <v>101</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>584</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>585</v>
+      </c>
+      <c r="J80" t="s">
+        <v>586</v>
+      </c>
+      <c r="K80" t="s">
+        <v>587</v>
+      </c>
+      <c r="L80" t="s">
+        <v>588</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>589</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>590</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>591</v>
+      </c>
+      <c r="J81" t="s">
+        <v>592</v>
+      </c>
+      <c r="K81" t="s">
+        <v>593</v>
+      </c>
+      <c r="L81" t="s">
+        <v>594</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>595</v>
+      </c>
+      <c r="O81" t="s">
+        <v>101</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>596</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>597</v>
+      </c>
+      <c r="J82" t="s">
+        <v>598</v>
+      </c>
+      <c r="K82" t="s">
+        <v>599</v>
+      </c>
+      <c r="L82" t="s">
+        <v>600</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>601</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>603</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>604</v>
+      </c>
+      <c r="J83" t="s">
+        <v>605</v>
+      </c>
+      <c r="K83" t="s">
+        <v>606</v>
+      </c>
+      <c r="L83" t="s">
+        <v>607</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>608</v>
+      </c>
+      <c r="O83" t="s">
+        <v>101</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>610</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>611</v>
+      </c>
+      <c r="J84" t="s">
+        <v>612</v>
+      </c>
+      <c r="K84" t="s">
+        <v>613</v>
+      </c>
+      <c r="L84" t="s">
+        <v>614</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>615</v>
+      </c>
+      <c r="O84" t="s">
+        <v>84</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>616</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>617</v>
+      </c>
+      <c r="J85" t="s">
+        <v>618</v>
+      </c>
+      <c r="K85" t="s">
+        <v>619</v>
+      </c>
+      <c r="L85" t="s">
+        <v>620</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>621</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>623</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>624</v>
+      </c>
+      <c r="J86" t="s">
+        <v>625</v>
+      </c>
+      <c r="K86" t="s">
+        <v>626</v>
+      </c>
+      <c r="L86" t="s">
+        <v>627</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>628</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>629</v>
+      </c>
+      <c r="J87" t="s">
+        <v>630</v>
+      </c>
+      <c r="K87" t="s">
+        <v>631</v>
+      </c>
+      <c r="L87" t="s">
+        <v>632</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>633</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>634</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>635</v>
+      </c>
+      <c r="J88" t="s">
+        <v>636</v>
+      </c>
+      <c r="K88" t="s">
+        <v>637</v>
+      </c>
+      <c r="L88" t="s">
+        <v>638</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>639</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>641</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>642</v>
+      </c>
+      <c r="J89" t="s">
+        <v>643</v>
+      </c>
+      <c r="K89" t="s"/>
+      <c r="L89" t="s"/>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>644</v>
+      </c>
+      <c r="O89" t="s">
+        <v>101</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>645</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>646</v>
+      </c>
+      <c r="J90" t="s">
+        <v>647</v>
+      </c>
+      <c r="K90" t="s"/>
+      <c r="L90" t="s"/>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>648</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>649</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>650</v>
+      </c>
+      <c r="J91" t="s">
+        <v>651</v>
+      </c>
+      <c r="K91" t="s"/>
+      <c r="L91" t="s">
+        <v>652</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>654</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>655</v>
+      </c>
+      <c r="J92" t="s">
+        <v>656</v>
+      </c>
+      <c r="K92" t="s"/>
+      <c r="L92" t="s">
+        <v>652</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>657</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>658</v>
+      </c>
+      <c r="J93" t="s">
+        <v>659</v>
+      </c>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s"/>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>660</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>661</v>
+      </c>
+      <c r="J94" t="s">
+        <v>662</v>
+      </c>
+      <c r="K94" t="s"/>
+      <c r="L94" t="s"/>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_641.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_641.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="755">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>wardgarner</t>
+  </si>
+  <si>
     <t>07/08/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>We stay at Residence Inns often as we travel with a teenager and need two bedrooms. This was one of the best. Clean and the furnishings were all comfortable. The front desk staff were terrific. We arrived at 4PM and rooms were not ready due to some issues with housekeeping. We waited about 30 minutes and without asking, the front desk team changed our rate to something slightly lower than what we had booked. We didn't ask for this, they did it on their own. Clearly the staff have been trained to make independent decisions. The breakfast was perfectly fine. We would definitely recommend this hotel. It is about a 20 minute drive to Disneyland. Plenty of restaurants nearby as well as a Vons grocery store.More</t>
   </si>
   <si>
+    <t>cloud-nine4zero</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r546445943-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>justtrustmeonthis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r541116762-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>Apparently freshly remodeled. Squeaky clean. I loved the super toilet, great lamps/lighting, plenty of outlets,  light switches, big, clean fridge, good tv with lots of channels, very comfortable bed and pillows, best desk chair (I’m going to get one of those!), and plenty of space. Problem-free WiFi. The staff were friendly and professional. It was quiet, although very full judging from the parking lot. We were there on horse business, so it was extremely convenient to Los Al track. I really enjoyed staying here. More</t>
   </si>
   <si>
+    <t>gwwyjjliu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r516479890-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t>Centrally located halfway between Orange County and Downtown LA, the Residence Inn is a good place to explore all of metro LA, but you'll need to drive everywhere.  Parking is free and plentiful unless you arrive late at night.  The 2 bedroom/2 bath suites are spacious, with a fold-out sofa bed in the living room as well, so 6 people can be accomodated.  The fold-out sofa bed was uncomfortable to sleep in, so our 5th person just slept on the cushions which turned out to be just fine.  The 2 queen beds in each of the bedrooms was too soft for my tastes as well.  Otherwise, with 3 TV's, free WiFi, and 2 generous baths and a full kitchen with utensils, cookware, and dishes, it accomodates a large active family.  On the grounds is a basketball court and a nice outdoor swimming pool.  Basketballs are available to check out from the friendly front desk staff.  A full breakfast is served with a rotating menu of eggs, sausage/bacon, and an assortment of cereal, rolls, yogurt and fruit.  Plenty of seating in a pleasant atrium.  Prompt and friendly maid service cleaned up well after you.  We enjoyed our stay here which was over a week long.More</t>
   </si>
   <si>
+    <t>D-KHonolulu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r506280892-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -276,6 +291,9 @@
     <t>Enjoyed our 4 night visit here.  Friendly staff from reception to housekeeping. Our clean, spacious &amp; modern room included a kitchen area.  Firm bed w/good bedding.  Good bathroom design w/vanity &amp; sink separated from the shower/toilet.  Only 3 floors so we never had to wait endlessly for an elevator - we could opt for stairs and a bit of exercise instead.  A minor negative was an intermittent noise coming from the air conditioner which unfortunately seemed amplified at night.  Free internet but slow service or connectivity issues.  Complimentary breakfast buffet included a coffee station &amp; make-your-own waffles plus healthy choices:  juices, fresh fruit, yogurt &amp; oatmeal.  Hot choices varied daily but included scrambled eggs and various sausages/bacon.  Multi sports court [basketball, volleyball etc.] and outdoor pool. Plenty of free parking surrounds the hotel. Reasonable rates + very convenient base for visiting the area.  Would stay here again!More</t>
   </si>
   <si>
+    <t>AnneJericho</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r495430785-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -301,6 +319,9 @@
   </si>
   <si>
     <t>This used to be a great place to stay. Because wehave family in the area, this has always been our goto place to stay. When we arrived, we noticed that the place looked in need of an update. The outsideof the building looked dull as if it needed a paintjob. The rooms were fine but the buffet breakfast was more limited in food selections. The morning we are there, there was no bacon, no pancakes,No pastries-all choices that were usually found inabundance. There was limited fruit and scant yogurt.The staff remains very pleasant.More</t>
+  </si>
+  <si>
+    <t>Carl B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r482009821-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
@@ -341,6 +362,9 @@
 Melvin is a...Front Desk Team: Very Friendly.Lex is funny . Her jokes make everyone laugh.  It was delightful. Breakfast Team: Super Amazing.The breakfast is really delicious. Karen is amazing and delivers 5 star service.  Barar is upbeat.  You can literally hear her laughing as soon as you walk into the lobby.  It makes the whole hotel feel cheerful.  Erolyn is so thoughtful.  He made waffles for my family and also brought bottles of water to my kids when we were swimming at the pool.  Freddy is also a cool lady.  She makes the best sweet bread in the morning and is very positive even early in the morning. Dinner Team: Very Healthy.I heard about the Residence Inn "mom" Raquel from the Internet.  She works hard and takes care to make the food healthy.  I saw her preparing the salad once and she took care to wash every leaf and made sure the salad was fresh.  She really does feel like a mom that cares for the guests as if they are her family.  She told me that her grandpa is 95 years old and healthy because he always ate healthy food.  Angela is also sweet.  She gave my friend from the military a big cup of red wine after dinner so he could take it back to his room and relax.  Also, the Sangria and secret salad Josepah prepared is surprisingly good.Room Team: Could be Better.Melvin is a young guy who works hard with enthusiasm. He loves the hotel so much. I saw him clean the carpet outside the door, and takes out the trash when no one wants to do it. I wish I could do my job like him. Stephanie also works hard and seems to have a passion for her job.  She always treated me like family.  We talked a lot and she made my room very clean.  However; Some of the other housekeepers forgot to stock the room fully though.  One time I went out to find toilet paper and asked Isabel for one.  She looked at me suspiciously and said I needed to ask the housekeepers on my own floor.  I just went to the front desk and asked Lex.  She made a joke and made me feel better.   Room Internet: 80% good.80% of the time the Internet was good. 20% of the time it didn't really work.  I had the enhanced speed plan, but it didn't seem to make a difference.  I had to call the Internet company 2 times to get the problem solved.  I would hesitate to work from the hotel room if you have anything that needs consistently good Internet.More</t>
   </si>
   <si>
+    <t>AKo75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r463853803-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -368,6 +392,9 @@
     <t>We needed a place to stay while our home was being tented and would accept small dogs.  One thing that I noticed is their friendly service, whenever I ran into a staff member they always greeted me.The room was perfect for our needs, two adults and two small dogs.  The WiFi worked great, loved that they had HBO since one of us was always in the room,  The area around the hotel is nice, with a small dedicated area for dogs.  Location was decent.  Could walk to a couple of places to get some food, but it does seem a tiny bit isolated.  Not a problem if you have a car, there are plenty of places to eat within 5 minutes.Loved the "free" breakfast in the morning.  Rather limited in menu, but they did have hot food available.I would stay here again if I needed to stay with our dogs.More</t>
   </si>
   <si>
+    <t>tkmama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r458423172-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -392,6 +419,9 @@
     <t>This hotel is very dirty. We checked in the evening. After my shower, I reached for a towel and saw the nicely folded towel had blood stains on it! My husband unfolded the sofa bed and saw about 3 strands of what appear to be pubic hair! My daughter was already sleeping so  I decided to stay because we had already move our luggages up the 4th floor already. This is a very disappointing experience because I chose this hotel based on the other reviews and since it was recently renovated. The renovation is basically a cosmetic makeover of the extremely old and dirty rooms. Just covering up the old and dirty. The ceiling still had that old popcorn ceiling. We found a long blonde hair strand in stuck to the vanity cabinet. And an old bottle of water half finish under the sofa bed along with cracks and lots of dust. I would not recommend this hotel. Stay away.More</t>
   </si>
   <si>
+    <t>Cassandra C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r432125574-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -413,6 +443,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Pam G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r428528747-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -428,6 +461,9 @@
     <t>Celebrating my mom's 90th Birthday and needed a place close by. This Residence Inn was the perfect place with all the amenities of home. Recently renovated, the hotel felt like new.  My son and grandson were able to stay with us and we had plenty of room.  The complimentary breakfast was fantastic!  So many choices. Our grandson loved making his own Belgium waffles.  Helpful and friendly staff.  Will come back again!</t>
   </si>
   <si>
+    <t>ctieves</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r416980091-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -446,6 +482,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Ursula M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r404181541-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -467,6 +506,9 @@
     <t>I usually don't write reviews but I really wanted to thank and acknowledge the fantastic staff at Residence Inn Cypress Los Alamitos for outstanding service. I arrived earlier on Thursday morning 4 August after a 13 hour flight from Australia and was greeted by a lovely lady named Jeanette at check in. After a very long flight Jeanette was genuinely friendly, helpful, efficient and made my early morning check in a breeze. I travel a lot and it's nice when you are greeted by someone who can anticipate what a hotel guest needs straight away and can organise things seamlessly. At check out I once again was greeted by two lovely ladies who were both cheerful and efficient. Great service again.Overall it's sometimes the small things that when all added up makes your stay so much more enjoyable.Thanks.More</t>
   </si>
   <si>
+    <t>GoHawks123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r401728604-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -485,6 +527,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Danut R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r400475050-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -503,6 +548,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>nexneo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r387334625-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -521,6 +569,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Tracy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r381300491-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -539,6 +590,9 @@
     <t>We enjoyed our stay, the room was very nice, updated and quiet. Free parking and great free buffet breakfast. Only negative for us was the guy at the front desk - not very welcoming and twice we came back after a long day out with sleeping toddler in arms only to be locked out. Not ideal having to stand outside with sleeping toddler in arms waiting for our room key card to be reactivated so we could get into our room.. Two days in a row this happened, turned out this unfriendly front desk guy had twice mistakenly put our end date as the next day, but we were booked and paid for 4 nights. It was only the second time it happened when a female staff member told us and fixed the problem. Otherwise I would have rated 5 stars of not for the service. More</t>
   </si>
   <si>
+    <t>GPC2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r372449979-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -560,6 +614,9 @@
     <t>My husband and I and our chihuahua stayed here last October during a visit to Disneyland.  I love the Marriott brand and this Residence Inn did not disappoint.  It is about 8 miles from Disneyland but I'm so happy we stayed here and not closer to the park.  The drive there was very short and we also went to the Pacific Aquarium in Long Beach which was maybe 20 minutes away.  It's also close to Knottsberry Farm, a huge Krikorian movie theater in Buena Park, and South Coast Plaza in OC.  Most people on vaca don't go to Costco but in case the need arises, there is one very close by.The grounds were clean and well maintained with outdoor barbeque, pool, and basketball courts.  There was ample outdoor parking at no charge.  The included breakfast had a lot of great options for us as well.  Our room was very spacious, immaculate, quiet, well appointed and very comfortable and cool considering it reached 110 degrees outside.  Our little doggie stayed in plush comfort there while we were sweating it out at Disney and the aquarium.  We will DEFINITELY stay here again the next time we go to Disney.  We had a super comfortable stay and loved it.More</t>
   </si>
   <si>
+    <t>OCOzzie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r356344683-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -587,6 +644,9 @@
     <t>The biggest problem I had with this hotel was that none of its rooms have king size beds.  Nor two queen size beds, unless you book a two bedroom unit.  We knew this going in, but had no choice as the hotel we usually stay in was booked for the week. The kitchen is nice, but the living room area was not that spacious. There was a hide a-bed in the living room.  The bedroom had one queen bed and barely enough room to walk around to the other side of it.  It is designed for a single business traveler who doesn't have to share space.  For that specific individual, I would rate it a Very Good.  The breakfast buffet was good and the seating area around it was big enough that you didn't have to fight for a table.  The pool appeared to be nice, but the weather was coolish when we were there, so we never went in.  About ten miles west of Disneyland, so it would be good for a family if you book the two bedroom unit.  We had a little problem with getting our room cleaned in a timely manner, but the front desk was responsive to our concerns. There is a small work out room and a 24 Hour Fitness right next door, if you are a member of that club.  A few restaurants and the Los Alamitos Race Track, home of California Chrome,...The biggest problem I had with this hotel was that none of its rooms have king size beds.  Nor two queen size beds, unless you book a two bedroom unit.  We knew this going in, but had no choice as the hotel we usually stay in was booked for the week. The kitchen is nice, but the living room area was not that spacious. There was a hide a-bed in the living room.  The bedroom had one queen bed and barely enough room to walk around to the other side of it.  It is designed for a single business traveler who doesn't have to share space.  For that specific individual, I would rate it a Very Good.  The breakfast buffet was good and the seating area around it was big enough that you didn't have to fight for a table.  The pool appeared to be nice, but the weather was coolish when we were there, so we never went in.  About ten miles west of Disneyland, so it would be good for a family if you book the two bedroom unit.  We had a little problem with getting our room cleaned in a timely manner, but the front desk was responsive to our concerns. There is a small work out room and a 24 Hour Fitness right next door, if you are a member of that club.  A few restaurants and the Los Alamitos Race Track, home of California Chrome, within walking distance. Monday, Tuesday, and Wednesday nights there is a Happy Hour in the lobby.  We used this as our "dinner out" one night as we were tired from traveling and just wanted to stay put.More</t>
   </si>
   <si>
+    <t>calliesk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r353180211-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -608,6 +668,9 @@
     <t>We really liked this Residence Inn because of location of things to do in Los Alamitos &amp; Los Angeles. This hotel was really clean, good sized rooms &amp; comfortable beds. Everything else was up a normal Residence Inn quality of breakfast, nice kitchenette etc.Just a nice propertyMore</t>
   </si>
   <si>
+    <t>gemax</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r348060143-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -632,6 +695,9 @@
     <t>Spent President's Day weekend here while visiting family.  Comfortable room with a kitchenette that offers basic furnishings.  Microwave, dishwasher, two burner stove top, but no oven.  Bathroom well appointed.  Pullout couch mattress is awful.  Nice breakfast included, with cereals, bagels, muffins, waffle maker, oatmeal, and a rotating selection of hot items such as potatoes, sausage, and those nasty, rubbery, powdered eggs.  There's enough variety for several days.The hotel grounds are well cared for, including a nice pool and spa, a multi sport court, and a gas barbecue grill.More</t>
   </si>
   <si>
+    <t>Kzalya</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r340900298-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -650,6 +716,9 @@
     <t>We stayed there in December 2015. Hotel is nice, located in safe area. We liked Los Alamitos with its parks and playgrounds, closeness to Los Angeles. Nice breakfast. It has everything you need. Real Marriott chain member!More</t>
   </si>
   <si>
+    <t>Chitra S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r328038409-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -671,6 +740,9 @@
     <t>Stayed in this hotel for a month. I never felt I was staying in a hotel. It was more like a home. We stayed in a studio suite. For people like me who need a big kitchen to cook everyday, this is the best place.  Housekeeping was very nice. They used to come daily and replace towels etc. The towels and  bedspreads were replaced frequently.The hotel staff is very helpful. As we didn't have car for the first few days, they always dropped us by their shuttle to nearby places(within 3 miles). You can make use of printer as well. The wifi speed is awesome. The breakfast was good too. A lot of options to choose from scrambled eggs, yoghurt, fruits, waffles, oatmeal, corn flakes etc etc. Overall , I enjoyed my stay  here. Would love to come again.More</t>
   </si>
   <si>
+    <t>sraso</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r316293935-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -692,6 +764,9 @@
     <t>We stayed here for 9 nights.  The breakfast every morning was fantastic.  Scrambled eggs, potatoes, either ham or sausage, waffles, cereal, oatmeal, bagels, English muffins, fruit, and a "special" such as sausage biscuits, French toast, etc.  Coffee, juices.   In the lobby was an infused water...everyday a different fruit infused in ice water.  Very refreshing.  Several nights during the week they had get togethers with food and wine and beer.  The staff was very friendly.  The front desk attendants were always smiling and willing to help with directions, advice for local eating places, etc.The pool was very clean.  Towels were provided.  Wi Fi was not very strong by the pool, but otherwise it was a nice place to relax after a long day.Our room was cleaned everyday.  Fresh towels and toiletries.  No complaints.The only suggestion I have was that the we stayed in a 2 bedroom suite. The beds were comfy and lots of pillows!  The living area though was in need of some more comfortable seating.  The couch was very uncomfortable and it was the only seating in the living area.  There was no chair, just the kitchen chairs.More</t>
   </si>
   <si>
+    <t>John G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r302313367-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -719,6 +794,9 @@
     <t>There were a few bumps along the way but it pales in comparison to the beautiful 5 night stay at this lovely hotel. I want to thank the kind staff who always made us feel warm and welcome. I also want to personally thank the General Manager Lisa Lane for making sure our room was exactly what I had requested. Lisa was just amazing and goes out of her way to please the guests. Lisa, thank you for your kindness and making this stay with my son something we will never forget. The hotel is just beautiful. The rooms are a nice size, clean, furniture is lovely, beds are just so incredibly comfortable and the full, hot breakfast was just perfect before the start of a busy day. Disneyland is not far at all............just a 15 or 20 minute drive down Katella and Knott's Berry Farm was like 5 or 10 minutes away. The location is great with many restaurants and grocery stores near by. They are getting ready to renovate this hotel but even before the renovation it is just gorgeous and the colors they chose for décor just makes you smile. I'm incredibly glad I chose this particular hotel because I was not disappointed ever.........the only disappointment would have been if I had "not" stayed at this hotel. The Residence Inn in Los Alamitos is just the best in every way. Cant wait to come back. Thank you...There were a few bumps along the way but it pales in comparison to the beautiful 5 night stay at this lovely hotel. I want to thank the kind staff who always made us feel warm and welcome. I also want to personally thank the General Manager Lisa Lane for making sure our room was exactly what I had requested. Lisa was just amazing and goes out of her way to please the guests. Lisa, thank you for your kindness and making this stay with my son something we will never forget. The hotel is just beautiful. The rooms are a nice size, clean, furniture is lovely, beds are just so incredibly comfortable and the full, hot breakfast was just perfect before the start of a busy day. Disneyland is not far at all............just a 15 or 20 minute drive down Katella and Knott's Berry Farm was like 5 or 10 minutes away. The location is great with many restaurants and grocery stores near by. They are getting ready to renovate this hotel but even before the renovation it is just gorgeous and the colors they chose for décor just makes you smile. I'm incredibly glad I chose this particular hotel because I was not disappointed ever.........the only disappointment would have been if I had "not" stayed at this hotel. The Residence Inn in Los Alamitos is just the best in every way. Cant wait to come back. Thank you Lisa and God bless you and your staff.More</t>
   </si>
   <si>
+    <t>Alisparks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r292880814-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -746,6 +824,9 @@
     <t>This hotel was ok but I would prefer to stay closer to Disneyland in Garden Grove. Rooms were clean and quiet. Separate kitchen/living area. If you don't mind having a bit of a drive then give it a go.More</t>
   </si>
   <si>
+    <t>EdfromPDR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r288368784-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -767,6 +848,9 @@
     <t>This is a newer Residence Inn located next to the Los Alamitos Race Track. It's location allows for easy access to Disneyland, Knotts Berry Farm, Seal and Huntington Beaches and Long Beach Harbor. This is the second year we have visited this property. Each time was a week in length. The property is well maintained and I can not find any faults. The staff was pleasant. They have a generous Marriott style free breakfast and Monday, Tuesday and Wednesday various snacks/drinks/BBQ or food truck visit in the evening. The gym has weights, two treadmills, bike and elliptical trainer. I rarely encountered another person in the gym. I suspect most people started their day early to get a head start on tourist activities. Last year the adjacent race track was a source of numerous outdoor flies. This year was not an issue. I'm not sure what was done to improve the problem but it was an enjoyable stay. More</t>
   </si>
   <si>
+    <t>juliebergman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r284865777-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -785,6 +869,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Andrew K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r282503567-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -800,6 +887,9 @@
     <t>6 weeks stay, very enjoyable long stay..great staff always helpful.great for its price and close to shops.they offer different activity's every day i.e free bbq or social night.pool is decent size, breakfast is good. front counter and room service is great!how ever a non stick fry pan would make this stay even more enjoyable.full size fridge, 2 burner, microwave, dishwasher.....bbq outside. outdoor alfresco area nearby pool.keep up the god work</t>
   </si>
   <si>
+    <t>Susan A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r274503788-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -818,6 +908,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Joyce F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r267056399-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -836,6 +929,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Trotamundos09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r266937337-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -851,6 +947,9 @@
     <t>Had some business at Los Alamitos Joint Base, and stayed here for a week.  Front Desk and other staff were professional and courteous.  Suite was well-equipped and roomy, including kitchenette/microwave, fridge.  Breakfast was included that had lots of options.  A couple of nights a week, they offered a "mix" that ranged from a full meal (burgers) to dessert or others.  Clientele seemed to be mostly military/government due to the proximity of the base, with the occasional family taking advantage of its proximity to Disneyland.  Would stay again if I had reason to be in the area.</t>
   </si>
   <si>
+    <t>Cherie O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r261815291-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -869,6 +968,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>mathisnate</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r260137771-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -893,6 +995,9 @@
     <t>Received my bill for the evening at 4:00am checked in at 9:30 total price was 164.00 checked bank account noticed payment being taken out was 190.00 wasn't notified by desk personal about extra money being applied to bill call back in the morning for explanation received worse customer service ever from Matt and Regina also i'm a rewards member couldn't imagine going back thereMore</t>
   </si>
   <si>
+    <t>ArnoldFamily23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r256561689-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -912,6 +1017,9 @@
   </si>
   <si>
     <t>The hotel is next door to Los Alamitos horse racing track, but we never heard the noise and the track was in season.We stayed here for our soccer team tournament. If you are playing at the Long Beach "Beach Classic" at CSU Long Beach, it is about a 10-13 minute drive, in-land. No big deal of a drive.The hotel has a pool, and jacuzzi for the sore muscles. In the pool area there are patio tables and a lot of chairs. But the kicker is the large BBQ to cook up a big meal for the team and families;this is a very nice feature.The included breakfast is standard blah breakfast at a buffet, nothing wrong with cereal, toast and yogurt, just nothing tasty. But it will fill you up until you need to eat again.Next door is a center that has Subway.Staff was courteous, which is good since they had about 4 soccer teams plus the race track groups to manage.The room was exactly as shown in the pictures: kitchenette, swivel TV stand, and all the other standard Marriott Residence Inn features. No charge to park your car. Safe area.This is not a vacation destination, but very nice for a couple nights while with a travel soccer team.More</t>
+  </si>
+  <si>
+    <t>aieaairborne</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r251675324-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
@@ -941,6 +1049,9 @@
 I would also like to compliment the staff at the front desk and both their professionalism and the way they take car of customers. Many thanks for the assistance given on needing to add...The location of the Residence Inn is next to the entrance road to the quarter horse race track and about 2 stoplights up from the entrance road to JB Los Alamitos. There are any number of very good restaurants within the area around it on Katella. Just be advised you will need to do a U turn at the light where the track entrance is on Katella if you are coming from LAX to get to the hotel.The room that I had on the 2d floor was nice, not new, but nice, with a very comfortable bed. The shower pressure was only ok, but there was plenty of hot water. WiFi is free and had good strength. Very comfortable place to spend 4 nights.What I really liked about this hotel was the very well maintained courtyard with plants and flowers around the pool, which was a great place for sitting around in the evenings. This really was super nice! I also liked the free breakfast that was offered each morning, and the evening items that were done too. Hats off to whoever came up with the idea of doing a free waffle sunday night - what a great idea to have for your guests!I would also like to compliment the staff at the front desk and both their professionalism and the way they take car of customers. Many thanks for the assistance given on needing to add a night to my stay.  I definitely will return for another stay at this Residence Inn.More</t>
   </si>
   <si>
+    <t>FoodGuyWineGuy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r247816641-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -956,6 +1067,9 @@
     <t>We spent a couple nights here at the end of the Cember 2014. This hotel is right next door to the street from the Los Alamitos racetrack and about 20 minutes drive from Disney. We really like residence is because they include breakfast it was a good way to get our day started. We can always find yogurt and fresh fruit and occasionally I'll throw a bagel or in English muffin in the toaster then and I'll load up the turkey sausage and some eggs and make a breakfast sandwich. Great location for Disney and great value!</t>
   </si>
   <si>
+    <t>REA-WashDC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r245017491-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -977,6 +1091,9 @@
     <t>I always check the various Marriott brands first when I travel in the U. S. If the price is right and the location ideal for my purposes, I book straight away and am seldom disappointed. This was the case with this Residence Inn when I visited the area for a November reunion with long-time friends. It was convenient to/from a few L.A.-area interstates, had plenty of nearby dining options, and perfect hotel/room amenities. The only non-positive feedback I have is that the rooms are housed in two separate buildings that are connected to the main lobby and breakfast room only through outdoor walkways. It's really not a big deal except for a couple of chilly mornings and one that was rainy. All in all I had a very pleasant 3-night stay and can gladly to recommend.More</t>
   </si>
   <si>
+    <t>MVT_US</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r242547068-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -995,6 +1112,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>pdcarp_tx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r232765161-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1013,6 +1133,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>DOT2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r229085868-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1028,6 +1151,9 @@
     <t>Booked this RI at the last minute for a weekend getaway &amp; to spend time with family.  Friendly, helpful staff, nicely appointed rooms and a beautiful pool area in a tropical-like setting.  Would give this hotel 5 stars, except furniture was a little worn and furnishings felt dated.  But we'd definitely return.</t>
   </si>
   <si>
+    <t>Heidi072</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r227598188-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1049,6 +1175,9 @@
     <t>From the moment you enter the lobby area, you will feel right at home.  The staff is very accommodating, and your check in will be fast and efficient, so that you can quickly settle into your room.  I interacted mainly with Char upon arrival and departure.  I observed that she goes out of her way to make sure that the customers are well treated.The room I stayed in was immaculate, and I found the furnishings to be nice and comfy.   When you stay at this Residence Inn, you won't have to worry about having all of the necessary supplies available for you to use.  For example, if you need a towel or some dishwsher soap you won't need to search or call room service.  I needed a quiet place to rest, and I couldn't believe how nice and peaceful my room was.   The complimentary breakfast is buffet style, so you can either select a very basic breakfast of toast, juice and coffee, or indulge a little by having waffles, eggs, bacon, potatoes, cereal, yogurt, etc.   Moreover, a wide selection of beverages is also available.I have stayed at this location many times since 2006, however, on this particular stay, I really need some rest and relaxation and knew that I would find it during my time there.  What a Godsend!!More</t>
   </si>
   <si>
+    <t>KevinNash</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r220265596-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1073,6 +1202,9 @@
     <t>I hate to give it a poor review, because it's really a good hotel in general. But, it's filled and surrounded by flies, which makes the hotel a health concern for the people staying there. I never seen this ugly scene before in Orange County, so it's really weird. The only explanation might be the horse track or club behind them. But anyways they are suppose to deal with it instead of leaving this ugly health hazard like that. Avoid til they fix this issue. More</t>
   </si>
   <si>
+    <t>StarGazer55555</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r219866323-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1094,6 +1226,9 @@
     <t>I stayed here for a business trip and it was very comfortable.  I had a nice large room with a fireplace and a kitchen.  It was comfortable and spacious and recently updated. I had no trouble getting an internet connection from the room.  The room was clean and had a full kitchen if you wanted to cook.  Staff at the front desk were very friendly.The hotel had a couple of social hours which were nice after work including a sip and dip pool party.  This hotel is close to a number of restaurants.  They had a free breakfast in the morning with hot food which was great.  I would definetly stay here again if I was in the area.A bonus was being able to see the track from my window.  It was fun to watch them exercise the horses in the morning.  You are almost right next door to Los Alamitos Race Track.More</t>
   </si>
   <si>
+    <t>Helmantoler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r217528512-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1109,6 +1244,9 @@
     <t>We booked this room last minute for a quick get away. The price was good and location perfect. The rooms are clean and plenty of room. They have kitchen and living room. The pool was fun for kiddo. Seemed like nice people staying her. Grounds are nice and well keep.</t>
   </si>
   <si>
+    <t>nitehawk_tc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r215260595-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1136,6 +1274,9 @@
     <t>This hotel, like other residence inn, has nice amenities for long term stay.  It has a kitchen, fridge, table wear etc.  The room is good size.  Hotel has free wifi and coin operated laundry room.  The place is clean and comfortable.  There are many restaurants that is close by.  If I come visit here, I would be willing to stay here again.  The only thing I wish it's better is the free breakfast.  Maybe it's b/c of the days we were there, server can't keep up with food in the buffet line.  Also the food is just so so.More</t>
   </si>
   <si>
+    <t>Maryanne A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r214718629-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1154,6 +1295,9 @@
     <t>My family and I have been staying at this property for over 8 years, sometimes several times per year.  Lisa Lane, GM, has an amazing team, from front desk, food service and housekeeping.  Lisa and her team are always smiling, happy to help and go above and beyond with any and all guests requests.  They are all hands on and provide exceptional guest satisfaction.  The hotel is clean, inside and out.  They are located close to Disneyland and Knott’s Berry Farm, and our family enjoys the spacious suites with full kitchens and the complimentary hot breakfast buffet every morning.  Stop by and enjoy their evening happy hour and get to meet their staff.  Thumbs up to Lisa and her team.More</t>
   </si>
   <si>
+    <t>BrugerS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r209526717-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1178,6 +1322,9 @@
     <t>We stayed 5 people in a 2-bedroom suite for five nights, and that worked out really well. Comfortably-sized suite with everything, two bathrooms, pull-out sofa bed, etc. The suite was clean and presentable, and the furniture didn't look too old. Pool area was really nice, and the service was good.The breakfast was ok but not great, there could have been a few more healthy options.Only real complaint was the wifi - in some parts of our suite there was almost no connection at all. Also, the pillows were a little high.More</t>
   </si>
   <si>
+    <t>20Chris00</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r207505313-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1202,6 +1349,9 @@
     <t>Always try and stay in a Residence Inn during business travel.  I like the rooms and the service. The price is a bit high for my pleasure travel (cheap) but if someone else is paying why not! Over the past few years, the evening reception (The mix) has been cut way back.  Last evening I found out that "the mix" was - go out and order a pizza from a food truck. This would not be so bad if I didn't have to pay for it (cheap).   They call it "local flavor".  I call it - another way for Marriott way to cut costs.  It use to be that the evening reception was every day of the week, not includeing sat and sun.  Now they pick and chose 3 days of the week and throw in the food truck one of those day. Good luck if you pick one of those days if you get actual food and drink provided by the Residence Inn.  And while I'm picking on a Marriott property, the breakfasts have been showing signs of wear.  Come on, this is the one big reason why I like Residence Inn's!  LIsten Marriott, you have a lot of competition out there for my business and pleasure dollar.  Don't screw it up by being cheap like me.More</t>
   </si>
   <si>
+    <t>lvgrl2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r206287700-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1223,6 +1373,9 @@
     <t>We stayed here for one night in a two bedroom/two bathroom suite and it was perfect for us. The hotel is located in a nice quiet area with plenty of restaurants and stores in the area. Short drive to the freeway. The staff was really nice, even gave me cookies upon check-in. I felt safe leaving my car in the parking lot. The free breakfast was a big plus! And they offer free Wi-Fi!As for cons -  the toiletry items in one of the bathrooms were not replaced, they were all opened and used from the previous guest, and one of the hand towels was very old and had a ripped in it.. The sofa bed was very uncomfortable but the beds in the rooms were fine.More</t>
   </si>
   <si>
+    <t>LindaForThePeople</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r202741566-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1247,6 +1400,9 @@
     <t>We stayed at the Residence Inn Cypress Los Alamitos from April 19-25th.  We stay here with some frequency as our kids/grandkids live nearby.  The rooms are up-to-date, clean, and comfortable.  The pool area was pleasant and the pool water clean (although it could be a bit warmer).  Our grandchildren love spending time in the pool.  Actually, they love coming to the hotel in general.  We had them spend the night one night.  We used the pull out sofa bed, which was clean and comfortable for both of them (they're small).  The staff is one of the highlights of this hotel.  Very friendly and helpful.  The applies from the desk clerks to the housekeeping staff to the breakfast staff.  Terrific!More</t>
   </si>
   <si>
+    <t>Sue C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r189270401-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1274,6 +1430,9 @@
     <t>Stayed here in lieu of an unsafe/dumpy "hotel area" while visiting friends who live in Pasadena.  Safe, clean area.  We travel with dogs and found the hotel hospitable for dogs with grass area to do their business.  Hotel has indoor hallways, was quiet, nice clean kitchen w/full frige, pull-out sofa and bedroom.  Breakfast was decent.More</t>
   </si>
   <si>
+    <t>SFGAL8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r189130291-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1295,6 +1454,9 @@
     <t>We picked this particular Residence Inn because of its location -- midway between a number of family and friends that we planned to visit. The location turned out to be perfect for us and the hotel is located in a very quiet neighborhood. Additionally there are a number of decent restaurants nearby. The property is very clean, the service excellent, the breakfast buffet met expectations and our one bedroom suite was just fine. Will happily return next time we are in the area.More</t>
   </si>
   <si>
+    <t>Sean R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r179010606-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1322,6 +1484,9 @@
     <t>Stayed here for 15 days in August.  The service was great.  The rooms were clean and spacious.  The hotel layout was nice and the central courtyard and pool area was a pleasant place to relax.  Housekeeping did a fantastic job.  My room was always clean and fresh when I returned from work each evening.  My one complaint would be with the very low quality of the food in the hotel.  They advertise a daily breakfast buffet and a manager's reception Mon-Wed evening.  While the service at both events was friendly and efficient, you could tell the food quality was really cheap.  I feel kind of funny complaining about the quality of free food (you get what you pay for I guess...), but the powdery-tasting eggs and wonderbread hot-dog buns left a cheap aftertaste to an otherwise high-quality stay.More</t>
   </si>
   <si>
+    <t>EduardTravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r164331684-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1349,6 +1514,9 @@
     <t>Stayed here for one night as an alternate to my usual hotel in the area. Pretty good experience and I would probably stay again. Lobby staff was welcoming. Very disappointing breakfast could seriously be better - I will skip it next time. Room was clean and comfortable.More</t>
   </si>
   <si>
+    <t>Lori_Rieder</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r164320366-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1362,6 +1530,9 @@
   </si>
   <si>
     <t>While our residence was being fumigated for termites, my husband and I, along with our 2 cats, stayed for four nights at this location. We really enjoyed our stay for the most part. It was a nice sized mini-suite and a good price.  It was nice that for a small fee, we were able to stay with our cats instead of needing to board them. We loved having the complimentary breakfast that was included. Both of have traveled for business before and we were both very happy with the freshness and variety of food choices that there were each morning.The only thing that was lacking was the bed. It was slightly small to us, but we are used to a California King sized bed. This was okay, but not particularly comfortable. Other than that, everything was great.We are looking forward to the next time we will be able to stay in this hotel.More</t>
+  </si>
+  <si>
+    <t>Rod_Houston</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r162735058-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
@@ -1390,6 +1561,9 @@
 The staff was great....For our 2013 family vacation we spent six nights in Southern California and stayed at the Residence Inn on Katella. Our itinerary for this trip had us all over the place with stops to the north in Santa Monica and Downtown LA. A visit to Disney which is a short 10 minute drive from the hotel. And finally a trip south to Legoland which is almost in San Diego. Because of our busy schedule we went with a hotel fairly centrally located to all our stops but still close to Disney as we knew the Disney days would be long so we wanted to keep the travel time down to a minimum on those days. The area around the hotel seemed pretty nice with a number of good restaurants. It does get a little sketchy closer to Disney but this location was far enough away. We have become loyal Residence Inn guests over the years as the extra space you get with the suites is a must as we travel with two young kids and at times a mother in law. This hotel like the others we've stayed in provided the ample amount of space required as we went with the two bedroom suite. As for the room itself the beds were very comfortable and while things such as the carpet and cabinets appear to be pretty dated everything was clean and in proper working order. The staff was great. We are pretty low maintenance guests but when we did ask for something the staff was there to help. At check in we asked for a pack and play crib and the staff was at our door with it before we could even unpack the rental car. The free breakfast was good and always a nice perk.  Comparable to all other Residence Inns. The only issues we had were minor. They did close down the pool and spa the last few days we were there for some much needed resurfacing.  It wasn't a big deal as it was actually a little too cold and we were too busy to swim.  My other issue was the latch on the door that provides additional security was really low. I wasn't worried about anyone getting in but more worried about my kids getting out. These latches are usually a lot higher but in this room even the 3 year old had no problem reaching it and thus unlocking the latch. Overall a nice hotel. Very comfortable and it served its purpose well. If you are planning a stop at Disney but don't want to stay at the resort this is a nice alternative. More</t>
   </si>
   <si>
+    <t>Doorothy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r156651932-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1419,6 +1593,9 @@
 advised Front Desk Assistant Manager that I was working on a re-solve, and was going to once again pack. Her response to me was "CHECK OUT IS AT NOON, BE OFF THE PROPERTY OR I WILL CALL THE POLICE !!!!!!!!!!!!!!!! Re cap MR Member 20 yrs, 1/2 Million spent through Domestic &amp; International Marriott Hotels &amp; Resorts , Over 465,000 points earned over that 20 that time.  Assessment Sofa Bed(s) terrible, My behavior my Body Language good, tone of voice calm &amp;  I conducted myself in a professional manner in Lew of situation, agreeable to $50 per night, choose to re-locate, never avoided payment, I choose not to accrue addition fee's by continuing to stay there. But buyer be-ware, treat's to have me age 60 retire professional remove my intervention of the "police". Un except able ,  Would highly recommend that...3/31/13 One Bedroom w/ sofa Bed w/ kitchen .Sofa bed was distressed with coils through out ,nu-bearable to sleep on. We were relocated to a 2 BD Room, sofa bed in 2 BD same condition as 1 BD Room, up grade fee $50 per night with 2 more nights reserved. AM Monday 4/1/13 spoke with front desk to confirm $100 up-grade fee. I was told $50 plus purchase of 15000 MR points .per night. I have been a Marriott Reward Member 20 years . At check out rate would have been $400 additional. All exceptionable, I decided to relocateadvised Front Desk Assistant Manager that I was working on a re-solve, and was going to once again pack. Her response to me was "CHECK OUT IS AT NOON, BE OFF THE PROPERTY OR I WILL CALL THE POLICE !!!!!!!!!!!!!!!! Re cap MR Member 20 yrs, 1/2 Million spent through Domestic &amp; International Marriott Hotels &amp; Resorts , Over 465,000 points earned over that 20 that time.  Assessment Sofa Bed(s) terrible, My behavior my Body Language good, tone of voice calm &amp;  I conducted myself in a professional manner in Lew of situation, agreeable to $50 per night, choose to re-locate, never avoided payment, I choose not to accrue addition fee's by continuing to stay there. But buyer be-ware, treat's to have me age 60 retire professional remove my intervention of the "police". Un except able ,  Would highly recommend that any one reading this review not stay at the Marriott Residence Inn in Los Alamitos Ca. This manager does not define Marriott as a whole, she ,I would recommend seek out additional training that Marriott Corporation has available for there Management staff. 2nd recommendation is that all "sofa Bed mattress be remove &amp; up graded with new mattress. Obvious fact basis on high occupancy mattress especially in "sofa beds" which are un-comfortable most of the time have a short shelf life. In fairness other than that Hotel was clean, 99% of staff excelled in there position with in the Hotel. Over all fixable, treats to contact police un-called for. Management should lead by example, motivate by experience &amp; above all assess all situations with integrity. We are all human, there fore we all make mistakes , And we the customers are not always right .Conclusion for all, Police intervention when all avenues have been exhaustible. And when in harms way , with out a doubt.  But not for any other reason especially to a 60 yr old Grandmother taking her 2 Grand children to Disney Land.  I mean Really. Thank you for reading. RespectfullyMore</t>
   </si>
   <si>
+    <t>DrFood</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r154312741-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1437,6 +1614,9 @@
     <t>The hotel is nice, but completely disappointing. Stayed here while attending a conference in Anaheim for several days/nights. We arrived at 3:15 on Thursday. When I walked up to the front desk no one seemed to care that I was there. Once someone acknowledged my presence I was told that there were no rooms available despite there being a 3 PM check-in. I understand, but you are a corporate focused property, have the rooms available when the guest arrives. Fortunately I had to go to Anaheim and drop off an item which I knew would take about an hour. The front desk clerk told me she would upgrade the room for my trouble and she would call me to let me know the room was ready.  I returned about about 5 PM, not knowing if there would be a room for me. The front desk crew had changed and no one knew anything. When they keyed my name into the system I was assigned a room. I asked if this was an upgrade and was told no. I was also told if I didn't like the room they would move me to another room. The room I was given was TINY and very uncomfortable. I went to the front desk and asked to be moved and was moved to a 4th floor room w/a fireplace. The problem with the room.....old worn out appliances. The ice maker was hanging in the...The hotel is nice, but completely disappointing. Stayed here while attending a conference in Anaheim for several days/nights. We arrived at 3:15 on Thursday. When I walked up to the front desk no one seemed to care that I was there. Once someone acknowledged my presence I was told that there were no rooms available despite there being a 3 PM check-in. I understand, but you are a corporate focused property, have the rooms available when the guest arrives. Fortunately I had to go to Anaheim and drop off an item which I knew would take about an hour. The front desk clerk told me she would upgrade the room for my trouble and she would call me to let me know the room was ready.  I returned about about 5 PM, not knowing if there would be a room for me. The front desk crew had changed and no one knew anything. When they keyed my name into the system I was assigned a room. I asked if this was an upgrade and was told no. I was also told if I didn't like the room they would move me to another room. The room I was given was TINY and very uncomfortable. I went to the front desk and asked to be moved and was moved to a 4th floor room w/a fireplace. The problem with the room.....old worn out appliances. The ice maker was hanging in the freezer. The 3rd floor room had brand new appliances.Over the period of Thursday-Sunday morning I had to have the keys exchanged 10 times. Something was wrong with the room lock or the key cards. I never exposed them to a credit card or magnet or cell phone, they were kept in the folio. That is unacceptable.One final comment to the franchisee and owner. Get rid of the queen beds. They are uncomfortable. If the property was in New York City, yes I can understand. Not in Southern California. Put in King size bed PLEASE.More</t>
   </si>
   <si>
+    <t>billiam25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r153391951-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1455,6 +1635,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>beavertontim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r149820669-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1473,6 +1656,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>Fab221</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r149790842-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1485,6 +1671,9 @@
     <t>Stayed at this location for a family vacation, we had a two bedroom suite for a week and we where comfortable. Good location for trips to LA and Orange County, even San Diego is not a long drive. Rooms are clean and up to date, lots of restaurants around.</t>
   </si>
   <si>
+    <t>LasVegasLabs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r145628700-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1506,6 +1695,9 @@
     <t>We travelled to Los Alamitos to visit the Los Alamitos Race Track and stayed in a one bedroom. This hotel is the closest to the track. We were happily greeted and checked in promptly. The rooms are newly updated and not worn at all...smelled good, carpets clean, bed was comfy, kitchen was fully equipped (except oven of course), small dinette and small sitting area etc. Their breakfast was great and had a huge selection...scrambled eggs, sausage, French toast, waffles, oatmeal, fresh fruit, bagels, English muffins, other breads, muffins, yogurt, cereals,  juices, milks, coffee, tea etc. Definitely something for everyone. The only downside I can see about this hotel is the location to restaurants within walking distance...there aren't any other than a couple of fast food places.  We drove to the race track and it took about 1 minute by cutting through back behind the parking lot (the race is literally backed up to this hotel). I wouldn't plan on walking at night because its poorly lit. A taxi might cost $8???For families, there is a nice pool, small basketball court and a full size gas grill for public use on the patio area by the pool.We will definitely stay here again when we visit the track.More</t>
   </si>
   <si>
+    <t>runaway_with_me</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r135300795-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1527,6 +1719,9 @@
     <t>We would never have stayed here, were it not for the (hilarious) Wiener Nationals at the Los Alamitos Race Course next door, but we're glad we did! We booked a 2 bedroom suite for under $200, and it was HUGE. Two nice-sized onsuite bedrooms, each with a very comfortable queen bed, a living space with TV and fireplace, and a kitchen with a table for 4. Everything was very bright &amp; clean, and all staff members were extremely friendly &amp; helpful. Included was a decent breakfast buffet, and I loved the fact that they have a "store" beside the front desk where you can purchase snacks, water, etc., at any hour. If we ever go to Disneyland or the race track again, we will definitely be staying here!More</t>
   </si>
   <si>
+    <t>HalleTtt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r134783928-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1542,6 +1737,9 @@
     <t>Traveled out here for business. Residence inn has a great location. The bed's are very very comfortable and I slept great. The rooms are quiet and sound proof. Great place to stay.</t>
   </si>
   <si>
+    <t>AnnieMW1025</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r130338019-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1563,6 +1761,9 @@
     <t>This is now my second stay at this location. I decided to return after an AWESOME first stay. I cannot say anything negative about this hotel, location and staff. Room (King Suite) was spacious, clean, and comfortable. I fear bed-bugs therefore I always check and Lysol things before I unpack and settle in. The room was already VERY clean and NO signs of ANY unwanted critters. LOVE the hot &amp; filling breakfast served every morning and the ladies that manage that area should really be commended for keeping everything so clean, fresh and filled! The hotel grounds as kept so polished, the staff so friendly and willing to help, etc. I am so glad that I have found this gem of a hotel in Los Alamitos. Everytime I return to Long Beach, this will be my go-to place to stay...Period!More</t>
   </si>
   <si>
+    <t>MistletoeArrow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r125763439-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1581,6 +1782,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>Lulu82_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r125661803-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1599,6 +1803,9 @@
     <t>the good: breakfast, the short drive to disneyland, two rooms in one suite was good for grandma and kidThe bad: the beds and pillows were very uncomfortable, the rooms appeared to be clean however not good regular cleaning (washrooms were just tidied up daily not really scrubed.  This location was close to disney but very far from LA (~1 hour) and other nice places.   probably wouldn't stay here again, wasn't impressed at the cleanliness.  No bugs that I noticed which is a plus!They make you sign a waiver for not making any noise and if so they will ask you to leave... my 4 year old jumped around for a min. before her dad asked her to stop...we got a call immediately that there were complaints.   Meanwhile, the suite next to us had a dog that barked all night for 7 days... : (More</t>
   </si>
   <si>
+    <t>1stdiva</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r124928924-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1623,6 +1830,9 @@
     <t>They had baby roaches, climbing up the wall, in my granddaughters drink, walking on table.  Needless to say we checked out right away.  Screaming and hollering.More</t>
   </si>
   <si>
+    <t>J C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r122316227-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1650,6 +1860,9 @@
     <t>Stayed here Dec 2011 for a week on business visit in studio apt, Room very nice with comfy double bed, 4 ft sofa bed so easy take four people!, kitchen with cooker, fridge and microwave etc so a good self catering option. i always stay as high as possible and this was 3rd floor but place was quite at night in hotel, a little road rumble and the odd chopper from airbase over road, also a fair amount of US service people staying but i enjoyed talking to them. breakfast was selfhelp on fruit , cereals, porridge,toast, scramble eggs, square sausage and all good. eveing food basic but loads of places nearby (out of hotel turn right over road 1st place-Deli- great fish-chips) - Turn left walk 10 mins Redrobin - good chioce, Wed PM is bike night at bar over the road and noisy but best way to handle that is go over and join in as we did - great night!!)Nice pool + hot tub - Basketball - tennis etc, Staff are great and everyone polite so this is where i will come again next time in California.More</t>
   </si>
   <si>
+    <t>oneawesomescreenname</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r120765696-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1665,6 +1878,9 @@
     <t>I think we've stayed here at least 10 times in the last 5 years.  It's our hotel of choice when visiting the area.</t>
   </si>
   <si>
+    <t>Dalton_traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r119947855-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1683,6 +1899,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>Mark K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r104207719-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1704,6 +1923,9 @@
     <t>We arrived at another hotel in the area which we had booked based on recommendations on this site.  It was horrible and we check out immediately.  We stopped at a local coffee shop with wifi and started looking for another property where we could stay for at least our first night.  We found the Residence Inn - booked it online - then drove to the location.  What a welcome site as we walked into the lobby.  We were greeted with friendly, smiling faces.  Since we had just booked online with hotel.com  the hotel had not yet received the confirmation.  No problem.  They checked us in at the hotel.com rate which was considerably lower that the standard rate.  We arrived at our room and it was great.  It was fresh, clean, and well appointed.  The hotel serves a full complimentary breakfast every ..   morning.  It had a great variety of food and great people working the kitchen.  The property has very nice pool and exercise room.  The location was very convenient to Disneyland and the beaches,  It was a great home away from home where we decided to spend our entire trip.  There is no doubt that when we go back again we will stay at the Residence Inn again.More</t>
   </si>
   <si>
+    <t>shethang</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r98454613-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1725,6 +1947,9 @@
     <t>Stayed here for three nights last week on business. I worked really long hours so I didn't have time to partake in any of the extras or use the fitness or leisure facilities. I can tell you that when I checked in the woman working at the desk was very friendly. As a single woman traveler, I did feel a little uneasy coming and going from the car to my room in the dark near the rear/side of the complex, especially when I was solo and weighted down with bags. It seemed kind of deserted and although there were parking lot lamps it kind of gave me the creeps. Free in room wi fi also would have been a nice touch. The room was not luxurious but seemed clean and it was quiet. Requests for wake up calls were handled enthusiastically by staff. Enjoyed that windows to my room could open - I hate stuffy rooms with sealed windows. Hotel was super convenient to Long Beach airport.More</t>
   </si>
   <si>
+    <t>AllisonKBye</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r97039194-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1743,6 +1968,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>SoCalMan2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r83168478-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1764,6 +1992,9 @@
     <t>My wife and I decided to to do a little local getaway and was looking for a place that was quiet and had cooking facilities because we wanted to stay in during our stay. So I did a search and read some of the reviews on TripAdvisor and decided to try it out and man were we glad we did! The hotel is located in a very nice area and was situated near the Los Alamitos Race Track. The facility was immaculate, the grounds spotless, the parking lot was clean as were the the pool and jacuzzi. At check-in, the staff was very friendly as there were throughout our stay. When they found out the reason for our stay, they graciously upgraded us to a one-bedroom suite.  The rooms were nice and roomy and the bed was very comfortable. The bathrooms were roomy as well and nicely setup with plenty of towels and amenities. The kitchen was well setup with full sized appliances (Fridge, microwave, stove, oven, dishwasher) with plenty of pots, pans, utensils and dishware.  I got free internet via a wall connection and wifi and both were easy to connect and fairly fast. The breakfasts were pretty good for this type of hotel. They changed what was being served every day but you always seemed to get a great selection of cereals, juices, fruit, yogurt, milk, pastries, doughnuts, eggs, ham, bacon, and sausage. During the week on Monday...My wife and I decided to to do a little local getaway and was looking for a place that was quiet and had cooking facilities because we wanted to stay in during our stay. So I did a search and read some of the reviews on TripAdvisor and decided to try it out and man were we glad we did! The hotel is located in a very nice area and was situated near the Los Alamitos Race Track. The facility was immaculate, the grounds spotless, the parking lot was clean as were the the pool and jacuzzi. At check-in, the staff was very friendly as there were throughout our stay. When they found out the reason for our stay, they graciously upgraded us to a one-bedroom suite.  The rooms were nice and roomy and the bed was very comfortable. The bathrooms were roomy as well and nicely setup with plenty of towels and amenities. The kitchen was well setup with full sized appliances (Fridge, microwave, stove, oven, dishwasher) with plenty of pots, pans, utensils and dishware.  I got free internet via a wall connection and wifi and both were easy to connect and fairly fast. The breakfasts were pretty good for this type of hotel. They changed what was being served every day but you always seemed to get a great selection of cereals, juices, fruit, yogurt, milk, pastries, doughnuts, eggs, ham, bacon, and sausage. During the week on Monday through Wednesday was a happy hour night with free food and wine and beer every weeknight. We loved every moment of our stay and plan to go back soon. We highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>Ainssss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r76644720-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1800,6 +2031,9 @@
     <t>Wow, this place in incredibly immaculate!  Should have realized something was different when I first pulled into the parking lot to check-in.  The grounds are well maintained and everything is CLEAN.  The front desk staff were awesome...each and every one of them.  There were four total that checked-in at the same time and they were so apologetic that there was a ‘wait’.  We kept telling them this was NOT an issue as we were all together but the kindness and acknowledgement was something to be noted.  Once we got to the rooms, (as I found out later) all of our jaws dropped.  The cleanliness stood out, the layout very functional and the space very impressive.  Housekeeping was excellent.  There was free Hi-speed internet and free parking.  There was a HOT breakfast every morning (your standard scambled eggs, potatoes, breakfast meat (each morning was a different meat --&gt; sausage/ham/bacon/etc.), fresh fruit, breads, coffee, etc.) and the buffet keep clean and fresh.  The make-your-own waffles were awesome.  The dining area was a little small but people were in and out of there somewhat fast so tables opened up fairly quickly.  We all stayed there 5 days and could not ask for better accommodations.  This is my new standard when traveling.  I hope all Residence Inn locations are as great as this one!More</t>
   </si>
   <si>
+    <t>ShannonT78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r53577354-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1818,6 +2052,9 @@
     <t>December 2009</t>
   </si>
   <si>
+    <t>cairde2u</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r47691776-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1836,6 +2073,9 @@
     <t>October 2009</t>
   </si>
   <si>
+    <t>Yolculuklar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r47461202-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1855,6 +2095,9 @@
   </si>
   <si>
     <t>This is my forth time to stay at this property.  Although a little further from areas I visited, I prefer this location.  It's a short drive to the interstates and to the beaches.  The reception staff was very friendly and helpful.  I was amazed one staff member recalled me from a previous visit two years earlier.  The rooms were carpeted recently.  Our housekeeper was fantastic.  The two bedroom suite is a very good value.  My only complaint about the room is the climate control system is noisy.  While the room was clean, the common areas in the buildings were not kept to the same standard.  The landscaping was kept up well though.The breakfast was standard.  We utilized the outdoor grill at the Gatehouse to cook and were able eat our supper outside one evening.  Although the hotel appears to be utilized primarily by individuals on business, I recommend it to people who want to look farther afield for better prices on accommodations.More</t>
+  </si>
+  <si>
+    <t>icnjill</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r26398963-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
@@ -1888,6 +2131,9 @@
 Upon complaining to the front desk, we were, yet again, given the old book explanation with vague statements about new policies by management which reduced food service hours. The impression that we had was that the hotel was making cost...We stayed at the Residence Inn earlier this month while attending a convention and were initially quite pleased. The facility is large, new and quite clean overall. When arriving in our room, we were happy with the layout... two bedrooms with queen beds AND two bathrooms, along with a small kitchen area complete with microwave, refrigerator and dishwasher. However, there were LARGE stains right inside the front door on the very new carpet which apparently had not been cleaned. One toilet had a substantial leak and standing water in the bathroom which housekeeping was very slow to address. However, our biggest beef was with the food service. The book in our room stated that breakfast on the weekends ended at 10am... yet when we arrived shortly after 9:30 we were told that service had ended and there was no more food to be had. We explained that our book said 10:00AM and was told "there are still some old books up in the rooms." Not good enough.. and what was worse were the families with small children who were clearly counting on breakfast who were also turned away. They also had "old books" in their rooms with the old hours.Upon complaining to the front desk, we were, yet again, given the old book explanation with vague statements about new policies by management which reduced food service hours. The impression that we had was that the hotel was making cost cutting efforts and chose to sacrifice food service to customers. What we didn't understand was why the hotel staff did NOT say "We're so sorry for the confusion. Yes, we do have new hours but we would be happy to send some food back with you to your room." Instead, we were told there was absolutely no food to be had. Ironically, the front desk then interceded on our behalf and had the kitchen give us a bag of bagels... which showed that the kitchen DID have food available. The "bones" of this facility are good... but the quality of the service was poor. If you want customers to come back, you've really got to give us a good reason to do so. Also.. Fair warning.. the pool was empty of water and under service.More</t>
   </si>
   <si>
+    <t>Angelfan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r25476393-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1906,6 +2152,9 @@
     <t>February 2009</t>
   </si>
   <si>
+    <t>Nay505</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r21006013-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1927,6 +2176,9 @@
     <t>Well i like to share my comments regarding my stay at the Residence Inn Cypress Los Alamitos.  I must say when checking into the hotel it was fast easy and friendly. The rooms were very nice and clean. And the room service was tremendous house Keeping Great. The pool area and the basket ball area was a great get away for the kids. And now lets talk about the Breakfast it was excellent and so were the kitchen staff.  I must say our stay was for 4 days and when it came to doing laundry, the laundry room was clean and the washing machines dispensed the soap i did not have to bring my own, The machines worked great.   Well back to the room the kitchen  were fully supplied with pots, pans, dishes spoons, forks, glasses dishwasher, ect..... And another thing we stood at several hotel in the Disneyland area we had to pay Anaheim tax 15 percent for the up keep of Anaheim. Surprise surprise!!!!  and also had to pay for parking witch was ridiculous.  And at the Residence Inn Cypress Los Alamitos you don't pay for parking nor tax for the city upkeep. just normal taxes.  This hotel was great location not far from Disney Land and Knotts Berry Farm . we enjoyed out stay.                                  WILL BE BACK!!!!!!!!!!!!!!!!!!!!!!!!!!More</t>
   </si>
   <si>
+    <t>TravellerfromPhilly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r17672103-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1942,6 +2194,9 @@
     <t>Very nice place - new property. The manager told me that this hotel is a "generation 6" property meaning it had the latest design, amenities and services.Breakfast and a light dinner is served at no charge. There was a small but well stocked section with a assortment of grocery, soda/beer, snacks, ice cream, etc. at reasonable prices. Security was good - entrance to all doors except the lobby required the room key.</t>
   </si>
   <si>
+    <t>chumash12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r16946344-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -1958,6 +2213,9 @@
   </si>
   <si>
     <t>June 2008</t>
+  </si>
+  <si>
+    <t>jlmjdar</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r12786126-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
@@ -1989,6 +2247,9 @@
 The...We recently returned from a Disneyland trip.  We prefer to stay at Marriott Hotels and needed a room that would hold 5 people.  We booked a 2 bedroom suite at this Residence Inn.  We visit the Orange County area at least 2-3 times a year and have our ususal places we stay, but because there were more of us this trip, we needed larger accommodations.This was perfect!  The hotel is a newer property located in a "Business Park" area.  The neighborhood is good, the front desk staff were very friendly and it was't overly crowded.  Best of all, was the location.  It is only a short drive to Disneyland and Knott's Berry Farm, and a short drive to the Beaches.The morning breakfast was better than what you get at most other Residence Inn's.  There was typically, Waffles, Eggs every morning with Bacon or Sausage and they would also rotate in Pancakes or French Toast.  Also had Oatmeal, cereal, fruit, bagels, yogurt and toast.  They also have coffee in the lobby available day or night along with free newspapers.  Personally, I cannot get a liking for this new brand of coffee they are serving.  Very bitter, but I guess I'm just a Starbucks Snob.  During the week, they serve "Dinner" in the Lobby.  We went down one night to check it out.  They had Chili Dogs and Chips.  Dogs were very tasty.  Not bad at all for free!The room was fairly quiet, only issue was that our room was at the end of the hall and the door to go in and out of the building was next to our bedroom and you could hear everyone come in and out.  So as long as your not trying to go to sleep at 8:30pm, most of the walk in traffic died out about 10:30pm so we slept good.  Beds were comfortable and the kids did not complain about the sofa sleeper.Overall, we were very satisfied with this hotel and would definately stay here again.More</t>
   </si>
   <si>
+    <t>CoachSr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r7757725-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -2001,6 +2262,9 @@
     <t>May 2007</t>
   </si>
   <si>
+    <t>Marriott_Man</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r7283616-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -2013,6 +2277,9 @@
     <t>August 2006</t>
   </si>
   <si>
+    <t>lori11111</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r6898891-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -2028,6 +2295,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>NascarGordon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r4781827-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -2037,6 +2307,9 @@
     <t>03/29/2006</t>
   </si>
   <si>
+    <t>sunflower2499</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r3736040-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
   </si>
   <si>
@@ -2044,6 +2317,9 @@
   </si>
   <si>
     <t>08/03/2005</t>
+  </si>
+  <si>
+    <t>tnvolfanMaryville_TN</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32651-d258700-r1736752-Residence_Inn_by_Marriott_Cypress_Los_Alamitos-Los_Alamitos_California.html</t>
@@ -2557,43 +2833,47 @@
       <c r="A2" t="n">
         <v>45922</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2609,56 +2889,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>45922</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -2678,41 +2962,45 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>45922</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
@@ -2729,56 +3017,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>45922</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2796,50 +3088,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>45922</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2859,50 +3155,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>45922</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2914,56 +3214,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>45922</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2983,50 +3287,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>45922</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3044,56 +3352,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>45922</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3105,56 +3417,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>45922</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3168,50 +3484,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>45922</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3225,50 +3545,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>45922</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3286,50 +3610,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>45922</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="O14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3343,50 +3671,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>45922</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3404,50 +3736,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>45922</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="O16" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3467,50 +3803,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>45922</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="J17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3530,50 +3870,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>45922</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3587,50 +3931,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>45922</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>186</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="J19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="K19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="O19" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3648,50 +3996,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>45922</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>194</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="J20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="K20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3707,56 +4059,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="X20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="Y20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>45922</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="O21" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -3774,56 +4130,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="X21" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="Y21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>45922</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>212</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="J22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="K22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -3841,56 +4201,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="X22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="Y22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>45922</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>221</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="J23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3902,56 +4266,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="X23" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="Y23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>45922</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>228</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="J24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="K24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="O24" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3969,50 +4337,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>45922</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>236</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4032,50 +4404,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>45922</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>244</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="J26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="K26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4091,56 +4467,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="X26" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="Y26" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>45922</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>254</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="J27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="K27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -4158,56 +4538,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="X27" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="Y27" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>45922</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>264</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="J28" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="K28" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="L28" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4219,56 +4603,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="X28" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="Y28" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>45922</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>272</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="J29" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="K29" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -4288,50 +4676,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>45922</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>279</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="J30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="K30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="O30" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -4351,50 +4743,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>45922</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>285</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="J31" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="K31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="L31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4414,50 +4810,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>45922</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>292</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="K32" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="O32" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4477,50 +4877,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>45922</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>299</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="J33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="K33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="L33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="O33" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4540,50 +4944,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>45922</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>305</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="J34" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="K34" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="L34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="O34" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4597,50 +5005,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>45922</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>312</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="J35" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="K35" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="L35" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4652,56 +5064,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="X35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="Y35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>45922</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>321</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="J36" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="K36" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="L36" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4721,50 +5137,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>45922</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>329</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="J37" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="K37" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="L37" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="O37" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4784,41 +5204,45 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>45922</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>337</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="J38" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="K38" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="L38" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
@@ -4847,50 +5271,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>45922</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>343</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="J39" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="K39" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="L39" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="O39" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4908,50 +5336,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>45922</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>351</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="J40" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="K40" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="L40" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="O40" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4965,50 +5397,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>45922</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>358</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="J41" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="K41" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="L41" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="O41" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5026,50 +5462,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>45922</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>365</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="J42" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="K42" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="L42" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5083,50 +5523,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>45922</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>371</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="J43" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="K43" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="L43" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="O43" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5146,50 +5590,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>45922</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>379</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="J44" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="K44" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="L44" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5201,56 +5649,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="X44" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="Y44" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>45922</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>388</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="J45" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="K45" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="L45" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="O45" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5268,41 +5720,45 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>45922</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>396</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="J46" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="K46" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="L46" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
@@ -5331,50 +5787,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>45922</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>402</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="J47" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="K47" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="L47" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5392,56 +5852,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="X47" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="Y47" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>45922</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>412</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="J48" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="K48" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="L48" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5459,56 +5923,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="X48" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="Y48" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>45922</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>419</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="J49" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="K49" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="L49" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="O49" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5530,56 +5998,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="X49" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="Y49" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>45922</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>428</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="J50" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="K50" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="L50" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="O50" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5601,56 +6073,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="X50" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="Y50" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>45922</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>437</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="J51" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="K51" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="L51" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -5672,56 +6148,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="X51" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="Y51" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>45922</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>445</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="J52" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="K52" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="L52" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5743,56 +6223,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="X52" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="Y52" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>45922</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>454</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="J53" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="K53" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="L53" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="O53" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5814,56 +6298,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="X53" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="Y53" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>45922</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>464</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="J54" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="K54" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="L54" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="O54" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5885,56 +6373,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="X54" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="Y54" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>45922</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>472</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="J55" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="K55" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="L55" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="O55" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5956,56 +6448,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="X55" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="Y55" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>45922</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>482</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="J56" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="K56" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="L56" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="O56" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -6027,56 +6523,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="X56" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="Y56" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>45922</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>492</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="J57" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="K57" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="L57" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -6098,47 +6598,51 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="X57" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="Y57" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>45922</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>498</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="J58" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="K58" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="L58" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
@@ -6165,56 +6669,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="X58" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="Y58" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>45922</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>505</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="J59" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="K59" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="L59" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -6234,56 +6742,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="X59" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="Y59" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>45922</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>515</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="J60" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="K60" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="L60" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="O60" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -6305,56 +6817,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="X60" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="Y60" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>45922</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>522</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>464</v>
+        <v>524</v>
       </c>
       <c r="J61" t="s">
-        <v>465</v>
+        <v>525</v>
       </c>
       <c r="K61" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="L61" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6378,50 +6894,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>45922</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>529</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>469</v>
+        <v>530</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>470</v>
+        <v>531</v>
       </c>
       <c r="J62" t="s">
-        <v>471</v>
+        <v>532</v>
       </c>
       <c r="K62" t="s">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="L62" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>474</v>
+        <v>535</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6445,50 +6965,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>45922</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>536</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>475</v>
+        <v>537</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>476</v>
+        <v>538</v>
       </c>
       <c r="J63" t="s">
-        <v>471</v>
+        <v>532</v>
       </c>
       <c r="K63" t="s">
-        <v>477</v>
+        <v>539</v>
       </c>
       <c r="L63" t="s">
-        <v>478</v>
+        <v>540</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6512,50 +7036,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>478</v>
+        <v>540</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>45922</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>541</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="J64" t="s">
-        <v>481</v>
+        <v>544</v>
       </c>
       <c r="K64" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
       <c r="L64" t="s">
-        <v>483</v>
+        <v>546</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>484</v>
+        <v>547</v>
       </c>
       <c r="O64" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -6579,50 +7107,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>485</v>
+        <v>548</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>45922</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>549</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>486</v>
+        <v>550</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>487</v>
+        <v>551</v>
       </c>
       <c r="J65" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
       <c r="K65" t="s">
-        <v>489</v>
+        <v>553</v>
       </c>
       <c r="L65" t="s">
-        <v>490</v>
+        <v>554</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>491</v>
+        <v>555</v>
       </c>
       <c r="O65" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6646,50 +7178,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>492</v>
+        <v>556</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>45922</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>557</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>493</v>
+        <v>558</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>494</v>
+        <v>559</v>
       </c>
       <c r="J66" t="s">
-        <v>495</v>
+        <v>560</v>
       </c>
       <c r="K66" t="s">
-        <v>496</v>
+        <v>561</v>
       </c>
       <c r="L66" t="s">
-        <v>497</v>
+        <v>562</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>491</v>
+        <v>555</v>
       </c>
       <c r="O66" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6713,50 +7249,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>497</v>
+        <v>562</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>45922</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>563</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>499</v>
+        <v>565</v>
       </c>
       <c r="J67" t="s">
-        <v>500</v>
+        <v>566</v>
       </c>
       <c r="K67" t="s">
-        <v>501</v>
+        <v>567</v>
       </c>
       <c r="L67" t="s">
-        <v>502</v>
+        <v>568</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>503</v>
+        <v>569</v>
       </c>
       <c r="O67" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6780,50 +7320,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>45922</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>571</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>505</v>
+        <v>572</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>506</v>
+        <v>573</v>
       </c>
       <c r="J68" t="s">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="K68" t="s">
-        <v>508</v>
+        <v>575</v>
       </c>
       <c r="L68" t="s">
-        <v>509</v>
+        <v>576</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>510</v>
+        <v>577</v>
       </c>
       <c r="O68" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6847,50 +7391,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>509</v>
+        <v>576</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>45922</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>578</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>511</v>
+        <v>579</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>512</v>
+        <v>580</v>
       </c>
       <c r="J69" t="s">
-        <v>513</v>
+        <v>581</v>
       </c>
       <c r="K69" t="s">
-        <v>514</v>
+        <v>582</v>
       </c>
       <c r="L69" t="s">
-        <v>515</v>
+        <v>583</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>510</v>
+        <v>577</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -6914,50 +7462,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>516</v>
+        <v>584</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>45922</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>585</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>517</v>
+        <v>586</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>518</v>
+        <v>587</v>
       </c>
       <c r="J70" t="s">
-        <v>519</v>
+        <v>588</v>
       </c>
       <c r="K70" t="s">
-        <v>520</v>
+        <v>589</v>
       </c>
       <c r="L70" t="s">
-        <v>521</v>
+        <v>590</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>510</v>
+        <v>577</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -6979,56 +7531,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>522</v>
+        <v>591</v>
       </c>
       <c r="X70" t="s">
-        <v>523</v>
+        <v>592</v>
       </c>
       <c r="Y70" t="s">
-        <v>524</v>
+        <v>593</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>45922</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>594</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>525</v>
+        <v>595</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>526</v>
+        <v>596</v>
       </c>
       <c r="J71" t="s">
-        <v>527</v>
+        <v>597</v>
       </c>
       <c r="K71" t="s">
-        <v>528</v>
+        <v>598</v>
       </c>
       <c r="L71" t="s">
-        <v>529</v>
+        <v>599</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>530</v>
+        <v>600</v>
       </c>
       <c r="O71" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7050,47 +7606,51 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>531</v>
+        <v>601</v>
       </c>
       <c r="X71" t="s">
-        <v>532</v>
+        <v>602</v>
       </c>
       <c r="Y71" t="s">
-        <v>533</v>
+        <v>603</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>45922</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>604</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>534</v>
+        <v>605</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="J72" t="s">
-        <v>536</v>
+        <v>607</v>
       </c>
       <c r="K72" t="s">
-        <v>537</v>
+        <v>608</v>
       </c>
       <c r="L72" t="s">
-        <v>538</v>
+        <v>609</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
@@ -7119,50 +7679,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>538</v>
+        <v>609</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>45922</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>610</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>539</v>
+        <v>611</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="J73" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
       <c r="K73" t="s">
-        <v>542</v>
+        <v>614</v>
       </c>
       <c r="L73" t="s">
-        <v>543</v>
+        <v>615</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>544</v>
+        <v>616</v>
       </c>
       <c r="O73" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7186,50 +7750,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>543</v>
+        <v>615</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>45922</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>617</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>545</v>
+        <v>618</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>546</v>
+        <v>619</v>
       </c>
       <c r="J74" t="s">
-        <v>547</v>
+        <v>620</v>
       </c>
       <c r="K74" t="s">
-        <v>548</v>
+        <v>621</v>
       </c>
       <c r="L74" t="s">
-        <v>549</v>
+        <v>622</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>550</v>
+        <v>623</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7253,50 +7821,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>45922</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>625</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>552</v>
+        <v>626</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>553</v>
+        <v>627</v>
       </c>
       <c r="J75" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="K75" t="s">
-        <v>555</v>
+        <v>629</v>
       </c>
       <c r="L75" t="s">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>557</v>
+        <v>631</v>
       </c>
       <c r="O75" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7320,50 +7892,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>558</v>
+        <v>632</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>45922</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>633</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>559</v>
+        <v>634</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>560</v>
+        <v>635</v>
       </c>
       <c r="J76" t="s">
-        <v>561</v>
+        <v>636</v>
       </c>
       <c r="K76" t="s">
-        <v>562</v>
+        <v>637</v>
       </c>
       <c r="L76" t="s">
-        <v>563</v>
+        <v>638</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>564</v>
+        <v>639</v>
       </c>
       <c r="O76" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7387,50 +7963,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>563</v>
+        <v>638</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>45922</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>640</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>565</v>
+        <v>641</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>566</v>
+        <v>642</v>
       </c>
       <c r="J77" t="s">
-        <v>567</v>
+        <v>643</v>
       </c>
       <c r="K77" t="s">
-        <v>568</v>
+        <v>644</v>
       </c>
       <c r="L77" t="s">
-        <v>569</v>
+        <v>645</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>570</v>
+        <v>646</v>
       </c>
       <c r="O77" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7454,50 +8034,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>571</v>
+        <v>647</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>45922</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>648</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>572</v>
+        <v>649</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>573</v>
+        <v>650</v>
       </c>
       <c r="J78" t="s">
-        <v>574</v>
+        <v>651</v>
       </c>
       <c r="K78" t="s">
-        <v>575</v>
+        <v>652</v>
       </c>
       <c r="L78" t="s">
-        <v>576</v>
+        <v>653</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>570</v>
+        <v>646</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -7521,50 +8105,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>576</v>
+        <v>653</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>45922</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>563</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>577</v>
+        <v>654</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>578</v>
+        <v>655</v>
       </c>
       <c r="J79" t="s">
-        <v>579</v>
+        <v>656</v>
       </c>
       <c r="K79" t="s">
-        <v>580</v>
+        <v>657</v>
       </c>
       <c r="L79" t="s">
-        <v>581</v>
+        <v>658</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>582</v>
+        <v>659</v>
       </c>
       <c r="O79" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7588,50 +8176,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>583</v>
+        <v>660</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>45922</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>661</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>584</v>
+        <v>662</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>585</v>
+        <v>663</v>
       </c>
       <c r="J80" t="s">
-        <v>586</v>
+        <v>664</v>
       </c>
       <c r="K80" t="s">
-        <v>587</v>
+        <v>665</v>
       </c>
       <c r="L80" t="s">
-        <v>588</v>
+        <v>666</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>589</v>
+        <v>667</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7655,50 +8247,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>588</v>
+        <v>666</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>45922</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>668</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>590</v>
+        <v>669</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>591</v>
+        <v>670</v>
       </c>
       <c r="J81" t="s">
-        <v>592</v>
+        <v>671</v>
       </c>
       <c r="K81" t="s">
-        <v>593</v>
+        <v>672</v>
       </c>
       <c r="L81" t="s">
-        <v>594</v>
+        <v>673</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>595</v>
+        <v>674</v>
       </c>
       <c r="O81" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7722,50 +8318,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>594</v>
+        <v>673</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>45922</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>675</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>596</v>
+        <v>676</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>597</v>
+        <v>677</v>
       </c>
       <c r="J82" t="s">
-        <v>598</v>
+        <v>678</v>
       </c>
       <c r="K82" t="s">
-        <v>599</v>
+        <v>679</v>
       </c>
       <c r="L82" t="s">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>601</v>
+        <v>681</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7789,50 +8389,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>602</v>
+        <v>682</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>45922</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>683</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>603</v>
+        <v>684</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>604</v>
+        <v>685</v>
       </c>
       <c r="J83" t="s">
-        <v>605</v>
+        <v>686</v>
       </c>
       <c r="K83" t="s">
-        <v>606</v>
+        <v>687</v>
       </c>
       <c r="L83" t="s">
-        <v>607</v>
+        <v>688</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>608</v>
+        <v>689</v>
       </c>
       <c r="O83" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P83" t="n">
         <v>2</v>
@@ -7856,50 +8460,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>609</v>
+        <v>690</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>45922</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>691</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>610</v>
+        <v>692</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>611</v>
+        <v>693</v>
       </c>
       <c r="J84" t="s">
-        <v>612</v>
+        <v>694</v>
       </c>
       <c r="K84" t="s">
-        <v>613</v>
+        <v>695</v>
       </c>
       <c r="L84" t="s">
-        <v>614</v>
+        <v>696</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>615</v>
+        <v>697</v>
       </c>
       <c r="O84" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -7923,50 +8531,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>614</v>
+        <v>696</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>45922</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>698</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>616</v>
+        <v>699</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>617</v>
+        <v>700</v>
       </c>
       <c r="J85" t="s">
-        <v>618</v>
+        <v>701</v>
       </c>
       <c r="K85" t="s">
-        <v>619</v>
+        <v>702</v>
       </c>
       <c r="L85" t="s">
-        <v>620</v>
+        <v>703</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>621</v>
+        <v>704</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -7990,41 +8602,45 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>622</v>
+        <v>705</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>45922</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>706</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>623</v>
+        <v>707</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>624</v>
+        <v>708</v>
       </c>
       <c r="J86" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="K86" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="L86" t="s">
-        <v>627</v>
+        <v>711</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
@@ -8053,50 +8669,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>627</v>
+        <v>711</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>45922</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>712</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>628</v>
+        <v>713</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>629</v>
+        <v>714</v>
       </c>
       <c r="J87" t="s">
-        <v>630</v>
+        <v>715</v>
       </c>
       <c r="K87" t="s">
-        <v>631</v>
+        <v>716</v>
       </c>
       <c r="L87" t="s">
-        <v>632</v>
+        <v>717</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>633</v>
+        <v>718</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8120,50 +8740,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>632</v>
+        <v>717</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>45922</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>719</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>634</v>
+        <v>720</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>635</v>
+        <v>721</v>
       </c>
       <c r="J88" t="s">
-        <v>636</v>
+        <v>722</v>
       </c>
       <c r="K88" t="s">
-        <v>637</v>
+        <v>723</v>
       </c>
       <c r="L88" t="s">
-        <v>638</v>
+        <v>724</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>639</v>
+        <v>725</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8185,35 +8809,39 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>640</v>
+        <v>726</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>45922</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>727</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>641</v>
+        <v>728</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>642</v>
+        <v>729</v>
       </c>
       <c r="J89" t="s">
-        <v>643</v>
+        <v>730</v>
       </c>
       <c r="K89" t="s"/>
       <c r="L89" t="s"/>
@@ -8221,10 +8849,10 @@
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>644</v>
+        <v>731</v>
       </c>
       <c r="O89" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8245,36 +8873,37 @@
       <c r="V89" t="n">
         <v>0</v>
       </c>
-      <c r="W89" t="s"/>
-      <c r="X89" t="s"/>
-      <c r="Y89" t="s"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>45922</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>732</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>645</v>
+        <v>733</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>646</v>
+        <v>734</v>
       </c>
       <c r="J90" t="s">
-        <v>647</v>
+        <v>735</v>
       </c>
       <c r="K90" t="s"/>
       <c r="L90" t="s"/>
@@ -8282,10 +8911,10 @@
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>648</v>
+        <v>736</v>
       </c>
       <c r="O90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8306,40 +8935,41 @@
       <c r="V90" t="n">
         <v>0</v>
       </c>
-      <c r="W90" t="s"/>
-      <c r="X90" t="s"/>
-      <c r="Y90" t="s"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>45922</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>737</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>649</v>
+        <v>738</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>650</v>
+        <v>739</v>
       </c>
       <c r="J91" t="s">
-        <v>651</v>
+        <v>740</v>
       </c>
       <c r="K91" t="s"/>
       <c r="L91" t="s">
-        <v>652</v>
+        <v>741</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
@@ -8358,39 +8988,43 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>653</v>
+        <v>742</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>45922</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>743</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>654</v>
+        <v>744</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>655</v>
+        <v>745</v>
       </c>
       <c r="J92" t="s">
-        <v>656</v>
+        <v>746</v>
       </c>
       <c r="K92" t="s"/>
       <c r="L92" t="s">
-        <v>652</v>
+        <v>741</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
@@ -8417,35 +9051,39 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>653</v>
+        <v>742</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>45922</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>747</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>657</v>
+        <v>748</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>658</v>
+        <v>749</v>
       </c>
       <c r="J93" t="s">
-        <v>659</v>
+        <v>750</v>
       </c>
       <c r="K93" t="s"/>
       <c r="L93" t="s"/>
@@ -8463,36 +9101,37 @@
       <c r="V93" t="n">
         <v>0</v>
       </c>
-      <c r="W93" t="s"/>
-      <c r="X93" t="s"/>
-      <c r="Y93" t="s"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>45922</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>751</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>660</v>
+        <v>752</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>661</v>
+        <v>753</v>
       </c>
       <c r="J94" t="s">
-        <v>662</v>
+        <v>754</v>
       </c>
       <c r="K94" t="s"/>
       <c r="L94" t="s"/>
@@ -8510,9 +9149,6 @@
       <c r="V94" t="n">
         <v>0</v>
       </c>
-      <c r="W94" t="s"/>
-      <c r="X94" t="s"/>
-      <c r="Y94" t="s"/>
     </row>
   </sheetData>
 </worksheet>
